--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68026970-2C11-43CC-9587-8FA7C83DED4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19080" windowHeight="7230"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.1.メッセージ仕向け" sheetId="12" r:id="rId1"/>
@@ -12,7 +13,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$183</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -806,25 +818,6 @@
     <t>システム例外を業務アプリケーションに送出する。</t>
   </si>
   <si>
-    <t>接続先で取引成立がしていないため、処理はロールバックされる。</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レスポンス受信後、業務アプリ内でエラーが発生した場合の処理。</t>
     <rPh sb="5" eb="7">
       <t>ジュシン</t>
@@ -1386,13 +1379,32 @@
   </si>
   <si>
     <t>接続先システム側のWEBサービスの仕様は、接続先システムのインタフェース仕様書から確認する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>接続先で取引が成立していないため、処理はロールバックされる。</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1820,15 +1832,18 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1851,7 +1866,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1900,7 +1921,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1944,7 +1971,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1986,7 +2013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2019,9 +2046,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2054,6 +2098,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2229,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2265,7 +2326,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S1" s="42"/>
       <c r="T1" s="42"/>
@@ -2953,7 +3014,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="18"/>
       <c r="L61" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
@@ -2984,7 +3045,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="22"/>
       <c r="L62" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
@@ -3015,7 +3076,7 @@
       <c r="J63" s="24"/>
       <c r="K63" s="25"/>
       <c r="L63" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="24"/>
@@ -3049,7 +3110,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="18"/>
       <c r="L64" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
@@ -3079,7 +3140,7 @@
       <c r="J65" s="24"/>
       <c r="K65" s="25"/>
       <c r="L65" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="24"/>
@@ -3237,7 +3298,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="18"/>
       <c r="L70" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
@@ -3267,7 +3328,7 @@
       <c r="J71" s="24"/>
       <c r="K71" s="25"/>
       <c r="L71" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
@@ -3301,7 +3362,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
       <c r="L72" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
@@ -3331,7 +3392,7 @@
       <c r="J73" s="24"/>
       <c r="K73" s="25"/>
       <c r="L73" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="24"/>
@@ -3378,7 +3439,7 @@
     <row r="78" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="15"/>
       <c r="F78" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3456,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
@@ -3466,7 +3527,7 @@
       <c r="N85" s="17"/>
       <c r="O85" s="18"/>
       <c r="P85" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q85" s="17"/>
       <c r="R85" s="17"/>
@@ -3499,7 +3560,7 @@
       <c r="N86" s="21"/>
       <c r="O86" s="22"/>
       <c r="P86" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q86" s="21"/>
       <c r="R86" s="21"/>
@@ -3532,7 +3593,7 @@
       <c r="N87" s="24"/>
       <c r="O87" s="25"/>
       <c r="P87" s="23" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="Q87" s="24"/>
       <c r="R87" s="24"/>
@@ -3635,7 +3696,7 @@
       <c r="N90" s="24"/>
       <c r="O90" s="25"/>
       <c r="P90" s="23" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
@@ -3738,7 +3799,7 @@
       <c r="N93" s="21"/>
       <c r="O93" s="22"/>
       <c r="P93" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q93" s="21"/>
       <c r="R93" s="21"/>
@@ -3771,7 +3832,7 @@
       <c r="N94" s="24"/>
       <c r="O94" s="25"/>
       <c r="P94" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q94" s="24"/>
       <c r="R94" s="24"/>
@@ -3799,7 +3860,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
@@ -3809,7 +3870,7 @@
       <c r="N95" s="17"/>
       <c r="O95" s="18"/>
       <c r="P95" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q95" s="17"/>
       <c r="R95" s="17"/>
@@ -3876,7 +3937,7 @@
       <c r="N97" s="21"/>
       <c r="O97" s="22"/>
       <c r="P97" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q97" s="21"/>
       <c r="R97" s="21"/>
@@ -3909,7 +3970,7 @@
       <c r="N98" s="24"/>
       <c r="O98" s="25"/>
       <c r="P98" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q98" s="24"/>
       <c r="R98" s="24"/>
@@ -3936,7 +3997,7 @@
         <v>5</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
@@ -3946,7 +4007,7 @@
       <c r="N99" s="17"/>
       <c r="O99" s="18"/>
       <c r="P99" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q99" s="17"/>
       <c r="R99" s="17"/>
@@ -3971,7 +4032,7 @@
       <c r="D100" s="15"/>
       <c r="G100" s="30"/>
       <c r="H100" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
@@ -4014,7 +4075,7 @@
       <c r="N101" s="21"/>
       <c r="O101" s="22"/>
       <c r="P101" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q101" s="21"/>
       <c r="R101" s="21"/>
@@ -4047,7 +4108,7 @@
       <c r="N102" s="24"/>
       <c r="O102" s="25"/>
       <c r="P102" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q102" s="24"/>
       <c r="R102" s="24"/>
@@ -4084,7 +4145,7 @@
       <c r="N103" s="17"/>
       <c r="O103" s="18"/>
       <c r="P103" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q103" s="17"/>
       <c r="R103" s="17"/>
@@ -4150,7 +4211,7 @@
       <c r="N105" s="24"/>
       <c r="O105" s="25"/>
       <c r="P105" s="23" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="Q105" s="24"/>
       <c r="R105" s="24"/>
@@ -4177,7 +4238,7 @@
         <v>7</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
@@ -4187,7 +4248,7 @@
       <c r="N106" s="17"/>
       <c r="O106" s="18"/>
       <c r="P106" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q106" s="17"/>
       <c r="R106" s="17"/>
@@ -4212,7 +4273,7 @@
       <c r="D107" s="15"/>
       <c r="G107" s="30"/>
       <c r="H107" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I107" s="21"/>
       <c r="J107" s="21"/>
@@ -4255,7 +4316,7 @@
       <c r="N108" s="21"/>
       <c r="O108" s="22"/>
       <c r="P108" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q108" s="21"/>
       <c r="R108" s="21"/>
@@ -4288,7 +4349,7 @@
       <c r="N109" s="24"/>
       <c r="O109" s="25"/>
       <c r="P109" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q109" s="24"/>
       <c r="R109" s="24"/>
@@ -4402,7 +4463,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
       <c r="P118" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q118" s="17"/>
       <c r="R118" s="17"/>
@@ -4437,7 +4498,7 @@
       <c r="N119" s="21"/>
       <c r="O119" s="22"/>
       <c r="P119" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q119" s="21"/>
       <c r="R119" s="21"/>
@@ -4470,7 +4531,7 @@
       <c r="N120" s="24"/>
       <c r="O120" s="25"/>
       <c r="P120" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q120" s="24"/>
       <c r="R120" s="24"/>
@@ -4507,7 +4568,7 @@
       <c r="N121" s="17"/>
       <c r="O121" s="18"/>
       <c r="P121" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q121" s="17"/>
       <c r="R121" s="17"/>
@@ -4542,7 +4603,7 @@
       <c r="N122" s="21"/>
       <c r="O122" s="22"/>
       <c r="P122" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q122" s="21"/>
       <c r="R122" s="21"/>
@@ -4575,7 +4636,7 @@
       <c r="N123" s="21"/>
       <c r="O123" s="22"/>
       <c r="P123" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q123" s="21"/>
       <c r="R123" s="21"/>
@@ -4608,7 +4669,7 @@
       <c r="N124" s="24"/>
       <c r="O124" s="25"/>
       <c r="P124" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q124" s="24"/>
       <c r="R124" s="24"/>
@@ -4716,7 +4777,7 @@
       <c r="N131" s="17"/>
       <c r="O131" s="18"/>
       <c r="P131" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q131" s="17"/>
       <c r="R131" s="17"/>
@@ -4752,7 +4813,7 @@
       <c r="N132" s="21"/>
       <c r="O132" s="22"/>
       <c r="P132" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q132" s="21"/>
       <c r="R132" s="21"/>
@@ -4786,7 +4847,7 @@
       <c r="N133" s="21"/>
       <c r="O133" s="22"/>
       <c r="P133" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q133" s="21"/>
       <c r="R133" s="21"/>
@@ -4820,7 +4881,7 @@
       <c r="N134" s="24"/>
       <c r="O134" s="25"/>
       <c r="P134" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q134" s="24"/>
       <c r="R134" s="24"/>
@@ -4858,7 +4919,7 @@
       <c r="N135" s="17"/>
       <c r="O135" s="18"/>
       <c r="P135" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q135" s="17"/>
       <c r="R135" s="17"/>
@@ -4894,7 +4955,7 @@
       <c r="N136" s="21"/>
       <c r="O136" s="22"/>
       <c r="P136" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q136" s="21"/>
       <c r="R136" s="21"/>
@@ -4929,7 +4990,7 @@
       <c r="N137" s="24"/>
       <c r="O137" s="25"/>
       <c r="P137" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q137" s="24"/>
       <c r="R137" s="24"/>
@@ -4992,10 +5053,10 @@
     <row r="144" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D144" s="15"/>
       <c r="E144" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F144" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="F144" s="19" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5005,19 +5066,19 @@
         <v>(5).1.</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D146" s="15"/>
       <c r="G146" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D147" s="15"/>
       <c r="G147" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5029,28 +5090,28 @@
         <v>6.1.4.</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D150" s="33"/>
       <c r="E150" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F150" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="F150" s="19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D151" s="34"/>
       <c r="F151" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D152" s="34"/>
       <c r="F152" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5131,28 +5192,28 @@
     <row r="178" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D178" s="33"/>
       <c r="E178" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D179" s="33"/>
       <c r="F179" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="180" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D180" s="33"/>
       <c r="F180" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="181" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D181" s="33"/>
       <c r="G181" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="182" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68026970-2C11-43CC-9587-8FA7C83DED4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7E8ED1-17BB-4B58-808B-42F93C1A9664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -899,10 +899,6 @@
     <t>可能な限り1アクション内で接続先システムに対しての更新処理は１回のみに制限する。</t>
   </si>
   <si>
-    <t>同一アクション内で、２回以降の接続先システム更新処理を呼び出しで失敗した場合、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>それ以前の更新処理の取り消し処理を考慮しなければならない。</t>
   </si>
   <si>
@@ -1398,6 +1394,10 @@
     <rPh sb="17" eb="19">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同一アクション内で、２回目以降の接続先システム更新処理呼び出しで失敗した場合、</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S1" s="42"/>
       <c r="T1" s="42"/>
@@ -3014,7 +3014,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="18"/>
       <c r="L61" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
@@ -3045,7 +3045,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="22"/>
       <c r="L62" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
@@ -3076,7 +3076,7 @@
       <c r="J63" s="24"/>
       <c r="K63" s="25"/>
       <c r="L63" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="24"/>
@@ -3110,7 +3110,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="18"/>
       <c r="L64" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
@@ -3140,7 +3140,7 @@
       <c r="J65" s="24"/>
       <c r="K65" s="25"/>
       <c r="L65" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="24"/>
@@ -3298,7 +3298,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="18"/>
       <c r="L70" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
@@ -3328,7 +3328,7 @@
       <c r="J71" s="24"/>
       <c r="K71" s="25"/>
       <c r="L71" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
@@ -3362,7 +3362,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
       <c r="L72" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
@@ -3392,7 +3392,7 @@
       <c r="J73" s="24"/>
       <c r="K73" s="25"/>
       <c r="L73" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="24"/>
@@ -3439,7 +3439,7 @@
     <row r="78" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="15"/>
       <c r="F78" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
@@ -3527,7 +3527,7 @@
       <c r="N85" s="17"/>
       <c r="O85" s="18"/>
       <c r="P85" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q85" s="17"/>
       <c r="R85" s="17"/>
@@ -3560,7 +3560,7 @@
       <c r="N86" s="21"/>
       <c r="O86" s="22"/>
       <c r="P86" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q86" s="21"/>
       <c r="R86" s="21"/>
@@ -3593,7 +3593,7 @@
       <c r="N87" s="24"/>
       <c r="O87" s="25"/>
       <c r="P87" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q87" s="24"/>
       <c r="R87" s="24"/>
@@ -3696,7 +3696,7 @@
       <c r="N90" s="24"/>
       <c r="O90" s="25"/>
       <c r="P90" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
@@ -3799,7 +3799,7 @@
       <c r="N93" s="21"/>
       <c r="O93" s="22"/>
       <c r="P93" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q93" s="21"/>
       <c r="R93" s="21"/>
@@ -3832,7 +3832,7 @@
       <c r="N94" s="24"/>
       <c r="O94" s="25"/>
       <c r="P94" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q94" s="24"/>
       <c r="R94" s="24"/>
@@ -3860,7 +3860,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
@@ -3870,7 +3870,7 @@
       <c r="N95" s="17"/>
       <c r="O95" s="18"/>
       <c r="P95" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q95" s="17"/>
       <c r="R95" s="17"/>
@@ -3937,7 +3937,7 @@
       <c r="N97" s="21"/>
       <c r="O97" s="22"/>
       <c r="P97" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q97" s="21"/>
       <c r="R97" s="21"/>
@@ -3970,7 +3970,7 @@
       <c r="N98" s="24"/>
       <c r="O98" s="25"/>
       <c r="P98" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q98" s="24"/>
       <c r="R98" s="24"/>
@@ -3997,7 +3997,7 @@
         <v>5</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
@@ -4032,7 +4032,7 @@
       <c r="D100" s="15"/>
       <c r="G100" s="30"/>
       <c r="H100" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
@@ -4075,7 +4075,7 @@
       <c r="N101" s="21"/>
       <c r="O101" s="22"/>
       <c r="P101" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q101" s="21"/>
       <c r="R101" s="21"/>
@@ -4108,7 +4108,7 @@
       <c r="N102" s="24"/>
       <c r="O102" s="25"/>
       <c r="P102" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q102" s="24"/>
       <c r="R102" s="24"/>
@@ -4211,7 +4211,7 @@
       <c r="N105" s="24"/>
       <c r="O105" s="25"/>
       <c r="P105" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q105" s="24"/>
       <c r="R105" s="24"/>
@@ -4238,7 +4238,7 @@
         <v>7</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
@@ -4273,7 +4273,7 @@
       <c r="D107" s="15"/>
       <c r="G107" s="30"/>
       <c r="H107" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I107" s="21"/>
       <c r="J107" s="21"/>
@@ -4316,7 +4316,7 @@
       <c r="N108" s="21"/>
       <c r="O108" s="22"/>
       <c r="P108" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q108" s="21"/>
       <c r="R108" s="21"/>
@@ -4349,7 +4349,7 @@
       <c r="N109" s="24"/>
       <c r="O109" s="25"/>
       <c r="P109" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q109" s="24"/>
       <c r="R109" s="24"/>
@@ -4463,7 +4463,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
       <c r="P118" s="16" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="Q118" s="17"/>
       <c r="R118" s="17"/>
@@ -4498,7 +4498,7 @@
       <c r="N119" s="21"/>
       <c r="O119" s="22"/>
       <c r="P119" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q119" s="21"/>
       <c r="R119" s="21"/>
@@ -4568,7 +4568,7 @@
       <c r="N121" s="17"/>
       <c r="O121" s="18"/>
       <c r="P121" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q121" s="17"/>
       <c r="R121" s="17"/>
@@ -4603,7 +4603,7 @@
       <c r="N122" s="21"/>
       <c r="O122" s="22"/>
       <c r="P122" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q122" s="21"/>
       <c r="R122" s="21"/>
@@ -4636,7 +4636,7 @@
       <c r="N123" s="21"/>
       <c r="O123" s="22"/>
       <c r="P123" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q123" s="21"/>
       <c r="R123" s="21"/>
@@ -4669,7 +4669,7 @@
       <c r="N124" s="24"/>
       <c r="O124" s="25"/>
       <c r="P124" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q124" s="24"/>
       <c r="R124" s="24"/>
@@ -4777,7 +4777,7 @@
       <c r="N131" s="17"/>
       <c r="O131" s="18"/>
       <c r="P131" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q131" s="17"/>
       <c r="R131" s="17"/>
@@ -4813,7 +4813,7 @@
       <c r="N132" s="21"/>
       <c r="O132" s="22"/>
       <c r="P132" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q132" s="21"/>
       <c r="R132" s="21"/>
@@ -4847,7 +4847,7 @@
       <c r="N133" s="21"/>
       <c r="O133" s="22"/>
       <c r="P133" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q133" s="21"/>
       <c r="R133" s="21"/>
@@ -4881,7 +4881,7 @@
       <c r="N134" s="24"/>
       <c r="O134" s="25"/>
       <c r="P134" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q134" s="24"/>
       <c r="R134" s="24"/>
@@ -4919,7 +4919,7 @@
       <c r="N135" s="17"/>
       <c r="O135" s="18"/>
       <c r="P135" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q135" s="17"/>
       <c r="R135" s="17"/>
@@ -4955,7 +4955,7 @@
       <c r="N136" s="21"/>
       <c r="O136" s="22"/>
       <c r="P136" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q136" s="21"/>
       <c r="R136" s="21"/>
@@ -4990,7 +4990,7 @@
       <c r="N137" s="24"/>
       <c r="O137" s="25"/>
       <c r="P137" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q137" s="24"/>
       <c r="R137" s="24"/>
@@ -5053,10 +5053,10 @@
     <row r="144" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D144" s="15"/>
       <c r="E144" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F144" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="F144" s="19" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5066,19 +5066,19 @@
         <v>(5).1.</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D146" s="15"/>
       <c r="G146" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D147" s="15"/>
       <c r="G147" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5090,28 +5090,28 @@
         <v>6.1.4.</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D150" s="33"/>
       <c r="E150" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F150" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="F150" s="19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D151" s="34"/>
       <c r="F151" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D152" s="34"/>
       <c r="F152" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5192,28 +5192,28 @@
     <row r="178" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D178" s="33"/>
       <c r="E178" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D179" s="33"/>
       <c r="F179" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D180" s="33"/>
       <c r="F180" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D181" s="33"/>
       <c r="G181" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="182" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7E8ED1-17BB-4B58-808B-42F93C1A9664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1062EF90-93E4-4AAF-BCE6-8FC3F798E50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -1398,6 +1398,16 @@
   </si>
   <si>
     <t>同一アクション内で、２回目以降の接続先システム更新処理呼び出しで失敗した場合、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.0 からはクライアント用APIも含まれる。</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2572,7 +2582,9 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="23"/>
+      <c r="K18" s="23" t="s">
+        <v>140</v>
+      </c>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1062EF90-93E4-4AAF-BCE6-8FC3F798E50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0056D65C-C0DD-46E7-AB12-2FAAC0F44B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,22 +629,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そのため、メッセージ仕向け（HTTP/HTTPS）からは開閉局制御を行わない</t>
-    <rPh sb="28" eb="30">
-      <t>カイヘイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>キョク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メッセージ仕向け（HTTP/HTTPS）は以下に準拠して作成する。</t>
     <rPh sb="21" eb="23">
       <t>イカ</t>
@@ -1407,6 +1391,22 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのため、メッセージ仕向け（HTTP/HTTPS）では開閉局制御を行わない</t>
+    <rPh sb="27" eb="29">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S1" s="42"/>
       <c r="T1" s="42"/>
@@ -2506,7 +2506,7 @@
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="15"/>
       <c r="E14" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2515,7 +2515,7 @@
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="15"/>
       <c r="E16" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -2546,7 +2546,7 @@
     <row r="17" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="15"/>
       <c r="E17" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -2554,7 +2554,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
       <c r="K17" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -2583,7 +2583,7 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
@@ -2606,7 +2606,7 @@
     <row r="19" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="15"/>
       <c r="E19" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -2614,7 +2614,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="18"/>
       <c r="K19" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
@@ -2667,13 +2667,13 @@
     <row r="22" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="15"/>
       <c r="E22" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="15"/>
       <c r="E23" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
@@ -2709,7 +2709,7 @@
     <row r="24" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="15"/>
       <c r="E24" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -2724,7 +2724,7 @@
       <c r="N24" s="17"/>
       <c r="O24" s="18"/>
       <c r="P24" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
@@ -2756,7 +2756,7 @@
       <c r="N25" s="24"/>
       <c r="O25" s="25"/>
       <c r="P25" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
@@ -2777,7 +2777,7 @@
     <row r="26" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="15"/>
       <c r="E26" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -2792,7 +2792,7 @@
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
@@ -3026,7 +3026,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="18"/>
       <c r="L61" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
@@ -3057,7 +3057,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="22"/>
       <c r="L62" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
@@ -3088,7 +3088,7 @@
       <c r="J63" s="24"/>
       <c r="K63" s="25"/>
       <c r="L63" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="24"/>
@@ -3122,7 +3122,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="18"/>
       <c r="L64" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
@@ -3152,7 +3152,7 @@
       <c r="J65" s="24"/>
       <c r="K65" s="25"/>
       <c r="L65" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="24"/>
@@ -3310,7 +3310,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="18"/>
       <c r="L70" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
@@ -3340,7 +3340,7 @@
       <c r="J71" s="24"/>
       <c r="K71" s="25"/>
       <c r="L71" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
@@ -3374,7 +3374,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
       <c r="L72" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
@@ -3404,7 +3404,7 @@
       <c r="J73" s="24"/>
       <c r="K73" s="25"/>
       <c r="L73" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="24"/>
@@ -3451,7 +3451,7 @@
     <row r="78" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="15"/>
       <c r="F78" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3529,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
@@ -3539,7 +3539,7 @@
       <c r="N85" s="17"/>
       <c r="O85" s="18"/>
       <c r="P85" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q85" s="17"/>
       <c r="R85" s="17"/>
@@ -3572,7 +3572,7 @@
       <c r="N86" s="21"/>
       <c r="O86" s="22"/>
       <c r="P86" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q86" s="21"/>
       <c r="R86" s="21"/>
@@ -3605,7 +3605,7 @@
       <c r="N87" s="24"/>
       <c r="O87" s="25"/>
       <c r="P87" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q87" s="24"/>
       <c r="R87" s="24"/>
@@ -3642,7 +3642,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
       <c r="P88" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q88" s="17"/>
       <c r="R88" s="17"/>
@@ -3675,7 +3675,7 @@
       <c r="N89" s="21"/>
       <c r="O89" s="22"/>
       <c r="P89" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q89" s="21"/>
       <c r="R89" s="21"/>
@@ -3708,7 +3708,7 @@
       <c r="N90" s="24"/>
       <c r="O90" s="25"/>
       <c r="P90" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
@@ -3745,7 +3745,7 @@
       <c r="N91" s="17"/>
       <c r="O91" s="18"/>
       <c r="P91" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q91" s="17"/>
       <c r="R91" s="17"/>
@@ -3778,7 +3778,7 @@
       <c r="N92" s="21"/>
       <c r="O92" s="22"/>
       <c r="P92" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q92" s="21"/>
       <c r="R92" s="21"/>
@@ -3811,7 +3811,7 @@
       <c r="N93" s="21"/>
       <c r="O93" s="22"/>
       <c r="P93" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q93" s="21"/>
       <c r="R93" s="21"/>
@@ -3844,7 +3844,7 @@
       <c r="N94" s="24"/>
       <c r="O94" s="25"/>
       <c r="P94" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q94" s="24"/>
       <c r="R94" s="24"/>
@@ -3872,7 +3872,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
@@ -3882,7 +3882,7 @@
       <c r="N95" s="17"/>
       <c r="O95" s="18"/>
       <c r="P95" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q95" s="17"/>
       <c r="R95" s="17"/>
@@ -3916,7 +3916,7 @@
       <c r="N96" s="21"/>
       <c r="O96" s="22"/>
       <c r="P96" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q96" s="21"/>
       <c r="R96" s="21"/>
@@ -3949,7 +3949,7 @@
       <c r="N97" s="21"/>
       <c r="O97" s="22"/>
       <c r="P97" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q97" s="21"/>
       <c r="R97" s="21"/>
@@ -3982,7 +3982,7 @@
       <c r="N98" s="24"/>
       <c r="O98" s="25"/>
       <c r="P98" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q98" s="24"/>
       <c r="R98" s="24"/>
@@ -4009,7 +4009,7 @@
         <v>5</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
@@ -4019,7 +4019,7 @@
       <c r="N99" s="17"/>
       <c r="O99" s="18"/>
       <c r="P99" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q99" s="17"/>
       <c r="R99" s="17"/>
@@ -4044,7 +4044,7 @@
       <c r="D100" s="15"/>
       <c r="G100" s="30"/>
       <c r="H100" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
@@ -4054,7 +4054,7 @@
       <c r="N100" s="21"/>
       <c r="O100" s="22"/>
       <c r="P100" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q100" s="21"/>
       <c r="R100" s="21"/>
@@ -4087,7 +4087,7 @@
       <c r="N101" s="21"/>
       <c r="O101" s="22"/>
       <c r="P101" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q101" s="21"/>
       <c r="R101" s="21"/>
@@ -4120,7 +4120,7 @@
       <c r="N102" s="24"/>
       <c r="O102" s="25"/>
       <c r="P102" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q102" s="24"/>
       <c r="R102" s="24"/>
@@ -4157,7 +4157,7 @@
       <c r="N103" s="17"/>
       <c r="O103" s="18"/>
       <c r="P103" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q103" s="17"/>
       <c r="R103" s="17"/>
@@ -4190,7 +4190,7 @@
       <c r="N104" s="21"/>
       <c r="O104" s="22"/>
       <c r="P104" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q104" s="21"/>
       <c r="R104" s="21"/>
@@ -4223,7 +4223,7 @@
       <c r="N105" s="24"/>
       <c r="O105" s="25"/>
       <c r="P105" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q105" s="24"/>
       <c r="R105" s="24"/>
@@ -4250,7 +4250,7 @@
         <v>7</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
@@ -4260,7 +4260,7 @@
       <c r="N106" s="17"/>
       <c r="O106" s="18"/>
       <c r="P106" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q106" s="17"/>
       <c r="R106" s="17"/>
@@ -4285,7 +4285,7 @@
       <c r="D107" s="15"/>
       <c r="G107" s="30"/>
       <c r="H107" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I107" s="21"/>
       <c r="J107" s="21"/>
@@ -4295,7 +4295,7 @@
       <c r="N107" s="21"/>
       <c r="O107" s="22"/>
       <c r="P107" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q107" s="21"/>
       <c r="R107" s="21"/>
@@ -4328,7 +4328,7 @@
       <c r="N108" s="21"/>
       <c r="O108" s="22"/>
       <c r="P108" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q108" s="21"/>
       <c r="R108" s="21"/>
@@ -4361,7 +4361,7 @@
       <c r="N109" s="24"/>
       <c r="O109" s="25"/>
       <c r="P109" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q109" s="24"/>
       <c r="R109" s="24"/>
@@ -4475,7 +4475,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
       <c r="P118" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q118" s="17"/>
       <c r="R118" s="17"/>
@@ -4510,7 +4510,7 @@
       <c r="N119" s="21"/>
       <c r="O119" s="22"/>
       <c r="P119" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q119" s="21"/>
       <c r="R119" s="21"/>
@@ -4543,7 +4543,7 @@
       <c r="N120" s="24"/>
       <c r="O120" s="25"/>
       <c r="P120" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q120" s="24"/>
       <c r="R120" s="24"/>
@@ -4580,7 +4580,7 @@
       <c r="N121" s="17"/>
       <c r="O121" s="18"/>
       <c r="P121" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q121" s="17"/>
       <c r="R121" s="17"/>
@@ -4615,7 +4615,7 @@
       <c r="N122" s="21"/>
       <c r="O122" s="22"/>
       <c r="P122" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q122" s="21"/>
       <c r="R122" s="21"/>
@@ -4648,7 +4648,7 @@
       <c r="N123" s="21"/>
       <c r="O123" s="22"/>
       <c r="P123" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q123" s="21"/>
       <c r="R123" s="21"/>
@@ -4681,7 +4681,7 @@
       <c r="N124" s="24"/>
       <c r="O124" s="25"/>
       <c r="P124" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q124" s="24"/>
       <c r="R124" s="24"/>
@@ -4789,7 +4789,7 @@
       <c r="N131" s="17"/>
       <c r="O131" s="18"/>
       <c r="P131" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q131" s="17"/>
       <c r="R131" s="17"/>
@@ -4825,7 +4825,7 @@
       <c r="N132" s="21"/>
       <c r="O132" s="22"/>
       <c r="P132" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q132" s="21"/>
       <c r="R132" s="21"/>
@@ -4859,7 +4859,7 @@
       <c r="N133" s="21"/>
       <c r="O133" s="22"/>
       <c r="P133" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q133" s="21"/>
       <c r="R133" s="21"/>
@@ -4893,7 +4893,7 @@
       <c r="N134" s="24"/>
       <c r="O134" s="25"/>
       <c r="P134" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q134" s="24"/>
       <c r="R134" s="24"/>
@@ -4931,7 +4931,7 @@
       <c r="N135" s="17"/>
       <c r="O135" s="18"/>
       <c r="P135" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q135" s="17"/>
       <c r="R135" s="17"/>
@@ -4967,7 +4967,7 @@
       <c r="N136" s="21"/>
       <c r="O136" s="22"/>
       <c r="P136" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q136" s="21"/>
       <c r="R136" s="21"/>
@@ -5002,7 +5002,7 @@
       <c r="N137" s="24"/>
       <c r="O137" s="25"/>
       <c r="P137" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q137" s="24"/>
       <c r="R137" s="24"/>
@@ -5029,7 +5029,7 @@
     <row r="139" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D139" s="15"/>
       <c r="E139" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F139" s="19" t="s">
         <v>11</v>
@@ -5056,7 +5056,7 @@
       <c r="D142" s="15"/>
       <c r="F142" s="15"/>
       <c r="G142" s="19" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5065,10 +5065,10 @@
     <row r="144" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D144" s="15"/>
       <c r="E144" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F144" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="F144" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5078,19 +5078,19 @@
         <v>(5).1.</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D146" s="15"/>
       <c r="G146" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D147" s="15"/>
       <c r="G147" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5102,28 +5102,28 @@
         <v>6.1.4.</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D150" s="33"/>
       <c r="E150" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F150" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="F150" s="19" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D151" s="34"/>
       <c r="F151" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D152" s="34"/>
       <c r="F152" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5204,28 +5204,28 @@
     <row r="178" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D178" s="33"/>
       <c r="E178" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D179" s="33"/>
       <c r="F179" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D180" s="33"/>
       <c r="F180" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D181" s="33"/>
       <c r="G181" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="182" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0056D65C-C0DD-46E7-AB12-2FAAC0F44B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F5BB36-99FB-4937-AAF0-A8C8B9BB4089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="6.1.メッセージ仕向け" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$182</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -1270,26 +1270,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システム間で送受信したパラメータのうち、障害調査時に必要となるパラメータは、ログに記録する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログ出力対象のパラメータは以下の通り。</t>
-    <rPh sb="2" eb="4">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(1)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1308,16 +1288,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>XXX管理番号</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザからの要求に対して、APIによる照会処理を並列実行し、レスポンスを待ち合わせて処理結果を画面に表示する。</t>
     <rPh sb="6" eb="8">
       <t>ヨウキュウ</t>
@@ -1406,6 +1376,59 @@
       <t>セイギョ</t>
     </rPh>
     <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム間で送受信したパラメータは障害発生時の原因究明に必要となるため、基本的に全てログに記録する。</t>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ソウジュシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ゲンインキュウメイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただし、パスワードや個人情報など漏洩するとセキュリティリスクとなる項目がある場合については、マスキングを行うこととする。</t>
+    <rPh sb="10" eb="14">
+      <t>コジンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ロウエイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2304,7 +2327,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI184"/>
+  <dimension ref="A1:AI183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2583,7 +2606,7 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
@@ -3451,7 +3474,7 @@
     <row r="78" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="15"/>
       <c r="F78" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3605,7 +3628,7 @@
       <c r="N87" s="24"/>
       <c r="O87" s="25"/>
       <c r="P87" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q87" s="24"/>
       <c r="R87" s="24"/>
@@ -3708,7 +3731,7 @@
       <c r="N90" s="24"/>
       <c r="O90" s="25"/>
       <c r="P90" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
@@ -4223,7 +4246,7 @@
       <c r="N105" s="24"/>
       <c r="O105" s="25"/>
       <c r="P105" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q105" s="24"/>
       <c r="R105" s="24"/>
@@ -4475,7 +4498,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
       <c r="P118" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q118" s="17"/>
       <c r="R118" s="17"/>
@@ -5056,7 +5079,7 @@
       <c r="D142" s="15"/>
       <c r="F142" s="15"/>
       <c r="G142" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5108,10 +5131,10 @@
     <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D150" s="33"/>
       <c r="E150" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5123,7 +5146,7 @@
     <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D152" s="34"/>
       <c r="F152" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5198,44 +5221,40 @@
     <row r="176" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D176" s="34"/>
     </row>
-    <row r="177" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D177" s="34"/>
     </row>
-    <row r="178" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D178" s="33"/>
       <c r="E178" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F178" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="179" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D179" s="33"/>
+      <c r="E179" s="32"/>
       <c r="F179" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="180" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D180" s="33"/>
+      <c r="E180" s="32"/>
       <c r="F180" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="181" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="181" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D181" s="33"/>
-      <c r="G181" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="182" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D182" s="33"/>
-      <c r="F182" s="15"/>
-    </row>
-    <row r="183" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D183" s="34"/>
-    </row>
-    <row r="184" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F181" s="15"/>
+    </row>
+    <row r="182" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D182" s="34"/>
+    </row>
+    <row r="183" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F5BB36-99FB-4937-AAF0-A8C8B9BB4089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19080" windowHeight="7230"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.1.メッセージ仕向け" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$182</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -617,22 +629,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そのため、メッセージ仕向け（HTTP/HTTPS）からは開閉局制御を行わない</t>
-    <rPh sb="28" eb="30">
-      <t>カイヘイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>キョク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メッセージ仕向け（HTTP/HTTPS）は以下に準拠して作成する。</t>
     <rPh sb="21" eb="23">
       <t>イカ</t>
@@ -806,25 +802,6 @@
     <t>システム例外を業務アプリケーションに送出する。</t>
   </si>
   <si>
-    <t>接続先で取引成立がしていないため、処理はロールバックされる。</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レスポンス受信後、業務アプリ内でエラーが発生した場合の処理。</t>
     <rPh sb="5" eb="7">
       <t>ジュシン</t>
@@ -906,10 +883,6 @@
     <t>可能な限り1アクション内で接続先システムに対しての更新処理は１回のみに制限する。</t>
   </si>
   <si>
-    <t>同一アクション内で、２回以降の接続先システム更新処理を呼び出しで失敗した場合、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>それ以前の更新処理の取り消し処理を考慮しなければならない。</t>
   </si>
   <si>
@@ -1297,26 +1270,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システム間で送受信したパラメータのうち、障害調査時に必要となるパラメータは、ログに記録する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログ出力対象のパラメータは以下の通り。</t>
-    <rPh sb="2" eb="4">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(1)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1335,16 +1288,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>XXX管理番号</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザからの要求に対して、APIによる照会処理を並列実行し、レスポンスを待ち合わせて処理結果を画面に表示する。</t>
     <rPh sb="6" eb="8">
       <t>ヨウキュウ</t>
@@ -1386,13 +1329,115 @@
   </si>
   <si>
     <t>接続先システム側のWEBサービスの仕様は、接続先システムのインタフェース仕様書から確認する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>接続先で取引が成立していないため、処理はロールバックされる。</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同一アクション内で、２回目以降の接続先システム更新処理呼び出しで失敗した場合、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.0 からはクライアント用APIも含まれる。</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのため、メッセージ仕向け（HTTP/HTTPS）では開閉局制御を行わない</t>
+    <rPh sb="27" eb="29">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム間で送受信したパラメータは障害発生時の原因究明に必要となるため、基本的に全てログに記録する。</t>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ソウジュシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ゲンインキュウメイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただし、パスワードや個人情報など漏洩するとセキュリティリスクとなる項目がある場合については、マスキングを行うこととする。</t>
+    <rPh sb="10" eb="14">
+      <t>コジンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ロウエイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1820,15 +1865,18 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1851,7 +1899,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1900,7 +1954,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1944,7 +2004,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1986,7 +2046,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2019,9 +2079,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2054,6 +2131,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2229,11 +2323,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI184"/>
+  <dimension ref="A1:AI183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2265,7 +2359,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="41" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S1" s="42"/>
       <c r="T1" s="42"/>
@@ -2435,7 +2529,7 @@
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="15"/>
       <c r="E14" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2444,7 +2538,7 @@
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="15"/>
       <c r="E16" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -2475,7 +2569,7 @@
     <row r="17" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="15"/>
       <c r="E17" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -2483,7 +2577,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
       <c r="K17" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -2511,7 +2605,9 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="23"/>
+      <c r="K18" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
@@ -2533,7 +2629,7 @@
     <row r="19" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="15"/>
       <c r="E19" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -2541,7 +2637,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="18"/>
       <c r="K19" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
@@ -2594,13 +2690,13 @@
     <row r="22" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="15"/>
       <c r="E22" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="15"/>
       <c r="E23" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
@@ -2636,7 +2732,7 @@
     <row r="24" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="15"/>
       <c r="E24" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -2651,7 +2747,7 @@
       <c r="N24" s="17"/>
       <c r="O24" s="18"/>
       <c r="P24" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
@@ -2683,7 +2779,7 @@
       <c r="N25" s="24"/>
       <c r="O25" s="25"/>
       <c r="P25" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
@@ -2704,7 +2800,7 @@
     <row r="26" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="15"/>
       <c r="E26" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -2719,7 +2815,7 @@
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
@@ -2953,7 +3049,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="18"/>
       <c r="L61" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
@@ -2984,7 +3080,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="22"/>
       <c r="L62" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
@@ -3015,7 +3111,7 @@
       <c r="J63" s="24"/>
       <c r="K63" s="25"/>
       <c r="L63" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="24"/>
@@ -3049,7 +3145,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="18"/>
       <c r="L64" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
@@ -3079,7 +3175,7 @@
       <c r="J65" s="24"/>
       <c r="K65" s="25"/>
       <c r="L65" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="24"/>
@@ -3237,7 +3333,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="18"/>
       <c r="L70" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
@@ -3267,7 +3363,7 @@
       <c r="J71" s="24"/>
       <c r="K71" s="25"/>
       <c r="L71" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
@@ -3301,7 +3397,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
       <c r="L72" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
@@ -3331,7 +3427,7 @@
       <c r="J73" s="24"/>
       <c r="K73" s="25"/>
       <c r="L73" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="24"/>
@@ -3378,7 +3474,7 @@
     <row r="78" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="15"/>
       <c r="F78" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3456,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
@@ -3466,7 +3562,7 @@
       <c r="N85" s="17"/>
       <c r="O85" s="18"/>
       <c r="P85" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q85" s="17"/>
       <c r="R85" s="17"/>
@@ -3499,7 +3595,7 @@
       <c r="N86" s="21"/>
       <c r="O86" s="22"/>
       <c r="P86" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q86" s="21"/>
       <c r="R86" s="21"/>
@@ -3532,7 +3628,7 @@
       <c r="N87" s="24"/>
       <c r="O87" s="25"/>
       <c r="P87" s="23" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="Q87" s="24"/>
       <c r="R87" s="24"/>
@@ -3569,7 +3665,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
       <c r="P88" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q88" s="17"/>
       <c r="R88" s="17"/>
@@ -3602,7 +3698,7 @@
       <c r="N89" s="21"/>
       <c r="O89" s="22"/>
       <c r="P89" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q89" s="21"/>
       <c r="R89" s="21"/>
@@ -3635,7 +3731,7 @@
       <c r="N90" s="24"/>
       <c r="O90" s="25"/>
       <c r="P90" s="23" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
@@ -3672,7 +3768,7 @@
       <c r="N91" s="17"/>
       <c r="O91" s="18"/>
       <c r="P91" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q91" s="17"/>
       <c r="R91" s="17"/>
@@ -3705,7 +3801,7 @@
       <c r="N92" s="21"/>
       <c r="O92" s="22"/>
       <c r="P92" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q92" s="21"/>
       <c r="R92" s="21"/>
@@ -3738,7 +3834,7 @@
       <c r="N93" s="21"/>
       <c r="O93" s="22"/>
       <c r="P93" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q93" s="21"/>
       <c r="R93" s="21"/>
@@ -3771,7 +3867,7 @@
       <c r="N94" s="24"/>
       <c r="O94" s="25"/>
       <c r="P94" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q94" s="24"/>
       <c r="R94" s="24"/>
@@ -3799,7 +3895,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
@@ -3809,7 +3905,7 @@
       <c r="N95" s="17"/>
       <c r="O95" s="18"/>
       <c r="P95" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q95" s="17"/>
       <c r="R95" s="17"/>
@@ -3843,7 +3939,7 @@
       <c r="N96" s="21"/>
       <c r="O96" s="22"/>
       <c r="P96" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q96" s="21"/>
       <c r="R96" s="21"/>
@@ -3876,7 +3972,7 @@
       <c r="N97" s="21"/>
       <c r="O97" s="22"/>
       <c r="P97" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q97" s="21"/>
       <c r="R97" s="21"/>
@@ -3909,7 +4005,7 @@
       <c r="N98" s="24"/>
       <c r="O98" s="25"/>
       <c r="P98" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q98" s="24"/>
       <c r="R98" s="24"/>
@@ -3936,7 +4032,7 @@
         <v>5</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
@@ -3946,7 +4042,7 @@
       <c r="N99" s="17"/>
       <c r="O99" s="18"/>
       <c r="P99" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q99" s="17"/>
       <c r="R99" s="17"/>
@@ -3971,7 +4067,7 @@
       <c r="D100" s="15"/>
       <c r="G100" s="30"/>
       <c r="H100" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
@@ -3981,7 +4077,7 @@
       <c r="N100" s="21"/>
       <c r="O100" s="22"/>
       <c r="P100" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q100" s="21"/>
       <c r="R100" s="21"/>
@@ -4014,7 +4110,7 @@
       <c r="N101" s="21"/>
       <c r="O101" s="22"/>
       <c r="P101" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q101" s="21"/>
       <c r="R101" s="21"/>
@@ -4047,7 +4143,7 @@
       <c r="N102" s="24"/>
       <c r="O102" s="25"/>
       <c r="P102" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q102" s="24"/>
       <c r="R102" s="24"/>
@@ -4084,7 +4180,7 @@
       <c r="N103" s="17"/>
       <c r="O103" s="18"/>
       <c r="P103" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q103" s="17"/>
       <c r="R103" s="17"/>
@@ -4117,7 +4213,7 @@
       <c r="N104" s="21"/>
       <c r="O104" s="22"/>
       <c r="P104" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q104" s="21"/>
       <c r="R104" s="21"/>
@@ -4150,7 +4246,7 @@
       <c r="N105" s="24"/>
       <c r="O105" s="25"/>
       <c r="P105" s="23" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="Q105" s="24"/>
       <c r="R105" s="24"/>
@@ -4177,7 +4273,7 @@
         <v>7</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
@@ -4187,7 +4283,7 @@
       <c r="N106" s="17"/>
       <c r="O106" s="18"/>
       <c r="P106" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q106" s="17"/>
       <c r="R106" s="17"/>
@@ -4212,7 +4308,7 @@
       <c r="D107" s="15"/>
       <c r="G107" s="30"/>
       <c r="H107" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I107" s="21"/>
       <c r="J107" s="21"/>
@@ -4222,7 +4318,7 @@
       <c r="N107" s="21"/>
       <c r="O107" s="22"/>
       <c r="P107" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q107" s="21"/>
       <c r="R107" s="21"/>
@@ -4255,7 +4351,7 @@
       <c r="N108" s="21"/>
       <c r="O108" s="22"/>
       <c r="P108" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q108" s="21"/>
       <c r="R108" s="21"/>
@@ -4288,7 +4384,7 @@
       <c r="N109" s="24"/>
       <c r="O109" s="25"/>
       <c r="P109" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q109" s="24"/>
       <c r="R109" s="24"/>
@@ -4402,7 +4498,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
       <c r="P118" s="16" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="Q118" s="17"/>
       <c r="R118" s="17"/>
@@ -4437,7 +4533,7 @@
       <c r="N119" s="21"/>
       <c r="O119" s="22"/>
       <c r="P119" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q119" s="21"/>
       <c r="R119" s="21"/>
@@ -4470,7 +4566,7 @@
       <c r="N120" s="24"/>
       <c r="O120" s="25"/>
       <c r="P120" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q120" s="24"/>
       <c r="R120" s="24"/>
@@ -4507,7 +4603,7 @@
       <c r="N121" s="17"/>
       <c r="O121" s="18"/>
       <c r="P121" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q121" s="17"/>
       <c r="R121" s="17"/>
@@ -4542,7 +4638,7 @@
       <c r="N122" s="21"/>
       <c r="O122" s="22"/>
       <c r="P122" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q122" s="21"/>
       <c r="R122" s="21"/>
@@ -4575,7 +4671,7 @@
       <c r="N123" s="21"/>
       <c r="O123" s="22"/>
       <c r="P123" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q123" s="21"/>
       <c r="R123" s="21"/>
@@ -4608,7 +4704,7 @@
       <c r="N124" s="24"/>
       <c r="O124" s="25"/>
       <c r="P124" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q124" s="24"/>
       <c r="R124" s="24"/>
@@ -4716,7 +4812,7 @@
       <c r="N131" s="17"/>
       <c r="O131" s="18"/>
       <c r="P131" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q131" s="17"/>
       <c r="R131" s="17"/>
@@ -4752,7 +4848,7 @@
       <c r="N132" s="21"/>
       <c r="O132" s="22"/>
       <c r="P132" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q132" s="21"/>
       <c r="R132" s="21"/>
@@ -4786,7 +4882,7 @@
       <c r="N133" s="21"/>
       <c r="O133" s="22"/>
       <c r="P133" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q133" s="21"/>
       <c r="R133" s="21"/>
@@ -4820,7 +4916,7 @@
       <c r="N134" s="24"/>
       <c r="O134" s="25"/>
       <c r="P134" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q134" s="24"/>
       <c r="R134" s="24"/>
@@ -4858,7 +4954,7 @@
       <c r="N135" s="17"/>
       <c r="O135" s="18"/>
       <c r="P135" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q135" s="17"/>
       <c r="R135" s="17"/>
@@ -4894,7 +4990,7 @@
       <c r="N136" s="21"/>
       <c r="O136" s="22"/>
       <c r="P136" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q136" s="21"/>
       <c r="R136" s="21"/>
@@ -4929,7 +5025,7 @@
       <c r="N137" s="24"/>
       <c r="O137" s="25"/>
       <c r="P137" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q137" s="24"/>
       <c r="R137" s="24"/>
@@ -4956,7 +5052,7 @@
     <row r="139" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D139" s="15"/>
       <c r="E139" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F139" s="19" t="s">
         <v>11</v>
@@ -4983,7 +5079,7 @@
       <c r="D142" s="15"/>
       <c r="F142" s="15"/>
       <c r="G142" s="19" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4992,10 +5088,10 @@
     <row r="144" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D144" s="15"/>
       <c r="E144" s="32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5005,19 +5101,19 @@
         <v>(5).1.</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D146" s="15"/>
       <c r="G146" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D147" s="15"/>
       <c r="G147" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5029,28 +5125,28 @@
         <v>6.1.4.</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D150" s="33"/>
       <c r="E150" s="32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D151" s="34"/>
       <c r="F151" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D152" s="34"/>
       <c r="F152" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5125,44 +5221,40 @@
     <row r="176" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D176" s="34"/>
     </row>
-    <row r="177" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D177" s="34"/>
     </row>
-    <row r="178" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D178" s="33"/>
       <c r="E178" s="32" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="179" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D179" s="33"/>
+      <c r="E179" s="32"/>
       <c r="F179" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="180" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D180" s="33"/>
+      <c r="E180" s="32"/>
       <c r="F180" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="181" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="181" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D181" s="33"/>
-      <c r="G181" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="182" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D182" s="33"/>
-      <c r="F182" s="15"/>
-    </row>
-    <row r="183" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D183" s="34"/>
-    </row>
-    <row r="184" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F181" s="15"/>
+    </row>
+    <row r="182" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D182" s="34"/>
+    </row>
+    <row r="183" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F5BB36-99FB-4937-AAF0-A8C8B9BB4089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C2A0F4-FFAA-4E46-BE94-321D94BFF7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="6.1.メッセージ仕向け" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$182</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$184</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -1430,6 +1430,22 @@
     </rPh>
     <rPh sb="52" eb="53">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※JAX-RSの実装としては参照実装であるEclipse Jerseyを使用する。</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1888,13 +1904,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1943,13 +1959,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>60615</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>30308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2327,7 +2343,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI183"/>
+  <dimension ref="A1:AI185"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2865,34 +2881,88 @@
     </row>
     <row r="28" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
     </row>
     <row r="29" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="15"/>
-      <c r="D29" s="15" t="str">
+      <c r="E29" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+    </row>
+    <row r="30" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.1.3.</v>
       </c>
-      <c r="E29" s="19" t="str">
+      <c r="E31" s="19" t="str">
         <f>D7&amp;"機能詳細"</f>
         <v>メッセージ仕向け（HTTP/HTTPS）機能詳細</v>
       </c>
     </row>
-    <row r="30" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="15"/>
-      <c r="E30" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="15"/>
-      <c r="E31" s="32"/>
-    </row>
     <row r="32" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="15"/>
-      <c r="E32" s="32"/>
+      <c r="E32" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="15"/>
@@ -2999,175 +3069,119 @@
       <c r="E58" s="32"/>
     </row>
     <row r="59" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="15"/>
-      <c r="F60" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="27"/>
-      <c r="AE60" s="28"/>
+      <c r="C60" s="15"/>
+      <c r="E60" s="32"/>
     </row>
     <row r="61" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="15"/>
-      <c r="F61" s="16">
-        <v>1</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="17"/>
-      <c r="Z61" s="17"/>
-      <c r="AA61" s="17"/>
-      <c r="AB61" s="17"/>
-      <c r="AC61" s="17"/>
-      <c r="AD61" s="17"/>
-      <c r="AE61" s="18"/>
+      <c r="D61" s="15"/>
     </row>
     <row r="62" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
-      <c r="AA62" s="21"/>
-      <c r="AB62" s="21"/>
-      <c r="AC62" s="21"/>
-      <c r="AD62" s="21"/>
-      <c r="AE62" s="22"/>
+      <c r="F62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="27"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="27"/>
+      <c r="AE62" s="28"/>
     </row>
     <row r="63" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
-      <c r="AA63" s="24"/>
-      <c r="AB63" s="24"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="24"/>
-      <c r="AE63" s="25"/>
+      <c r="F63" s="16">
+        <v>1</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="17"/>
+      <c r="AC63" s="17"/>
+      <c r="AD63" s="17"/>
+      <c r="AE63" s="18"/>
     </row>
     <row r="64" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F64" s="16">
-        <v>2</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="17"/>
-      <c r="AB64" s="17"/>
-      <c r="AC64" s="17"/>
-      <c r="AD64" s="17"/>
-      <c r="AE64" s="18"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="21"/>
+      <c r="AD64" s="21"/>
+      <c r="AE64" s="22"/>
     </row>
     <row r="65" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="15"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="24"/>
@@ -3175,7 +3189,7 @@
       <c r="J65" s="24"/>
       <c r="K65" s="25"/>
       <c r="L65" s="23" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="24"/>
@@ -3199,17 +3213,17 @@
     </row>
     <row r="66" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
       <c r="K66" s="18"/>
       <c r="L66" s="16" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
@@ -3238,7 +3252,9 @@
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="23"/>
+      <c r="L67" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="M67" s="24"/>
       <c r="N67" s="24"/>
       <c r="O67" s="24"/>
@@ -3261,17 +3277,17 @@
     </row>
     <row r="68" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
       <c r="K68" s="18"/>
       <c r="L68" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
@@ -3323,17 +3339,17 @@
     </row>
     <row r="70" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="18"/>
       <c r="L70" s="16" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
@@ -3362,9 +3378,7 @@
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
       <c r="K71" s="25"/>
-      <c r="L71" s="23" t="s">
-        <v>102</v>
-      </c>
+      <c r="L71" s="23"/>
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
       <c r="O71" s="24"/>
@@ -3387,17 +3401,17 @@
     </row>
     <row r="72" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F72" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
       <c r="L72" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
@@ -3427,7 +3441,7 @@
       <c r="J73" s="24"/>
       <c r="K73" s="25"/>
       <c r="L73" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="24"/>
@@ -3449,1711 +3463,1769 @@
       <c r="AD73" s="24"/>
       <c r="AE73" s="25"/>
     </row>
-    <row r="74" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="16">
+        <v>6</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="18"/>
+    </row>
     <row r="75" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D75" s="15"/>
-      <c r="E75" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D76" s="15"/>
-      <c r="F76" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="24"/>
+      <c r="V75" s="24"/>
+      <c r="W75" s="24"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="24"/>
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="24"/>
+      <c r="AE75" s="25"/>
+    </row>
+    <row r="76" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="15"/>
+      <c r="E77" s="32" t="s">
+        <v>58</v>
+      </c>
       <c r="F77" s="19" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="15"/>
       <c r="F78" s="19" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="15"/>
+      <c r="F79" s="19" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="80" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="15"/>
-      <c r="E80" s="32" t="s">
-        <v>59</v>
-      </c>
       <c r="F80" s="19" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="15"/>
-      <c r="F81" s="14" t="str">
-        <f>$E$80&amp;".1."</f>
-        <v>(3).1.</v>
-      </c>
-      <c r="G81" s="19" t="str">
-        <f>$F$80&amp;"内容"</f>
-        <v>エラー処理内容</v>
-      </c>
     </row>
     <row r="82" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="15"/>
-      <c r="G82" s="19" t="s">
-        <v>33</v>
+      <c r="E82" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="15"/>
+      <c r="F83" s="14" t="str">
+        <f>$E$82&amp;".1."</f>
+        <v>(3).1.</v>
+      </c>
+      <c r="G83" s="19" t="str">
+        <f>$F$82&amp;"内容"</f>
+        <v>エラー処理内容</v>
+      </c>
     </row>
     <row r="84" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="15"/>
-      <c r="G84" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="27"/>
-      <c r="W84" s="27"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="27"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="27"/>
-      <c r="AE84" s="27"/>
-      <c r="AF84" s="27"/>
-      <c r="AG84" s="27"/>
-      <c r="AH84" s="28"/>
+      <c r="G84" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="85" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="15"/>
-      <c r="G85" s="29">
-        <v>1</v>
-      </c>
-      <c r="H85" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="17"/>
-      <c r="X85" s="17"/>
-      <c r="Y85" s="17"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="17"/>
-      <c r="AB85" s="17"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="17"/>
-      <c r="AE85" s="17"/>
-      <c r="AF85" s="17"/>
-      <c r="AG85" s="17"/>
-      <c r="AH85" s="18"/>
     </row>
     <row r="86" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D86" s="15"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
-      <c r="U86" s="21"/>
-      <c r="V86" s="21"/>
-      <c r="W86" s="21"/>
-      <c r="X86" s="21"/>
-      <c r="Y86" s="21"/>
-      <c r="Z86" s="21"/>
-      <c r="AA86" s="21"/>
-      <c r="AB86" s="21"/>
-      <c r="AC86" s="21"/>
-      <c r="AD86" s="21"/>
-      <c r="AE86" s="21"/>
-      <c r="AF86" s="21"/>
-      <c r="AG86" s="21"/>
-      <c r="AH86" s="22"/>
+      <c r="G86" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="27"/>
+      <c r="S86" s="27"/>
+      <c r="T86" s="27"/>
+      <c r="U86" s="27"/>
+      <c r="V86" s="27"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="27"/>
+      <c r="AF86" s="27"/>
+      <c r="AG86" s="27"/>
+      <c r="AH86" s="28"/>
     </row>
     <row r="87" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="15"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="24"/>
-      <c r="T87" s="24"/>
-      <c r="U87" s="24"/>
-      <c r="V87" s="24"/>
-      <c r="W87" s="24"/>
-      <c r="X87" s="24"/>
-      <c r="Y87" s="24"/>
-      <c r="Z87" s="24"/>
-      <c r="AA87" s="24"/>
-      <c r="AB87" s="24"/>
-      <c r="AC87" s="24"/>
-      <c r="AD87" s="24"/>
-      <c r="AE87" s="24"/>
-      <c r="AF87" s="24"/>
-      <c r="AG87" s="24"/>
-      <c r="AH87" s="25"/>
+      <c r="G87" s="29">
+        <v>1</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="17"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="17"/>
+      <c r="X87" s="17"/>
+      <c r="Y87" s="17"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="17"/>
+      <c r="AB87" s="17"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="17"/>
+      <c r="AE87" s="17"/>
+      <c r="AF87" s="17"/>
+      <c r="AG87" s="17"/>
+      <c r="AH87" s="18"/>
     </row>
     <row r="88" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D88" s="15"/>
-      <c r="G88" s="29">
-        <v>2</v>
-      </c>
-      <c r="H88" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="17"/>
-      <c r="T88" s="17"/>
-      <c r="U88" s="17"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="17"/>
-      <c r="X88" s="17"/>
-      <c r="Y88" s="17"/>
-      <c r="Z88" s="17"/>
-      <c r="AA88" s="17"/>
-      <c r="AB88" s="17"/>
-      <c r="AC88" s="17"/>
-      <c r="AD88" s="17"/>
-      <c r="AE88" s="17"/>
-      <c r="AF88" s="17"/>
-      <c r="AG88" s="17"/>
-      <c r="AH88" s="18"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="21"/>
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="21"/>
+      <c r="AC88" s="21"/>
+      <c r="AD88" s="21"/>
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="21"/>
+      <c r="AH88" s="22"/>
     </row>
     <row r="89" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D89" s="15"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
-      <c r="U89" s="21"/>
-      <c r="V89" s="21"/>
-      <c r="W89" s="21"/>
-      <c r="X89" s="21"/>
-      <c r="Y89" s="21"/>
-      <c r="Z89" s="21"/>
-      <c r="AA89" s="21"/>
-      <c r="AB89" s="21"/>
-      <c r="AC89" s="21"/>
-      <c r="AD89" s="21"/>
-      <c r="AE89" s="21"/>
-      <c r="AF89" s="21"/>
-      <c r="AG89" s="21"/>
-      <c r="AH89" s="22"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="24"/>
+      <c r="U89" s="24"/>
+      <c r="V89" s="24"/>
+      <c r="W89" s="24"/>
+      <c r="X89" s="24"/>
+      <c r="Y89" s="24"/>
+      <c r="Z89" s="24"/>
+      <c r="AA89" s="24"/>
+      <c r="AB89" s="24"/>
+      <c r="AC89" s="24"/>
+      <c r="AD89" s="24"/>
+      <c r="AE89" s="24"/>
+      <c r="AF89" s="24"/>
+      <c r="AG89" s="24"/>
+      <c r="AH89" s="25"/>
     </row>
     <row r="90" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D90" s="15"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="25"/>
-      <c r="P90" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
-      <c r="T90" s="24"/>
-      <c r="U90" s="24"/>
-      <c r="V90" s="24"/>
-      <c r="W90" s="24"/>
-      <c r="X90" s="24"/>
-      <c r="Y90" s="24"/>
-      <c r="Z90" s="24"/>
-      <c r="AA90" s="24"/>
-      <c r="AB90" s="24"/>
-      <c r="AC90" s="24"/>
-      <c r="AD90" s="24"/>
-      <c r="AE90" s="24"/>
-      <c r="AF90" s="24"/>
-      <c r="AG90" s="24"/>
-      <c r="AH90" s="25"/>
+      <c r="G90" s="29">
+        <v>2</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="17"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="17"/>
+      <c r="AB90" s="17"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="17"/>
+      <c r="AE90" s="17"/>
+      <c r="AF90" s="17"/>
+      <c r="AG90" s="17"/>
+      <c r="AH90" s="18"/>
     </row>
     <row r="91" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D91" s="15"/>
-      <c r="G91" s="29">
-        <v>3</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
-      <c r="X91" s="17"/>
-      <c r="Y91" s="17"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="17"/>
-      <c r="AB91" s="17"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="17"/>
-      <c r="AE91" s="17"/>
-      <c r="AF91" s="17"/>
-      <c r="AG91" s="17"/>
-      <c r="AH91" s="18"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="21"/>
+      <c r="Y91" s="21"/>
+      <c r="Z91" s="21"/>
+      <c r="AA91" s="21"/>
+      <c r="AB91" s="21"/>
+      <c r="AC91" s="21"/>
+      <c r="AD91" s="21"/>
+      <c r="AE91" s="21"/>
+      <c r="AF91" s="21"/>
+      <c r="AG91" s="21"/>
+      <c r="AH91" s="22"/>
     </row>
     <row r="92" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D92" s="15"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="21"/>
-      <c r="W92" s="21"/>
-      <c r="X92" s="21"/>
-      <c r="Y92" s="21"/>
-      <c r="Z92" s="21"/>
-      <c r="AA92" s="21"/>
-      <c r="AB92" s="21"/>
-      <c r="AC92" s="21"/>
-      <c r="AD92" s="21"/>
-      <c r="AE92" s="21"/>
-      <c r="AF92" s="21"/>
-      <c r="AG92" s="21"/>
-      <c r="AH92" s="22"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="24"/>
+      <c r="S92" s="24"/>
+      <c r="T92" s="24"/>
+      <c r="U92" s="24"/>
+      <c r="V92" s="24"/>
+      <c r="W92" s="24"/>
+      <c r="X92" s="24"/>
+      <c r="Y92" s="24"/>
+      <c r="Z92" s="24"/>
+      <c r="AA92" s="24"/>
+      <c r="AB92" s="24"/>
+      <c r="AC92" s="24"/>
+      <c r="AD92" s="24"/>
+      <c r="AE92" s="24"/>
+      <c r="AF92" s="24"/>
+      <c r="AG92" s="24"/>
+      <c r="AH92" s="25"/>
     </row>
     <row r="93" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="15"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q93" s="21"/>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
-      <c r="U93" s="21"/>
-      <c r="V93" s="21"/>
-      <c r="W93" s="21"/>
-      <c r="X93" s="21"/>
-      <c r="Y93" s="21"/>
-      <c r="Z93" s="21"/>
-      <c r="AA93" s="21"/>
-      <c r="AB93" s="21"/>
-      <c r="AC93" s="21"/>
-      <c r="AD93" s="21"/>
-      <c r="AE93" s="21"/>
-      <c r="AF93" s="21"/>
-      <c r="AG93" s="21"/>
-      <c r="AH93" s="22"/>
+      <c r="G93" s="29">
+        <v>3</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="17"/>
+      <c r="X93" s="17"/>
+      <c r="Y93" s="17"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="17"/>
+      <c r="AB93" s="17"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="17"/>
+      <c r="AE93" s="17"/>
+      <c r="AF93" s="17"/>
+      <c r="AG93" s="17"/>
+      <c r="AH93" s="18"/>
     </row>
     <row r="94" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D94" s="15"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="25"/>
-      <c r="P94" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="S94" s="24"/>
-      <c r="T94" s="24"/>
-      <c r="U94" s="24"/>
-      <c r="V94" s="24"/>
-      <c r="W94" s="24"/>
-      <c r="X94" s="24"/>
-      <c r="Y94" s="24"/>
-      <c r="Z94" s="24"/>
-      <c r="AA94" s="24"/>
-      <c r="AB94" s="24"/>
-      <c r="AC94" s="24"/>
-      <c r="AD94" s="24"/>
-      <c r="AE94" s="24"/>
-      <c r="AF94" s="24"/>
-      <c r="AG94" s="24"/>
-      <c r="AH94" s="25"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="21"/>
+      <c r="X94" s="21"/>
+      <c r="Y94" s="21"/>
+      <c r="Z94" s="21"/>
+      <c r="AA94" s="21"/>
+      <c r="AB94" s="21"/>
+      <c r="AC94" s="21"/>
+      <c r="AD94" s="21"/>
+      <c r="AE94" s="21"/>
+      <c r="AF94" s="21"/>
+      <c r="AG94" s="21"/>
+      <c r="AH94" s="22"/>
     </row>
     <row r="95" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="G95" s="29">
-        <v>4</v>
-      </c>
-      <c r="H95" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="17"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="17"/>
-      <c r="X95" s="17"/>
-      <c r="Y95" s="17"/>
-      <c r="Z95" s="17"/>
-      <c r="AA95" s="17"/>
-      <c r="AB95" s="17"/>
-      <c r="AC95" s="17"/>
-      <c r="AD95" s="17"/>
-      <c r="AE95" s="17"/>
-      <c r="AF95" s="17"/>
-      <c r="AG95" s="17"/>
-      <c r="AH95" s="18"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="21"/>
+      <c r="T95" s="21"/>
+      <c r="U95" s="21"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="21"/>
+      <c r="X95" s="21"/>
+      <c r="Y95" s="21"/>
+      <c r="Z95" s="21"/>
+      <c r="AA95" s="21"/>
+      <c r="AB95" s="21"/>
+      <c r="AC95" s="21"/>
+      <c r="AD95" s="21"/>
+      <c r="AE95" s="21"/>
+      <c r="AF95" s="21"/>
+      <c r="AG95" s="21"/>
+      <c r="AH95" s="22"/>
     </row>
     <row r="96" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q96" s="21"/>
-      <c r="R96" s="21"/>
-      <c r="S96" s="21"/>
-      <c r="T96" s="21"/>
-      <c r="U96" s="21"/>
-      <c r="V96" s="21"/>
-      <c r="W96" s="21"/>
-      <c r="X96" s="21"/>
-      <c r="Y96" s="21"/>
-      <c r="Z96" s="21"/>
-      <c r="AA96" s="21"/>
-      <c r="AB96" s="21"/>
-      <c r="AC96" s="21"/>
-      <c r="AD96" s="21"/>
-      <c r="AE96" s="21"/>
-      <c r="AF96" s="21"/>
-      <c r="AG96" s="21"/>
-      <c r="AH96" s="22"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="24"/>
+      <c r="S96" s="24"/>
+      <c r="T96" s="24"/>
+      <c r="U96" s="24"/>
+      <c r="V96" s="24"/>
+      <c r="W96" s="24"/>
+      <c r="X96" s="24"/>
+      <c r="Y96" s="24"/>
+      <c r="Z96" s="24"/>
+      <c r="AA96" s="24"/>
+      <c r="AB96" s="24"/>
+      <c r="AC96" s="24"/>
+      <c r="AD96" s="24"/>
+      <c r="AE96" s="24"/>
+      <c r="AF96" s="24"/>
+      <c r="AG96" s="24"/>
+      <c r="AH96" s="25"/>
     </row>
     <row r="97" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D97" s="15"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q97" s="21"/>
-      <c r="R97" s="21"/>
-      <c r="S97" s="21"/>
-      <c r="T97" s="21"/>
-      <c r="U97" s="21"/>
-      <c r="V97" s="21"/>
-      <c r="W97" s="21"/>
-      <c r="X97" s="21"/>
-      <c r="Y97" s="21"/>
-      <c r="Z97" s="21"/>
-      <c r="AA97" s="21"/>
-      <c r="AB97" s="21"/>
-      <c r="AC97" s="21"/>
-      <c r="AD97" s="21"/>
-      <c r="AE97" s="21"/>
-      <c r="AF97" s="21"/>
-      <c r="AG97" s="21"/>
-      <c r="AH97" s="22"/>
+      <c r="E97" s="15"/>
+      <c r="G97" s="29">
+        <v>4</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="17"/>
+      <c r="AB97" s="17"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="17"/>
+      <c r="AE97" s="17"/>
+      <c r="AF97" s="17"/>
+      <c r="AG97" s="17"/>
+      <c r="AH97" s="18"/>
     </row>
     <row r="98" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D98" s="15"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="25"/>
-      <c r="P98" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
-      <c r="T98" s="24"/>
-      <c r="U98" s="24"/>
-      <c r="V98" s="24"/>
-      <c r="W98" s="24"/>
-      <c r="X98" s="24"/>
-      <c r="Y98" s="24"/>
-      <c r="Z98" s="24"/>
-      <c r="AA98" s="24"/>
-      <c r="AB98" s="24"/>
-      <c r="AC98" s="24"/>
-      <c r="AD98" s="24"/>
-      <c r="AE98" s="24"/>
-      <c r="AF98" s="24"/>
-      <c r="AG98" s="24"/>
-      <c r="AH98" s="25"/>
+      <c r="E98" s="15"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q98" s="21"/>
+      <c r="R98" s="21"/>
+      <c r="S98" s="21"/>
+      <c r="T98" s="21"/>
+      <c r="U98" s="21"/>
+      <c r="V98" s="21"/>
+      <c r="W98" s="21"/>
+      <c r="X98" s="21"/>
+      <c r="Y98" s="21"/>
+      <c r="Z98" s="21"/>
+      <c r="AA98" s="21"/>
+      <c r="AB98" s="21"/>
+      <c r="AC98" s="21"/>
+      <c r="AD98" s="21"/>
+      <c r="AE98" s="21"/>
+      <c r="AF98" s="21"/>
+      <c r="AG98" s="21"/>
+      <c r="AH98" s="22"/>
     </row>
     <row r="99" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D99" s="15"/>
-      <c r="G99" s="29">
-        <v>5</v>
-      </c>
-      <c r="H99" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="17"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="17"/>
-      <c r="X99" s="17"/>
-      <c r="Y99" s="17"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="17"/>
-      <c r="AB99" s="17"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="17"/>
-      <c r="AE99" s="17"/>
-      <c r="AF99" s="17"/>
-      <c r="AG99" s="17"/>
-      <c r="AH99" s="18"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="21"/>
+      <c r="S99" s="21"/>
+      <c r="T99" s="21"/>
+      <c r="U99" s="21"/>
+      <c r="V99" s="21"/>
+      <c r="W99" s="21"/>
+      <c r="X99" s="21"/>
+      <c r="Y99" s="21"/>
+      <c r="Z99" s="21"/>
+      <c r="AA99" s="21"/>
+      <c r="AB99" s="21"/>
+      <c r="AC99" s="21"/>
+      <c r="AD99" s="21"/>
+      <c r="AE99" s="21"/>
+      <c r="AF99" s="21"/>
+      <c r="AG99" s="21"/>
+      <c r="AH99" s="22"/>
     </row>
     <row r="100" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D100" s="15"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I100" s="21"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="21"/>
-      <c r="W100" s="21"/>
-      <c r="X100" s="21"/>
-      <c r="Y100" s="21"/>
-      <c r="Z100" s="21"/>
-      <c r="AA100" s="21"/>
-      <c r="AB100" s="21"/>
-      <c r="AC100" s="21"/>
-      <c r="AD100" s="21"/>
-      <c r="AE100" s="21"/>
-      <c r="AF100" s="21"/>
-      <c r="AG100" s="21"/>
-      <c r="AH100" s="22"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="24"/>
+      <c r="T100" s="24"/>
+      <c r="U100" s="24"/>
+      <c r="V100" s="24"/>
+      <c r="W100" s="24"/>
+      <c r="X100" s="24"/>
+      <c r="Y100" s="24"/>
+      <c r="Z100" s="24"/>
+      <c r="AA100" s="24"/>
+      <c r="AB100" s="24"/>
+      <c r="AC100" s="24"/>
+      <c r="AD100" s="24"/>
+      <c r="AE100" s="24"/>
+      <c r="AF100" s="24"/>
+      <c r="AG100" s="24"/>
+      <c r="AH100" s="25"/>
     </row>
     <row r="101" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D101" s="15"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="21"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="21"/>
-      <c r="Y101" s="21"/>
-      <c r="Z101" s="21"/>
-      <c r="AA101" s="21"/>
-      <c r="AB101" s="21"/>
-      <c r="AC101" s="21"/>
-      <c r="AD101" s="21"/>
-      <c r="AE101" s="21"/>
-      <c r="AF101" s="21"/>
-      <c r="AG101" s="21"/>
-      <c r="AH101" s="22"/>
+      <c r="G101" s="29">
+        <v>5</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="17"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="17"/>
+      <c r="AB101" s="17"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="17"/>
+      <c r="AE101" s="17"/>
+      <c r="AF101" s="17"/>
+      <c r="AG101" s="17"/>
+      <c r="AH101" s="18"/>
     </row>
     <row r="102" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D102" s="15"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="25"/>
-      <c r="P102" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="24"/>
-      <c r="T102" s="24"/>
-      <c r="U102" s="24"/>
-      <c r="V102" s="24"/>
-      <c r="W102" s="24"/>
-      <c r="X102" s="24"/>
-      <c r="Y102" s="24"/>
-      <c r="Z102" s="24"/>
-      <c r="AA102" s="24"/>
-      <c r="AB102" s="24"/>
-      <c r="AC102" s="24"/>
-      <c r="AD102" s="24"/>
-      <c r="AE102" s="24"/>
-      <c r="AF102" s="24"/>
-      <c r="AG102" s="24"/>
-      <c r="AH102" s="25"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="21"/>
+      <c r="Y102" s="21"/>
+      <c r="Z102" s="21"/>
+      <c r="AA102" s="21"/>
+      <c r="AB102" s="21"/>
+      <c r="AC102" s="21"/>
+      <c r="AD102" s="21"/>
+      <c r="AE102" s="21"/>
+      <c r="AF102" s="21"/>
+      <c r="AG102" s="21"/>
+      <c r="AH102" s="22"/>
     </row>
     <row r="103" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D103" s="15"/>
-      <c r="G103" s="29">
-        <v>6</v>
-      </c>
-      <c r="H103" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="17"/>
-      <c r="T103" s="17"/>
-      <c r="U103" s="17"/>
-      <c r="V103" s="17"/>
-      <c r="W103" s="17"/>
-      <c r="X103" s="17"/>
-      <c r="Y103" s="17"/>
-      <c r="Z103" s="17"/>
-      <c r="AA103" s="17"/>
-      <c r="AB103" s="17"/>
-      <c r="AC103" s="17"/>
-      <c r="AD103" s="17"/>
-      <c r="AE103" s="17"/>
-      <c r="AF103" s="17"/>
-      <c r="AG103" s="17"/>
-      <c r="AH103" s="18"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="21"/>
+      <c r="AA103" s="21"/>
+      <c r="AB103" s="21"/>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="21"/>
+      <c r="AE103" s="21"/>
+      <c r="AF103" s="21"/>
+      <c r="AG103" s="21"/>
+      <c r="AH103" s="22"/>
     </row>
     <row r="104" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D104" s="15"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="22"/>
-      <c r="P104" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="21"/>
-      <c r="T104" s="21"/>
-      <c r="U104" s="21"/>
-      <c r="V104" s="21"/>
-      <c r="W104" s="21"/>
-      <c r="X104" s="21"/>
-      <c r="Y104" s="21"/>
-      <c r="Z104" s="21"/>
-      <c r="AA104" s="21"/>
-      <c r="AB104" s="21"/>
-      <c r="AC104" s="21"/>
-      <c r="AD104" s="21"/>
-      <c r="AE104" s="21"/>
-      <c r="AF104" s="21"/>
-      <c r="AG104" s="21"/>
-      <c r="AH104" s="22"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q104" s="24"/>
+      <c r="R104" s="24"/>
+      <c r="S104" s="24"/>
+      <c r="T104" s="24"/>
+      <c r="U104" s="24"/>
+      <c r="V104" s="24"/>
+      <c r="W104" s="24"/>
+      <c r="X104" s="24"/>
+      <c r="Y104" s="24"/>
+      <c r="Z104" s="24"/>
+      <c r="AA104" s="24"/>
+      <c r="AB104" s="24"/>
+      <c r="AC104" s="24"/>
+      <c r="AD104" s="24"/>
+      <c r="AE104" s="24"/>
+      <c r="AF104" s="24"/>
+      <c r="AG104" s="24"/>
+      <c r="AH104" s="25"/>
     </row>
     <row r="105" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D105" s="15"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="24"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="24"/>
-      <c r="N105" s="24"/>
-      <c r="O105" s="25"/>
-      <c r="P105" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q105" s="24"/>
-      <c r="R105" s="24"/>
-      <c r="S105" s="24"/>
-      <c r="T105" s="24"/>
-      <c r="U105" s="24"/>
-      <c r="V105" s="24"/>
-      <c r="W105" s="24"/>
-      <c r="X105" s="24"/>
-      <c r="Y105" s="24"/>
-      <c r="Z105" s="24"/>
-      <c r="AA105" s="24"/>
-      <c r="AB105" s="24"/>
-      <c r="AC105" s="24"/>
-      <c r="AD105" s="24"/>
-      <c r="AE105" s="24"/>
-      <c r="AF105" s="24"/>
-      <c r="AG105" s="24"/>
-      <c r="AH105" s="25"/>
+      <c r="G105" s="29">
+        <v>6</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="17"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="17"/>
+      <c r="X105" s="17"/>
+      <c r="Y105" s="17"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="17"/>
+      <c r="AB105" s="17"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="17"/>
+      <c r="AE105" s="17"/>
+      <c r="AF105" s="17"/>
+      <c r="AG105" s="17"/>
+      <c r="AH105" s="18"/>
     </row>
     <row r="106" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D106" s="15"/>
-      <c r="G106" s="29">
-        <v>7</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="18"/>
-      <c r="P106" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q106" s="17"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="17"/>
-      <c r="T106" s="17"/>
-      <c r="U106" s="17"/>
-      <c r="V106" s="17"/>
-      <c r="W106" s="17"/>
-      <c r="X106" s="17"/>
-      <c r="Y106" s="17"/>
-      <c r="Z106" s="17"/>
-      <c r="AA106" s="17"/>
-      <c r="AB106" s="17"/>
-      <c r="AC106" s="17"/>
-      <c r="AD106" s="17"/>
-      <c r="AE106" s="17"/>
-      <c r="AF106" s="17"/>
-      <c r="AG106" s="17"/>
-      <c r="AH106" s="18"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="21"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="21"/>
+      <c r="X106" s="21"/>
+      <c r="Y106" s="21"/>
+      <c r="Z106" s="21"/>
+      <c r="AA106" s="21"/>
+      <c r="AB106" s="21"/>
+      <c r="AC106" s="21"/>
+      <c r="AD106" s="21"/>
+      <c r="AE106" s="21"/>
+      <c r="AF106" s="21"/>
+      <c r="AG106" s="21"/>
+      <c r="AH106" s="22"/>
     </row>
     <row r="107" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="15"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="I107" s="21"/>
-      <c r="J107" s="21"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="21"/>
-      <c r="M107" s="21"/>
-      <c r="N107" s="21"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q107" s="21"/>
-      <c r="R107" s="21"/>
-      <c r="S107" s="21"/>
-      <c r="T107" s="21"/>
-      <c r="U107" s="21"/>
-      <c r="V107" s="21"/>
-      <c r="W107" s="21"/>
-      <c r="X107" s="21"/>
-      <c r="Y107" s="21"/>
-      <c r="Z107" s="21"/>
-      <c r="AA107" s="21"/>
-      <c r="AB107" s="21"/>
-      <c r="AC107" s="21"/>
-      <c r="AD107" s="21"/>
-      <c r="AE107" s="21"/>
-      <c r="AF107" s="21"/>
-      <c r="AG107" s="21"/>
-      <c r="AH107" s="22"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q107" s="24"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="24"/>
+      <c r="T107" s="24"/>
+      <c r="U107" s="24"/>
+      <c r="V107" s="24"/>
+      <c r="W107" s="24"/>
+      <c r="X107" s="24"/>
+      <c r="Y107" s="24"/>
+      <c r="Z107" s="24"/>
+      <c r="AA107" s="24"/>
+      <c r="AB107" s="24"/>
+      <c r="AC107" s="24"/>
+      <c r="AD107" s="24"/>
+      <c r="AE107" s="24"/>
+      <c r="AF107" s="24"/>
+      <c r="AG107" s="24"/>
+      <c r="AH107" s="25"/>
     </row>
     <row r="108" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="21"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="21"/>
-      <c r="S108" s="21"/>
-      <c r="T108" s="21"/>
-      <c r="U108" s="21"/>
-      <c r="V108" s="21"/>
-      <c r="W108" s="21"/>
-      <c r="X108" s="21"/>
-      <c r="Y108" s="21"/>
-      <c r="Z108" s="21"/>
-      <c r="AA108" s="21"/>
-      <c r="AB108" s="21"/>
-      <c r="AC108" s="21"/>
-      <c r="AD108" s="21"/>
-      <c r="AE108" s="21"/>
-      <c r="AF108" s="21"/>
-      <c r="AG108" s="21"/>
-      <c r="AH108" s="22"/>
+      <c r="G108" s="29">
+        <v>7</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="17"/>
+      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="17"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="17"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="18"/>
     </row>
     <row r="109" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D109" s="15"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
-      <c r="N109" s="24"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q109" s="24"/>
-      <c r="R109" s="24"/>
-      <c r="S109" s="24"/>
-      <c r="T109" s="24"/>
-      <c r="U109" s="24"/>
-      <c r="V109" s="24"/>
-      <c r="W109" s="24"/>
-      <c r="X109" s="24"/>
-      <c r="Y109" s="24"/>
-      <c r="Z109" s="24"/>
-      <c r="AA109" s="24"/>
-      <c r="AB109" s="24"/>
-      <c r="AC109" s="24"/>
-      <c r="AD109" s="24"/>
-      <c r="AE109" s="24"/>
-      <c r="AF109" s="24"/>
-      <c r="AG109" s="24"/>
-      <c r="AH109" s="25"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q109" s="21"/>
+      <c r="R109" s="21"/>
+      <c r="S109" s="21"/>
+      <c r="T109" s="21"/>
+      <c r="U109" s="21"/>
+      <c r="V109" s="21"/>
+      <c r="W109" s="21"/>
+      <c r="X109" s="21"/>
+      <c r="Y109" s="21"/>
+      <c r="Z109" s="21"/>
+      <c r="AA109" s="21"/>
+      <c r="AB109" s="21"/>
+      <c r="AC109" s="21"/>
+      <c r="AD109" s="21"/>
+      <c r="AE109" s="21"/>
+      <c r="AF109" s="21"/>
+      <c r="AG109" s="21"/>
+      <c r="AH109" s="22"/>
     </row>
     <row r="110" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" s="15"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="21"/>
+      <c r="V110" s="21"/>
+      <c r="W110" s="21"/>
+      <c r="X110" s="21"/>
+      <c r="Y110" s="21"/>
+      <c r="Z110" s="21"/>
+      <c r="AA110" s="21"/>
+      <c r="AB110" s="21"/>
+      <c r="AC110" s="21"/>
+      <c r="AD110" s="21"/>
+      <c r="AE110" s="21"/>
+      <c r="AF110" s="21"/>
+      <c r="AG110" s="21"/>
+      <c r="AH110" s="22"/>
     </row>
     <row r="111" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" s="15"/>
-      <c r="F111" s="15" t="str">
-        <f>$E$80&amp;".2."</f>
-        <v>(3).2.</v>
-      </c>
-      <c r="G111" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="G111" s="31"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24"/>
+      <c r="T111" s="24"/>
+      <c r="U111" s="24"/>
+      <c r="V111" s="24"/>
+      <c r="W111" s="24"/>
+      <c r="X111" s="24"/>
+      <c r="Y111" s="24"/>
+      <c r="Z111" s="24"/>
+      <c r="AA111" s="24"/>
+      <c r="AB111" s="24"/>
+      <c r="AC111" s="24"/>
+      <c r="AD111" s="24"/>
+      <c r="AE111" s="24"/>
+      <c r="AF111" s="24"/>
+      <c r="AG111" s="24"/>
+      <c r="AH111" s="25"/>
     </row>
     <row r="112" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D112" s="15"/>
-      <c r="G112" s="19" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="113" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D113" s="15"/>
+      <c r="F113" s="15" t="str">
+        <f>$E$82&amp;".2."</f>
+        <v>(3).2.</v>
+      </c>
       <c r="G113" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D114" s="15"/>
       <c r="G114" s="19" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" s="15"/>
       <c r="G115" s="19" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D116" s="15"/>
+      <c r="G116" s="19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="117" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D117" s="15"/>
-      <c r="G117" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H117" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="27"/>
-      <c r="O117" s="28"/>
-      <c r="P117" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q117" s="27"/>
-      <c r="R117" s="27"/>
-      <c r="S117" s="27"/>
-      <c r="T117" s="27"/>
-      <c r="U117" s="27"/>
-      <c r="V117" s="27"/>
-      <c r="W117" s="27"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="27"/>
-      <c r="AA117" s="27"/>
-      <c r="AB117" s="27"/>
-      <c r="AC117" s="27"/>
-      <c r="AD117" s="27"/>
-      <c r="AE117" s="27"/>
-      <c r="AF117" s="27"/>
-      <c r="AG117" s="27"/>
-      <c r="AH117" s="28"/>
+      <c r="G117" s="19" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="118" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D118" s="15"/>
-      <c r="G118" s="29">
-        <v>1</v>
-      </c>
-      <c r="H118" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="17"/>
-      <c r="S118" s="17"/>
-      <c r="T118" s="17"/>
-      <c r="U118" s="17"/>
-      <c r="V118" s="17"/>
-      <c r="W118" s="17"/>
-      <c r="X118" s="17"/>
-      <c r="Y118" s="17"/>
-      <c r="Z118" s="17"/>
-      <c r="AA118" s="17"/>
-      <c r="AB118" s="17"/>
-      <c r="AC118" s="17"/>
-      <c r="AD118" s="17"/>
-      <c r="AE118" s="17"/>
-      <c r="AF118" s="17"/>
-      <c r="AG118" s="17"/>
-      <c r="AH118" s="18"/>
     </row>
     <row r="119" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D119" s="15"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="21"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="21"/>
-      <c r="S119" s="21"/>
-      <c r="T119" s="21"/>
-      <c r="U119" s="21"/>
-      <c r="V119" s="21"/>
-      <c r="W119" s="21"/>
-      <c r="X119" s="21"/>
-      <c r="Y119" s="21"/>
-      <c r="Z119" s="21"/>
-      <c r="AA119" s="21"/>
-      <c r="AB119" s="21"/>
-      <c r="AC119" s="21"/>
-      <c r="AD119" s="21"/>
-      <c r="AE119" s="21"/>
-      <c r="AF119" s="21"/>
-      <c r="AG119" s="21"/>
-      <c r="AH119" s="22"/>
+      <c r="G119" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="28"/>
+      <c r="P119" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q119" s="27"/>
+      <c r="R119" s="27"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="27"/>
+      <c r="U119" s="27"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+      <c r="AA119" s="27"/>
+      <c r="AB119" s="27"/>
+      <c r="AC119" s="27"/>
+      <c r="AD119" s="27"/>
+      <c r="AE119" s="27"/>
+      <c r="AF119" s="27"/>
+      <c r="AG119" s="27"/>
+      <c r="AH119" s="28"/>
     </row>
     <row r="120" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D120" s="15"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="24"/>
-      <c r="L120" s="24"/>
-      <c r="M120" s="24"/>
-      <c r="N120" s="24"/>
-      <c r="O120" s="25"/>
-      <c r="P120" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q120" s="24"/>
-      <c r="R120" s="24"/>
-      <c r="S120" s="24"/>
-      <c r="T120" s="24"/>
-      <c r="U120" s="24"/>
-      <c r="V120" s="24"/>
-      <c r="W120" s="24"/>
-      <c r="X120" s="24"/>
-      <c r="Y120" s="24"/>
-      <c r="Z120" s="24"/>
-      <c r="AA120" s="24"/>
-      <c r="AB120" s="24"/>
-      <c r="AC120" s="24"/>
-      <c r="AD120" s="24"/>
-      <c r="AE120" s="24"/>
-      <c r="AF120" s="24"/>
-      <c r="AG120" s="24"/>
-      <c r="AH120" s="25"/>
+      <c r="G120" s="29">
+        <v>1</v>
+      </c>
+      <c r="H120" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q120" s="17"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="17"/>
+      <c r="T120" s="17"/>
+      <c r="U120" s="17"/>
+      <c r="V120" s="17"/>
+      <c r="W120" s="17"/>
+      <c r="X120" s="17"/>
+      <c r="Y120" s="17"/>
+      <c r="Z120" s="17"/>
+      <c r="AA120" s="17"/>
+      <c r="AB120" s="17"/>
+      <c r="AC120" s="17"/>
+      <c r="AD120" s="17"/>
+      <c r="AE120" s="17"/>
+      <c r="AF120" s="17"/>
+      <c r="AG120" s="17"/>
+      <c r="AH120" s="18"/>
     </row>
     <row r="121" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D121" s="15"/>
-      <c r="G121" s="29">
-        <v>2</v>
-      </c>
-      <c r="H121" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q121" s="17"/>
-      <c r="R121" s="17"/>
-      <c r="S121" s="17"/>
-      <c r="T121" s="17"/>
-      <c r="U121" s="17"/>
-      <c r="V121" s="17"/>
-      <c r="W121" s="17"/>
-      <c r="X121" s="17"/>
-      <c r="Y121" s="17"/>
-      <c r="Z121" s="17"/>
-      <c r="AA121" s="17"/>
-      <c r="AB121" s="17"/>
-      <c r="AC121" s="17"/>
-      <c r="AD121" s="17"/>
-      <c r="AE121" s="17"/>
-      <c r="AF121" s="17"/>
-      <c r="AG121" s="17"/>
-      <c r="AH121" s="18"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q121" s="21"/>
+      <c r="R121" s="21"/>
+      <c r="S121" s="21"/>
+      <c r="T121" s="21"/>
+      <c r="U121" s="21"/>
+      <c r="V121" s="21"/>
+      <c r="W121" s="21"/>
+      <c r="X121" s="21"/>
+      <c r="Y121" s="21"/>
+      <c r="Z121" s="21"/>
+      <c r="AA121" s="21"/>
+      <c r="AB121" s="21"/>
+      <c r="AC121" s="21"/>
+      <c r="AD121" s="21"/>
+      <c r="AE121" s="21"/>
+      <c r="AF121" s="21"/>
+      <c r="AG121" s="21"/>
+      <c r="AH121" s="22"/>
     </row>
     <row r="122" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D122" s="15"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I122" s="21"/>
-      <c r="J122" s="21"/>
-      <c r="K122" s="21"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="21"/>
-      <c r="O122" s="22"/>
-      <c r="P122" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q122" s="21"/>
-      <c r="R122" s="21"/>
-      <c r="S122" s="21"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="21"/>
-      <c r="V122" s="21"/>
-      <c r="W122" s="21"/>
-      <c r="X122" s="21"/>
-      <c r="Y122" s="21"/>
-      <c r="Z122" s="21"/>
-      <c r="AA122" s="21"/>
-      <c r="AB122" s="21"/>
-      <c r="AC122" s="21"/>
-      <c r="AD122" s="21"/>
-      <c r="AE122" s="21"/>
-      <c r="AF122" s="21"/>
-      <c r="AG122" s="21"/>
-      <c r="AH122" s="22"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+      <c r="O122" s="25"/>
+      <c r="P122" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="24"/>
+      <c r="S122" s="24"/>
+      <c r="T122" s="24"/>
+      <c r="U122" s="24"/>
+      <c r="V122" s="24"/>
+      <c r="W122" s="24"/>
+      <c r="X122" s="24"/>
+      <c r="Y122" s="24"/>
+      <c r="Z122" s="24"/>
+      <c r="AA122" s="24"/>
+      <c r="AB122" s="24"/>
+      <c r="AC122" s="24"/>
+      <c r="AD122" s="24"/>
+      <c r="AE122" s="24"/>
+      <c r="AF122" s="24"/>
+      <c r="AG122" s="24"/>
+      <c r="AH122" s="25"/>
     </row>
     <row r="123" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D123" s="15"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
-      <c r="M123" s="21"/>
-      <c r="N123" s="21"/>
-      <c r="O123" s="22"/>
-      <c r="P123" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q123" s="21"/>
-      <c r="R123" s="21"/>
-      <c r="S123" s="21"/>
-      <c r="T123" s="21"/>
-      <c r="U123" s="21"/>
-      <c r="V123" s="21"/>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-      <c r="Y123" s="21"/>
-      <c r="Z123" s="21"/>
-      <c r="AA123" s="21"/>
-      <c r="AB123" s="21"/>
-      <c r="AC123" s="21"/>
-      <c r="AD123" s="21"/>
-      <c r="AE123" s="21"/>
-      <c r="AF123" s="21"/>
-      <c r="AG123" s="21"/>
-      <c r="AH123" s="22"/>
+      <c r="G123" s="29">
+        <v>2</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q123" s="17"/>
+      <c r="R123" s="17"/>
+      <c r="S123" s="17"/>
+      <c r="T123" s="17"/>
+      <c r="U123" s="17"/>
+      <c r="V123" s="17"/>
+      <c r="W123" s="17"/>
+      <c r="X123" s="17"/>
+      <c r="Y123" s="17"/>
+      <c r="Z123" s="17"/>
+      <c r="AA123" s="17"/>
+      <c r="AB123" s="17"/>
+      <c r="AC123" s="17"/>
+      <c r="AD123" s="17"/>
+      <c r="AE123" s="17"/>
+      <c r="AF123" s="17"/>
+      <c r="AG123" s="17"/>
+      <c r="AH123" s="18"/>
     </row>
     <row r="124" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D124" s="15"/>
-      <c r="G124" s="31"/>
-      <c r="H124" s="23"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
-      <c r="M124" s="24"/>
-      <c r="N124" s="24"/>
-      <c r="O124" s="25"/>
-      <c r="P124" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q124" s="24"/>
-      <c r="R124" s="24"/>
-      <c r="S124" s="24"/>
-      <c r="T124" s="24"/>
-      <c r="U124" s="24"/>
-      <c r="V124" s="24"/>
-      <c r="W124" s="24"/>
-      <c r="X124" s="24"/>
-      <c r="Y124" s="24"/>
-      <c r="Z124" s="24"/>
-      <c r="AA124" s="24"/>
-      <c r="AB124" s="24"/>
-      <c r="AC124" s="24"/>
-      <c r="AD124" s="24"/>
-      <c r="AE124" s="24"/>
-      <c r="AF124" s="24"/>
-      <c r="AG124" s="24"/>
-      <c r="AH124" s="25"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q124" s="21"/>
+      <c r="R124" s="21"/>
+      <c r="S124" s="21"/>
+      <c r="T124" s="21"/>
+      <c r="U124" s="21"/>
+      <c r="V124" s="21"/>
+      <c r="W124" s="21"/>
+      <c r="X124" s="21"/>
+      <c r="Y124" s="21"/>
+      <c r="Z124" s="21"/>
+      <c r="AA124" s="21"/>
+      <c r="AB124" s="21"/>
+      <c r="AC124" s="21"/>
+      <c r="AD124" s="21"/>
+      <c r="AE124" s="21"/>
+      <c r="AF124" s="21"/>
+      <c r="AG124" s="21"/>
+      <c r="AH124" s="22"/>
     </row>
     <row r="125" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q125" s="21"/>
+      <c r="R125" s="21"/>
+      <c r="S125" s="21"/>
+      <c r="T125" s="21"/>
+      <c r="U125" s="21"/>
+      <c r="V125" s="21"/>
+      <c r="W125" s="21"/>
+      <c r="X125" s="21"/>
+      <c r="Y125" s="21"/>
+      <c r="Z125" s="21"/>
+      <c r="AA125" s="21"/>
+      <c r="AB125" s="21"/>
+      <c r="AC125" s="21"/>
+      <c r="AD125" s="21"/>
+      <c r="AE125" s="21"/>
+      <c r="AF125" s="21"/>
+      <c r="AG125" s="21"/>
+      <c r="AH125" s="22"/>
     </row>
     <row r="126" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D126" s="15"/>
-      <c r="F126" s="15" t="str">
-        <f>$E$80&amp;".3."</f>
-        <v>(3).3.</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>46</v>
-      </c>
+      <c r="G126" s="31"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="25"/>
+      <c r="P126" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q126" s="24"/>
+      <c r="R126" s="24"/>
+      <c r="S126" s="24"/>
+      <c r="T126" s="24"/>
+      <c r="U126" s="24"/>
+      <c r="V126" s="24"/>
+      <c r="W126" s="24"/>
+      <c r="X126" s="24"/>
+      <c r="Y126" s="24"/>
+      <c r="Z126" s="24"/>
+      <c r="AA126" s="24"/>
+      <c r="AB126" s="24"/>
+      <c r="AC126" s="24"/>
+      <c r="AD126" s="24"/>
+      <c r="AE126" s="24"/>
+      <c r="AF126" s="24"/>
+      <c r="AG126" s="24"/>
+      <c r="AH126" s="25"/>
     </row>
     <row r="127" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="19" t="s">
-        <v>47</v>
-      </c>
+      <c r="E127" s="15"/>
     </row>
     <row r="128" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D128" s="15"/>
-      <c r="F128" s="15"/>
+      <c r="F128" s="15" t="str">
+        <f>$E$82&amp;".3."</f>
+        <v>(3).3.</v>
+      </c>
       <c r="G128" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D129" s="15"/>
       <c r="F129" s="15"/>
+      <c r="G129" s="19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="130" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D130" s="15"/>
       <c r="F130" s="15"/>
-      <c r="G130" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H130" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="28"/>
-      <c r="P130" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q130" s="27"/>
-      <c r="R130" s="27"/>
-      <c r="S130" s="27"/>
-      <c r="T130" s="27"/>
-      <c r="U130" s="27"/>
-      <c r="V130" s="27"/>
-      <c r="W130" s="27"/>
-      <c r="X130" s="27"/>
-      <c r="Y130" s="27"/>
-      <c r="Z130" s="27"/>
-      <c r="AA130" s="27"/>
-      <c r="AB130" s="27"/>
-      <c r="AC130" s="27"/>
-      <c r="AD130" s="27"/>
-      <c r="AE130" s="27"/>
-      <c r="AF130" s="27"/>
-      <c r="AG130" s="27"/>
-      <c r="AH130" s="28"/>
-      <c r="AI130" s="15"/>
+      <c r="G130" s="19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="131" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D131" s="15"/>
-      <c r="G131" s="29">
-        <v>1</v>
-      </c>
-      <c r="H131" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="18"/>
-      <c r="P131" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q131" s="17"/>
-      <c r="R131" s="17"/>
-      <c r="S131" s="17"/>
-      <c r="T131" s="17"/>
-      <c r="U131" s="17"/>
-      <c r="V131" s="17"/>
-      <c r="W131" s="17"/>
-      <c r="X131" s="17"/>
-      <c r="Y131" s="17"/>
-      <c r="Z131" s="17"/>
-      <c r="AA131" s="17"/>
-      <c r="AB131" s="17"/>
-      <c r="AC131" s="17"/>
-      <c r="AD131" s="17"/>
-      <c r="AE131" s="17"/>
-      <c r="AF131" s="17"/>
-      <c r="AG131" s="17"/>
-      <c r="AH131" s="18"/>
-      <c r="AI131" s="15"/>
+      <c r="F131" s="15"/>
     </row>
     <row r="132" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D132" s="15"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I132" s="21"/>
-      <c r="J132" s="21"/>
-      <c r="K132" s="21"/>
-      <c r="L132" s="21"/>
-      <c r="M132" s="21"/>
-      <c r="N132" s="21"/>
-      <c r="O132" s="22"/>
-      <c r="P132" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q132" s="21"/>
-      <c r="R132" s="21"/>
-      <c r="S132" s="21"/>
-      <c r="T132" s="21"/>
-      <c r="U132" s="21"/>
-      <c r="V132" s="21"/>
-      <c r="W132" s="21"/>
-      <c r="X132" s="21"/>
-      <c r="Y132" s="21"/>
-      <c r="Z132" s="21"/>
-      <c r="AA132" s="21"/>
-      <c r="AB132" s="21"/>
-      <c r="AC132" s="21"/>
-      <c r="AD132" s="21"/>
-      <c r="AE132" s="21"/>
-      <c r="AF132" s="21"/>
-      <c r="AG132" s="21"/>
-      <c r="AH132" s="22"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="28"/>
+      <c r="P132" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q132" s="27"/>
+      <c r="R132" s="27"/>
+      <c r="S132" s="27"/>
+      <c r="T132" s="27"/>
+      <c r="U132" s="27"/>
+      <c r="V132" s="27"/>
+      <c r="W132" s="27"/>
+      <c r="X132" s="27"/>
+      <c r="Y132" s="27"/>
+      <c r="Z132" s="27"/>
+      <c r="AA132" s="27"/>
+      <c r="AB132" s="27"/>
+      <c r="AC132" s="27"/>
+      <c r="AD132" s="27"/>
+      <c r="AE132" s="27"/>
+      <c r="AF132" s="27"/>
+      <c r="AG132" s="27"/>
+      <c r="AH132" s="28"/>
       <c r="AI132" s="15"/>
     </row>
     <row r="133" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D133" s="15"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21"/>
-      <c r="K133" s="21"/>
-      <c r="L133" s="21"/>
-      <c r="M133" s="21"/>
-      <c r="N133" s="21"/>
-      <c r="O133" s="22"/>
-      <c r="P133" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q133" s="21"/>
-      <c r="R133" s="21"/>
-      <c r="S133" s="21"/>
-      <c r="T133" s="21"/>
-      <c r="U133" s="21"/>
-      <c r="V133" s="21"/>
-      <c r="W133" s="21"/>
-      <c r="X133" s="21"/>
-      <c r="Y133" s="21"/>
-      <c r="Z133" s="21"/>
-      <c r="AA133" s="21"/>
-      <c r="AB133" s="21"/>
-      <c r="AC133" s="21"/>
-      <c r="AD133" s="21"/>
-      <c r="AE133" s="21"/>
-      <c r="AF133" s="21"/>
-      <c r="AG133" s="21"/>
-      <c r="AH133" s="22"/>
+      <c r="G133" s="29">
+        <v>1</v>
+      </c>
+      <c r="H133" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q133" s="17"/>
+      <c r="R133" s="17"/>
+      <c r="S133" s="17"/>
+      <c r="T133" s="17"/>
+      <c r="U133" s="17"/>
+      <c r="V133" s="17"/>
+      <c r="W133" s="17"/>
+      <c r="X133" s="17"/>
+      <c r="Y133" s="17"/>
+      <c r="Z133" s="17"/>
+      <c r="AA133" s="17"/>
+      <c r="AB133" s="17"/>
+      <c r="AC133" s="17"/>
+      <c r="AD133" s="17"/>
+      <c r="AE133" s="17"/>
+      <c r="AF133" s="17"/>
+      <c r="AG133" s="17"/>
+      <c r="AH133" s="18"/>
       <c r="AI133" s="15"/>
     </row>
     <row r="134" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D134" s="15"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="23"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="24"/>
-      <c r="K134" s="24"/>
-      <c r="L134" s="24"/>
-      <c r="M134" s="24"/>
-      <c r="N134" s="24"/>
-      <c r="O134" s="25"/>
-      <c r="P134" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q134" s="24"/>
-      <c r="R134" s="24"/>
-      <c r="S134" s="24"/>
-      <c r="T134" s="24"/>
-      <c r="U134" s="24"/>
-      <c r="V134" s="24"/>
-      <c r="W134" s="24"/>
-      <c r="X134" s="24"/>
-      <c r="Y134" s="24"/>
-      <c r="Z134" s="24"/>
-      <c r="AA134" s="24"/>
-      <c r="AB134" s="24"/>
-      <c r="AC134" s="24"/>
-      <c r="AD134" s="24"/>
-      <c r="AE134" s="24"/>
-      <c r="AF134" s="24"/>
-      <c r="AG134" s="24"/>
-      <c r="AH134" s="25"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="21"/>
+      <c r="M134" s="21"/>
+      <c r="N134" s="21"/>
+      <c r="O134" s="22"/>
+      <c r="P134" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q134" s="21"/>
+      <c r="R134" s="21"/>
+      <c r="S134" s="21"/>
+      <c r="T134" s="21"/>
+      <c r="U134" s="21"/>
+      <c r="V134" s="21"/>
+      <c r="W134" s="21"/>
+      <c r="X134" s="21"/>
+      <c r="Y134" s="21"/>
+      <c r="Z134" s="21"/>
+      <c r="AA134" s="21"/>
+      <c r="AB134" s="21"/>
+      <c r="AC134" s="21"/>
+      <c r="AD134" s="21"/>
+      <c r="AE134" s="21"/>
+      <c r="AF134" s="21"/>
+      <c r="AG134" s="21"/>
+      <c r="AH134" s="22"/>
       <c r="AI134" s="15"/>
     </row>
     <row r="135" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D135" s="15"/>
-      <c r="G135" s="29">
-        <v>2</v>
-      </c>
-      <c r="H135" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I135" s="17"/>
-      <c r="J135" s="17"/>
-      <c r="K135" s="17"/>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="18"/>
-      <c r="P135" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q135" s="17"/>
-      <c r="R135" s="17"/>
-      <c r="S135" s="17"/>
-      <c r="T135" s="17"/>
-      <c r="U135" s="17"/>
-      <c r="V135" s="17"/>
-      <c r="W135" s="17"/>
-      <c r="X135" s="17"/>
-      <c r="Y135" s="17"/>
-      <c r="Z135" s="17"/>
-      <c r="AA135" s="17"/>
-      <c r="AB135" s="17"/>
-      <c r="AC135" s="17"/>
-      <c r="AD135" s="17"/>
-      <c r="AE135" s="17"/>
-      <c r="AF135" s="17"/>
-      <c r="AG135" s="17"/>
-      <c r="AH135" s="18"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="21"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="21"/>
+      <c r="M135" s="21"/>
+      <c r="N135" s="21"/>
+      <c r="O135" s="22"/>
+      <c r="P135" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q135" s="21"/>
+      <c r="R135" s="21"/>
+      <c r="S135" s="21"/>
+      <c r="T135" s="21"/>
+      <c r="U135" s="21"/>
+      <c r="V135" s="21"/>
+      <c r="W135" s="21"/>
+      <c r="X135" s="21"/>
+      <c r="Y135" s="21"/>
+      <c r="Z135" s="21"/>
+      <c r="AA135" s="21"/>
+      <c r="AB135" s="21"/>
+      <c r="AC135" s="21"/>
+      <c r="AD135" s="21"/>
+      <c r="AE135" s="21"/>
+      <c r="AF135" s="21"/>
+      <c r="AG135" s="21"/>
+      <c r="AH135" s="22"/>
       <c r="AI135" s="15"/>
     </row>
     <row r="136" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D136" s="15"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I136" s="21"/>
-      <c r="J136" s="21"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="21"/>
-      <c r="M136" s="21"/>
-      <c r="N136" s="21"/>
-      <c r="O136" s="22"/>
-      <c r="P136" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q136" s="21"/>
-      <c r="R136" s="21"/>
-      <c r="S136" s="21"/>
-      <c r="T136" s="21"/>
-      <c r="U136" s="21"/>
-      <c r="V136" s="21"/>
-      <c r="W136" s="21"/>
-      <c r="X136" s="21"/>
-      <c r="Y136" s="21"/>
-      <c r="Z136" s="21"/>
-      <c r="AA136" s="21"/>
-      <c r="AB136" s="21"/>
-      <c r="AC136" s="21"/>
-      <c r="AD136" s="21"/>
-      <c r="AE136" s="21"/>
-      <c r="AF136" s="21"/>
-      <c r="AG136" s="21"/>
-      <c r="AH136" s="22"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="24"/>
+      <c r="M136" s="24"/>
+      <c r="N136" s="24"/>
+      <c r="O136" s="25"/>
+      <c r="P136" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q136" s="24"/>
+      <c r="R136" s="24"/>
+      <c r="S136" s="24"/>
+      <c r="T136" s="24"/>
+      <c r="U136" s="24"/>
+      <c r="V136" s="24"/>
+      <c r="W136" s="24"/>
+      <c r="X136" s="24"/>
+      <c r="Y136" s="24"/>
+      <c r="Z136" s="24"/>
+      <c r="AA136" s="24"/>
+      <c r="AB136" s="24"/>
+      <c r="AC136" s="24"/>
+      <c r="AD136" s="24"/>
+      <c r="AE136" s="24"/>
+      <c r="AF136" s="24"/>
+      <c r="AG136" s="24"/>
+      <c r="AH136" s="25"/>
+      <c r="AI136" s="15"/>
     </row>
     <row r="137" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D137" s="15"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
-      <c r="K137" s="24"/>
-      <c r="L137" s="24"/>
-      <c r="M137" s="24"/>
-      <c r="N137" s="24"/>
-      <c r="O137" s="25"/>
-      <c r="P137" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q137" s="24"/>
-      <c r="R137" s="24"/>
-      <c r="S137" s="24"/>
-      <c r="T137" s="24"/>
-      <c r="U137" s="24"/>
-      <c r="V137" s="24"/>
-      <c r="W137" s="24"/>
-      <c r="X137" s="24"/>
-      <c r="Y137" s="24"/>
-      <c r="Z137" s="24"/>
-      <c r="AA137" s="24"/>
-      <c r="AB137" s="24"/>
-      <c r="AC137" s="24"/>
-      <c r="AD137" s="24"/>
-      <c r="AE137" s="24"/>
-      <c r="AF137" s="24"/>
-      <c r="AG137" s="24"/>
-      <c r="AH137" s="25"/>
+      <c r="G137" s="29">
+        <v>2</v>
+      </c>
+      <c r="H137" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="18"/>
+      <c r="P137" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q137" s="17"/>
+      <c r="R137" s="17"/>
+      <c r="S137" s="17"/>
+      <c r="T137" s="17"/>
+      <c r="U137" s="17"/>
+      <c r="V137" s="17"/>
+      <c r="W137" s="17"/>
+      <c r="X137" s="17"/>
+      <c r="Y137" s="17"/>
+      <c r="Z137" s="17"/>
+      <c r="AA137" s="17"/>
+      <c r="AB137" s="17"/>
+      <c r="AC137" s="17"/>
+      <c r="AD137" s="17"/>
+      <c r="AE137" s="17"/>
+      <c r="AF137" s="17"/>
+      <c r="AG137" s="17"/>
+      <c r="AH137" s="18"/>
+      <c r="AI137" s="15"/>
     </row>
     <row r="138" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D138" s="15"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="21"/>
+      <c r="M138" s="21"/>
+      <c r="N138" s="21"/>
+      <c r="O138" s="22"/>
+      <c r="P138" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q138" s="21"/>
+      <c r="R138" s="21"/>
+      <c r="S138" s="21"/>
+      <c r="T138" s="21"/>
+      <c r="U138" s="21"/>
+      <c r="V138" s="21"/>
+      <c r="W138" s="21"/>
+      <c r="X138" s="21"/>
+      <c r="Y138" s="21"/>
+      <c r="Z138" s="21"/>
+      <c r="AA138" s="21"/>
+      <c r="AB138" s="21"/>
+      <c r="AC138" s="21"/>
+      <c r="AD138" s="21"/>
+      <c r="AE138" s="21"/>
+      <c r="AF138" s="21"/>
+      <c r="AG138" s="21"/>
+      <c r="AH138" s="22"/>
     </row>
     <row r="139" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D139" s="15"/>
-      <c r="E139" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="G139" s="31"/>
+      <c r="H139" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
+      <c r="M139" s="24"/>
+      <c r="N139" s="24"/>
+      <c r="O139" s="25"/>
+      <c r="P139" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q139" s="24"/>
+      <c r="R139" s="24"/>
+      <c r="S139" s="24"/>
+      <c r="T139" s="24"/>
+      <c r="U139" s="24"/>
+      <c r="V139" s="24"/>
+      <c r="W139" s="24"/>
+      <c r="X139" s="24"/>
+      <c r="Y139" s="24"/>
+      <c r="Z139" s="24"/>
+      <c r="AA139" s="24"/>
+      <c r="AB139" s="24"/>
+      <c r="AC139" s="24"/>
+      <c r="AD139" s="24"/>
+      <c r="AE139" s="24"/>
+      <c r="AF139" s="24"/>
+      <c r="AG139" s="24"/>
+      <c r="AH139" s="25"/>
     </row>
     <row r="140" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D140" s="15"/>
-      <c r="F140" s="15" t="str">
-        <f>$E$139&amp;".1."</f>
-        <v>(4).1.</v>
-      </c>
-      <c r="G140" s="19" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="141" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="19" t="s">
-        <v>66</v>
+      <c r="E141" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F141" s="19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D142" s="15"/>
-      <c r="F142" s="15"/>
+      <c r="F142" s="15" t="str">
+        <f>$E$141&amp;".1."</f>
+        <v>(4).1.</v>
+      </c>
       <c r="G142" s="19" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
     </row>
     <row r="143" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="19" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="144" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D144" s="15"/>
-      <c r="E144" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F144" s="19" t="s">
-        <v>124</v>
+      <c r="F144" s="15"/>
+      <c r="G144" s="19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D145" s="15"/>
-      <c r="F145" s="15" t="str">
-        <f>$E$144&amp;".1."</f>
-        <v>(5).1.</v>
-      </c>
-      <c r="G145" s="19" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D146" s="15"/>
-      <c r="G146" s="19" t="s">
-        <v>126</v>
+      <c r="E146" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F146" s="19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D147" s="15"/>
+      <c r="F147" s="15" t="str">
+        <f>$E$146&amp;".1."</f>
+        <v>(5).1.</v>
+      </c>
       <c r="G147" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D148" s="15"/>
+      <c r="G148" s="19" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="149" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D149" s="15" t="str">
+      <c r="D149" s="15"/>
+      <c r="G149" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D150" s="15"/>
+    </row>
+    <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.1.4.</v>
       </c>
-      <c r="E149" s="19" t="s">
+      <c r="E151" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D150" s="33"/>
-      <c r="E150" s="32" t="s">
+    <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D152" s="33"/>
+      <c r="E152" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="F150" s="19" t="s">
+      <c r="F152" s="19" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="34"/>
-      <c r="F151" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="34"/>
-      <c r="F152" s="19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D153" s="34"/>
+      <c r="F153" s="19" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="154" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D154" s="34"/>
+      <c r="F154" s="19" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="155" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D155" s="34"/>
@@ -5225,36 +5297,42 @@
       <c r="D177" s="34"/>
     </row>
     <row r="178" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D178" s="33"/>
-      <c r="E178" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="F178" s="19" t="s">
-        <v>128</v>
-      </c>
+      <c r="D178" s="34"/>
     </row>
     <row r="179" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D179" s="33"/>
-      <c r="E179" s="32"/>
-      <c r="F179" s="19" t="s">
-        <v>138</v>
-      </c>
+      <c r="D179" s="34"/>
     </row>
     <row r="180" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D180" s="33"/>
-      <c r="E180" s="32"/>
+      <c r="E180" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="F180" s="19" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="181" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D181" s="33"/>
-      <c r="F181" s="15"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="19" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="182" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D182" s="34"/>
-    </row>
-    <row r="183" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="183" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D183" s="33"/>
+      <c r="F183" s="15"/>
+    </row>
+    <row r="184" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D184" s="34"/>
+    </row>
+    <row r="185" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5273,10 +5351,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="28" max="34" man="1"/>
-    <brk id="74" max="34" man="1"/>
-    <brk id="110" max="34" man="1"/>
-    <brk id="148" max="34" man="1"/>
+    <brk id="30" max="34" man="1"/>
+    <brk id="76" max="34" man="1"/>
+    <brk id="112" max="34" man="1"/>
+    <brk id="150" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C2A0F4-FFAA-4E46-BE94-321D94BFF7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D98CC5-D812-4C56-9611-54A900B6C329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="6.1.メッセージ仕向け" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$184</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$183</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -916,16 +916,6 @@
     <t>取引が成立していれば、取消し電文を送信後、最初から処理を再実行する。</t>
   </si>
   <si>
-    <t>PJ固有の要件</t>
-    <rPh sb="2" eb="4">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>業務処理から要求データ（JavaBean形式）をJAX-RS実装APIに引き渡す。</t>
   </si>
   <si>
@@ -1270,10 +1260,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(1)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>性能対策</t>
     <rPh sb="0" eb="2">
       <t>セイノウ</t>
@@ -1284,10 +1270,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザからの要求に対して、APIによる照会処理を並列実行し、レスポンスを待ち合わせて処理結果を画面に表示する。</t>
     <rPh sb="6" eb="8">
       <t>ヨウキュウ</t>
@@ -1447,6 +1429,14 @@
     <rPh sb="36" eb="38">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(7)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1959,13 +1949,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>60615</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>30308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2343,7 +2333,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI185"/>
+  <dimension ref="A1:AI184"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2375,7 +2365,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S1" s="42"/>
       <c r="T1" s="42"/>
@@ -2622,7 +2612,7 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
@@ -2912,7 +2902,7 @@
     <row r="29" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="15"/>
       <c r="E29" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -3127,7 +3117,7 @@
       <c r="J63" s="17"/>
       <c r="K63" s="18"/>
       <c r="L63" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
@@ -3158,7 +3148,7 @@
       <c r="J64" s="21"/>
       <c r="K64" s="22"/>
       <c r="L64" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M64" s="21"/>
       <c r="N64" s="21"/>
@@ -3189,7 +3179,7 @@
       <c r="J65" s="24"/>
       <c r="K65" s="25"/>
       <c r="L65" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="24"/>
@@ -3223,7 +3213,7 @@
       <c r="J66" s="17"/>
       <c r="K66" s="18"/>
       <c r="L66" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
@@ -3253,7 +3243,7 @@
       <c r="J67" s="24"/>
       <c r="K67" s="25"/>
       <c r="L67" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="24"/>
@@ -3411,7 +3401,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
       <c r="L72" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
@@ -3441,7 +3431,7 @@
       <c r="J73" s="24"/>
       <c r="K73" s="25"/>
       <c r="L73" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="24"/>
@@ -3475,7 +3465,7 @@
       <c r="J74" s="17"/>
       <c r="K74" s="18"/>
       <c r="L74" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
@@ -3505,7 +3495,7 @@
       <c r="J75" s="24"/>
       <c r="K75" s="25"/>
       <c r="L75" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M75" s="24"/>
       <c r="N75" s="24"/>
@@ -3552,7 +3542,7 @@
     <row r="80" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="15"/>
       <c r="F80" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3630,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
@@ -3640,7 +3630,7 @@
       <c r="N87" s="17"/>
       <c r="O87" s="18"/>
       <c r="P87" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q87" s="17"/>
       <c r="R87" s="17"/>
@@ -3673,7 +3663,7 @@
       <c r="N88" s="21"/>
       <c r="O88" s="22"/>
       <c r="P88" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q88" s="21"/>
       <c r="R88" s="21"/>
@@ -3706,7 +3696,7 @@
       <c r="N89" s="24"/>
       <c r="O89" s="25"/>
       <c r="P89" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q89" s="24"/>
       <c r="R89" s="24"/>
@@ -3809,7 +3799,7 @@
       <c r="N92" s="24"/>
       <c r="O92" s="25"/>
       <c r="P92" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q92" s="24"/>
       <c r="R92" s="24"/>
@@ -3912,7 +3902,7 @@
       <c r="N95" s="21"/>
       <c r="O95" s="22"/>
       <c r="P95" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q95" s="21"/>
       <c r="R95" s="21"/>
@@ -3945,7 +3935,7 @@
       <c r="N96" s="24"/>
       <c r="O96" s="25"/>
       <c r="P96" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q96" s="24"/>
       <c r="R96" s="24"/>
@@ -3973,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
@@ -3983,7 +3973,7 @@
       <c r="N97" s="17"/>
       <c r="O97" s="18"/>
       <c r="P97" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q97" s="17"/>
       <c r="R97" s="17"/>
@@ -4050,7 +4040,7 @@
       <c r="N99" s="21"/>
       <c r="O99" s="22"/>
       <c r="P99" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q99" s="21"/>
       <c r="R99" s="21"/>
@@ -4083,7 +4073,7 @@
       <c r="N100" s="24"/>
       <c r="O100" s="25"/>
       <c r="P100" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q100" s="24"/>
       <c r="R100" s="24"/>
@@ -4110,7 +4100,7 @@
         <v>5</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
@@ -4145,7 +4135,7 @@
       <c r="D102" s="15"/>
       <c r="G102" s="30"/>
       <c r="H102" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
@@ -4188,7 +4178,7 @@
       <c r="N103" s="21"/>
       <c r="O103" s="22"/>
       <c r="P103" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q103" s="21"/>
       <c r="R103" s="21"/>
@@ -4221,7 +4211,7 @@
       <c r="N104" s="24"/>
       <c r="O104" s="25"/>
       <c r="P104" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q104" s="24"/>
       <c r="R104" s="24"/>
@@ -4324,7 +4314,7 @@
       <c r="N107" s="24"/>
       <c r="O107" s="25"/>
       <c r="P107" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q107" s="24"/>
       <c r="R107" s="24"/>
@@ -4351,7 +4341,7 @@
         <v>7</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
@@ -4386,7 +4376,7 @@
       <c r="D109" s="15"/>
       <c r="G109" s="30"/>
       <c r="H109" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I109" s="21"/>
       <c r="J109" s="21"/>
@@ -4429,7 +4419,7 @@
       <c r="N110" s="21"/>
       <c r="O110" s="22"/>
       <c r="P110" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q110" s="21"/>
       <c r="R110" s="21"/>
@@ -4462,7 +4452,7 @@
       <c r="N111" s="24"/>
       <c r="O111" s="25"/>
       <c r="P111" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q111" s="24"/>
       <c r="R111" s="24"/>
@@ -4576,7 +4566,7 @@
       <c r="N120" s="17"/>
       <c r="O120" s="18"/>
       <c r="P120" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q120" s="17"/>
       <c r="R120" s="17"/>
@@ -4749,7 +4739,7 @@
       <c r="N125" s="21"/>
       <c r="O125" s="22"/>
       <c r="P125" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q125" s="21"/>
       <c r="R125" s="21"/>
@@ -4782,7 +4772,7 @@
       <c r="N126" s="24"/>
       <c r="O126" s="25"/>
       <c r="P126" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q126" s="24"/>
       <c r="R126" s="24"/>
@@ -5157,7 +5147,7 @@
       <c r="D144" s="15"/>
       <c r="F144" s="15"/>
       <c r="G144" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5166,10 +5156,10 @@
     <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D146" s="15"/>
       <c r="E146" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F146" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="F146" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5179,53 +5169,47 @@
         <v>(5).1.</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D148" s="15"/>
       <c r="G148" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D149" s="15"/>
       <c r="G149" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D150" s="15"/>
     </row>
     <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="15" t="str">
-        <f>$C$7&amp;"4."</f>
-        <v>6.1.4.</v>
-      </c>
-      <c r="E151" s="19" t="s">
-        <v>97</v>
+      <c r="D151" s="33"/>
+      <c r="E151" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F151" s="19" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="33"/>
-      <c r="E152" s="32" t="s">
-        <v>129</v>
-      </c>
+      <c r="D152" s="34"/>
       <c r="F152" s="19" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D153" s="34"/>
       <c r="F153" s="19" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D154" s="34"/>
-      <c r="F154" s="19" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="155" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D155" s="34"/>
@@ -5300,39 +5284,36 @@
       <c r="D178" s="34"/>
     </row>
     <row r="179" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D179" s="34"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F179" s="19" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="180" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D180" s="33"/>
-      <c r="E180" s="32" t="s">
-        <v>131</v>
-      </c>
+      <c r="E180" s="32"/>
       <c r="F180" s="19" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="181" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D181" s="33"/>
       <c r="E181" s="32"/>
       <c r="F181" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="182" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D182" s="33"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F182" s="15"/>
     </row>
     <row r="183" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D183" s="33"/>
-      <c r="F183" s="15"/>
-    </row>
-    <row r="184" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D184" s="34"/>
-    </row>
-    <row r="185" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D183" s="34"/>
+    </row>
+    <row r="184" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5350,11 +5331,10 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="4" manualBreakCount="4">
+  <rowBreaks count="3" manualBreakCount="3">
     <brk id="30" max="34" man="1"/>
     <brk id="76" max="34" man="1"/>
     <brk id="112" max="34" man="1"/>
-    <brk id="150" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D98CC5-D812-4C56-9611-54A900B6C329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104ED3A8-D5F5-485D-80C2-FE0F0490F28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="6.1.メッセージ仕向け" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -1139,49 +1139,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>API呼出の性能要件を満たすために、一部接続先システムに対して、複数のREST通信をマルチスレッドで取得可能な方式とする。</t>
-    <rPh sb="3" eb="5">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(5)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1260,56 +1217,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>性能対策</t>
-    <rPh sb="0" eb="2">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザからの要求に対して、APIによる照会処理を並列実行し、レスポンスを待ち合わせて処理結果を画面に表示する。</t>
-    <rPh sb="6" eb="8">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘイレツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>接続先システム側のWEBサービスの仕様は、接続先システムのインタフェース仕様書から確認する。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1433,10 +1340,6 @@
   </si>
   <si>
     <t>(6)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(7)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1941,67 +1844,6 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>60615</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>123</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>30308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1723160" y="23803964"/>
-          <a:ext cx="4736522" cy="3415889"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2333,7 +2175,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI184"/>
+  <dimension ref="A1:AI156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2612,7 +2454,7 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
@@ -2902,7 +2744,7 @@
     <row r="29" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="15"/>
       <c r="E29" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -3542,7 +3384,7 @@
     <row r="80" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="15"/>
       <c r="F80" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3696,7 +3538,7 @@
       <c r="N89" s="24"/>
       <c r="O89" s="25"/>
       <c r="P89" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q89" s="24"/>
       <c r="R89" s="24"/>
@@ -3799,7 +3641,7 @@
       <c r="N92" s="24"/>
       <c r="O92" s="25"/>
       <c r="P92" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q92" s="24"/>
       <c r="R92" s="24"/>
@@ -4314,7 +4156,7 @@
       <c r="N107" s="24"/>
       <c r="O107" s="25"/>
       <c r="P107" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q107" s="24"/>
       <c r="R107" s="24"/>
@@ -4566,7 +4408,7 @@
       <c r="N120" s="17"/>
       <c r="O120" s="18"/>
       <c r="P120" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q120" s="17"/>
       <c r="R120" s="17"/>
@@ -5147,7 +4989,7 @@
       <c r="D144" s="15"/>
       <c r="F144" s="15"/>
       <c r="G144" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5156,10 +4998,10 @@
     <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D146" s="15"/>
       <c r="E146" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F146" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="F146" s="19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5169,19 +5011,19 @@
         <v>(5).1.</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D148" s="15"/>
       <c r="G148" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D149" s="15"/>
       <c r="G149" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5190,130 +5032,34 @@
     <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D151" s="33"/>
       <c r="E151" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="34"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="32"/>
       <c r="F152" s="19" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="34"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="32"/>
       <c r="F153" s="19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="34"/>
+      <c r="D154" s="33"/>
+      <c r="F154" s="15"/>
     </row>
     <row r="155" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D155" s="34"/>
     </row>
-    <row r="156" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D156" s="34"/>
-    </row>
-    <row r="157" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D157" s="34"/>
-    </row>
-    <row r="158" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D158" s="34"/>
-    </row>
-    <row r="159" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D159" s="34"/>
-    </row>
-    <row r="160" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D160" s="34"/>
-    </row>
-    <row r="161" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D161" s="34"/>
-    </row>
-    <row r="162" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D162" s="34"/>
-    </row>
-    <row r="163" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D163" s="34"/>
-    </row>
-    <row r="164" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D164" s="34"/>
-    </row>
-    <row r="165" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D165" s="34"/>
-    </row>
-    <row r="166" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D166" s="34"/>
-    </row>
-    <row r="167" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D167" s="34"/>
-    </row>
-    <row r="168" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D168" s="34"/>
-    </row>
-    <row r="169" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D169" s="34"/>
-    </row>
-    <row r="170" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D170" s="34"/>
-    </row>
-    <row r="171" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D171" s="34"/>
-    </row>
-    <row r="172" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D172" s="34"/>
-    </row>
-    <row r="173" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D173" s="34"/>
-    </row>
-    <row r="174" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D174" s="34"/>
-    </row>
-    <row r="175" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D175" s="34"/>
-    </row>
-    <row r="176" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D176" s="34"/>
-    </row>
-    <row r="177" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D177" s="34"/>
-    </row>
-    <row r="178" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D178" s="34"/>
-    </row>
-    <row r="179" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D179" s="33"/>
-      <c r="E179" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="F179" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="180" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D180" s="33"/>
-      <c r="E180" s="32"/>
-      <c r="F180" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="181" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D181" s="33"/>
-      <c r="E181" s="32"/>
-      <c r="F181" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="182" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D182" s="33"/>
-      <c r="F182" s="15"/>
-    </row>
-    <row r="183" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D183" s="34"/>
-    </row>
-    <row r="184" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F5BB36-99FB-4937-AAF0-A8C8B9BB4089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104ED3A8-D5F5-485D-80C2-FE0F0490F28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="6.1.メッセージ仕向け" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$182</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -916,16 +916,6 @@
     <t>取引が成立していれば、取消し電文を送信後、最初から処理を再実行する。</t>
   </si>
   <si>
-    <t>PJ固有の要件</t>
-    <rPh sb="2" eb="4">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>業務処理から要求データ（JavaBean形式）をJAX-RS実装APIに引き渡す。</t>
   </si>
   <si>
@@ -1149,49 +1139,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>API呼出の性能要件を満たすために、一部接続先システムに対して、複数のREST通信をマルチスレッドで取得可能な方式とする。</t>
-    <rPh sb="3" eb="5">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(5)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1270,64 +1217,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(1)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>性能対策</t>
-    <rPh sb="0" eb="2">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザからの要求に対して、APIによる照会処理を並列実行し、レスポンスを待ち合わせて処理結果を画面に表示する。</t>
-    <rPh sb="6" eb="8">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘイレツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>接続先システム側のWEBサービスの仕様は、接続先システムのインタフェース仕様書から確認する。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1431,6 +1320,26 @@
     <rPh sb="52" eb="53">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※JAX-RSの実装としては参照実装であるEclipse Jerseyを使用する。</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(6)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1888,13 +1797,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1935,67 +1844,6 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>60615</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>123</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>30308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1723160" y="23803964"/>
-          <a:ext cx="4736522" cy="3415889"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2327,7 +2175,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI183"/>
+  <dimension ref="A1:AI156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2359,7 +2207,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S1" s="42"/>
       <c r="T1" s="42"/>
@@ -2606,7 +2454,7 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
@@ -2865,34 +2713,88 @@
     </row>
     <row r="28" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
     </row>
     <row r="29" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="15"/>
-      <c r="D29" s="15" t="str">
+      <c r="E29" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+    </row>
+    <row r="30" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.1.3.</v>
       </c>
-      <c r="E29" s="19" t="str">
+      <c r="E31" s="19" t="str">
         <f>D7&amp;"機能詳細"</f>
         <v>メッセージ仕向け（HTTP/HTTPS）機能詳細</v>
       </c>
     </row>
-    <row r="30" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="15"/>
-      <c r="E30" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="15"/>
-      <c r="E31" s="32"/>
-    </row>
     <row r="32" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="15"/>
-      <c r="E32" s="32"/>
+      <c r="E32" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="15"/>
@@ -2999,175 +2901,119 @@
       <c r="E58" s="32"/>
     </row>
     <row r="59" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="15"/>
-      <c r="F60" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="27"/>
-      <c r="AE60" s="28"/>
+      <c r="C60" s="15"/>
+      <c r="E60" s="32"/>
     </row>
     <row r="61" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="15"/>
-      <c r="F61" s="16">
-        <v>1</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="17"/>
-      <c r="Z61" s="17"/>
-      <c r="AA61" s="17"/>
-      <c r="AB61" s="17"/>
-      <c r="AC61" s="17"/>
-      <c r="AD61" s="17"/>
-      <c r="AE61" s="18"/>
+      <c r="D61" s="15"/>
     </row>
     <row r="62" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
-      <c r="AA62" s="21"/>
-      <c r="AB62" s="21"/>
-      <c r="AC62" s="21"/>
-      <c r="AD62" s="21"/>
-      <c r="AE62" s="22"/>
+      <c r="F62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="27"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="27"/>
+      <c r="AE62" s="28"/>
     </row>
     <row r="63" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
-      <c r="AA63" s="24"/>
-      <c r="AB63" s="24"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="24"/>
-      <c r="AE63" s="25"/>
+      <c r="F63" s="16">
+        <v>1</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="17"/>
+      <c r="AC63" s="17"/>
+      <c r="AD63" s="17"/>
+      <c r="AE63" s="18"/>
     </row>
     <row r="64" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F64" s="16">
-        <v>2</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="17"/>
-      <c r="AB64" s="17"/>
-      <c r="AC64" s="17"/>
-      <c r="AD64" s="17"/>
-      <c r="AE64" s="18"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="21"/>
+      <c r="AD64" s="21"/>
+      <c r="AE64" s="22"/>
     </row>
     <row r="65" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="15"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="24"/>
@@ -3175,7 +3021,7 @@
       <c r="J65" s="24"/>
       <c r="K65" s="25"/>
       <c r="L65" s="23" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="24"/>
@@ -3199,17 +3045,17 @@
     </row>
     <row r="66" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
       <c r="K66" s="18"/>
       <c r="L66" s="16" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
@@ -3238,7 +3084,9 @@
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="23"/>
+      <c r="L67" s="23" t="s">
+        <v>105</v>
+      </c>
       <c r="M67" s="24"/>
       <c r="N67" s="24"/>
       <c r="O67" s="24"/>
@@ -3261,17 +3109,17 @@
     </row>
     <row r="68" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
       <c r="K68" s="18"/>
       <c r="L68" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
@@ -3323,17 +3171,17 @@
     </row>
     <row r="70" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="18"/>
       <c r="L70" s="16" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
@@ -3362,9 +3210,7 @@
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
       <c r="K71" s="25"/>
-      <c r="L71" s="23" t="s">
-        <v>102</v>
-      </c>
+      <c r="L71" s="23"/>
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
       <c r="O71" s="24"/>
@@ -3387,17 +3233,17 @@
     </row>
     <row r="72" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F72" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
       <c r="L72" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
@@ -3427,7 +3273,7 @@
       <c r="J73" s="24"/>
       <c r="K73" s="25"/>
       <c r="L73" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="24"/>
@@ -3449,1812 +3295,1771 @@
       <c r="AD73" s="24"/>
       <c r="AE73" s="25"/>
     </row>
-    <row r="74" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="16">
+        <v>6</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="18"/>
+    </row>
     <row r="75" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D75" s="15"/>
-      <c r="E75" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D76" s="15"/>
-      <c r="F76" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="24"/>
+      <c r="V75" s="24"/>
+      <c r="W75" s="24"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="24"/>
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="24"/>
+      <c r="AE75" s="25"/>
+    </row>
+    <row r="76" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="15"/>
+      <c r="E77" s="32" t="s">
+        <v>58</v>
+      </c>
       <c r="F77" s="19" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="15"/>
       <c r="F78" s="19" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="15"/>
+      <c r="F79" s="19" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="80" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="15"/>
-      <c r="E80" s="32" t="s">
-        <v>59</v>
-      </c>
       <c r="F80" s="19" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="15"/>
-      <c r="F81" s="14" t="str">
-        <f>$E$80&amp;".1."</f>
-        <v>(3).1.</v>
-      </c>
-      <c r="G81" s="19" t="str">
-        <f>$F$80&amp;"内容"</f>
-        <v>エラー処理内容</v>
-      </c>
     </row>
     <row r="82" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="15"/>
-      <c r="G82" s="19" t="s">
-        <v>33</v>
+      <c r="E82" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="15"/>
+      <c r="F83" s="14" t="str">
+        <f>$E$82&amp;".1."</f>
+        <v>(3).1.</v>
+      </c>
+      <c r="G83" s="19" t="str">
+        <f>$F$82&amp;"内容"</f>
+        <v>エラー処理内容</v>
+      </c>
     </row>
     <row r="84" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="15"/>
-      <c r="G84" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="27"/>
-      <c r="W84" s="27"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="27"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="27"/>
-      <c r="AE84" s="27"/>
-      <c r="AF84" s="27"/>
-      <c r="AG84" s="27"/>
-      <c r="AH84" s="28"/>
+      <c r="G84" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="85" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="15"/>
-      <c r="G85" s="29">
-        <v>1</v>
-      </c>
-      <c r="H85" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="17"/>
-      <c r="X85" s="17"/>
-      <c r="Y85" s="17"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="17"/>
-      <c r="AB85" s="17"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="17"/>
-      <c r="AE85" s="17"/>
-      <c r="AF85" s="17"/>
-      <c r="AG85" s="17"/>
-      <c r="AH85" s="18"/>
     </row>
     <row r="86" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D86" s="15"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
-      <c r="U86" s="21"/>
-      <c r="V86" s="21"/>
-      <c r="W86" s="21"/>
-      <c r="X86" s="21"/>
-      <c r="Y86" s="21"/>
-      <c r="Z86" s="21"/>
-      <c r="AA86" s="21"/>
-      <c r="AB86" s="21"/>
-      <c r="AC86" s="21"/>
-      <c r="AD86" s="21"/>
-      <c r="AE86" s="21"/>
-      <c r="AF86" s="21"/>
-      <c r="AG86" s="21"/>
-      <c r="AH86" s="22"/>
+      <c r="G86" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="27"/>
+      <c r="S86" s="27"/>
+      <c r="T86" s="27"/>
+      <c r="U86" s="27"/>
+      <c r="V86" s="27"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="27"/>
+      <c r="AF86" s="27"/>
+      <c r="AG86" s="27"/>
+      <c r="AH86" s="28"/>
     </row>
     <row r="87" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="15"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="24"/>
-      <c r="T87" s="24"/>
-      <c r="U87" s="24"/>
-      <c r="V87" s="24"/>
-      <c r="W87" s="24"/>
-      <c r="X87" s="24"/>
-      <c r="Y87" s="24"/>
-      <c r="Z87" s="24"/>
-      <c r="AA87" s="24"/>
-      <c r="AB87" s="24"/>
-      <c r="AC87" s="24"/>
-      <c r="AD87" s="24"/>
-      <c r="AE87" s="24"/>
-      <c r="AF87" s="24"/>
-      <c r="AG87" s="24"/>
-      <c r="AH87" s="25"/>
+      <c r="G87" s="29">
+        <v>1</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="17"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="17"/>
+      <c r="X87" s="17"/>
+      <c r="Y87" s="17"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="17"/>
+      <c r="AB87" s="17"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="17"/>
+      <c r="AE87" s="17"/>
+      <c r="AF87" s="17"/>
+      <c r="AG87" s="17"/>
+      <c r="AH87" s="18"/>
     </row>
     <row r="88" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D88" s="15"/>
-      <c r="G88" s="29">
-        <v>2</v>
-      </c>
-      <c r="H88" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="17"/>
-      <c r="T88" s="17"/>
-      <c r="U88" s="17"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="17"/>
-      <c r="X88" s="17"/>
-      <c r="Y88" s="17"/>
-      <c r="Z88" s="17"/>
-      <c r="AA88" s="17"/>
-      <c r="AB88" s="17"/>
-      <c r="AC88" s="17"/>
-      <c r="AD88" s="17"/>
-      <c r="AE88" s="17"/>
-      <c r="AF88" s="17"/>
-      <c r="AG88" s="17"/>
-      <c r="AH88" s="18"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="21"/>
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="21"/>
+      <c r="AC88" s="21"/>
+      <c r="AD88" s="21"/>
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="21"/>
+      <c r="AH88" s="22"/>
     </row>
     <row r="89" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D89" s="15"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
-      <c r="U89" s="21"/>
-      <c r="V89" s="21"/>
-      <c r="W89" s="21"/>
-      <c r="X89" s="21"/>
-      <c r="Y89" s="21"/>
-      <c r="Z89" s="21"/>
-      <c r="AA89" s="21"/>
-      <c r="AB89" s="21"/>
-      <c r="AC89" s="21"/>
-      <c r="AD89" s="21"/>
-      <c r="AE89" s="21"/>
-      <c r="AF89" s="21"/>
-      <c r="AG89" s="21"/>
-      <c r="AH89" s="22"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="24"/>
+      <c r="U89" s="24"/>
+      <c r="V89" s="24"/>
+      <c r="W89" s="24"/>
+      <c r="X89" s="24"/>
+      <c r="Y89" s="24"/>
+      <c r="Z89" s="24"/>
+      <c r="AA89" s="24"/>
+      <c r="AB89" s="24"/>
+      <c r="AC89" s="24"/>
+      <c r="AD89" s="24"/>
+      <c r="AE89" s="24"/>
+      <c r="AF89" s="24"/>
+      <c r="AG89" s="24"/>
+      <c r="AH89" s="25"/>
     </row>
     <row r="90" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D90" s="15"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="25"/>
-      <c r="P90" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
-      <c r="T90" s="24"/>
-      <c r="U90" s="24"/>
-      <c r="V90" s="24"/>
-      <c r="W90" s="24"/>
-      <c r="X90" s="24"/>
-      <c r="Y90" s="24"/>
-      <c r="Z90" s="24"/>
-      <c r="AA90" s="24"/>
-      <c r="AB90" s="24"/>
-      <c r="AC90" s="24"/>
-      <c r="AD90" s="24"/>
-      <c r="AE90" s="24"/>
-      <c r="AF90" s="24"/>
-      <c r="AG90" s="24"/>
-      <c r="AH90" s="25"/>
+      <c r="G90" s="29">
+        <v>2</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="17"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="17"/>
+      <c r="AB90" s="17"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="17"/>
+      <c r="AE90" s="17"/>
+      <c r="AF90" s="17"/>
+      <c r="AG90" s="17"/>
+      <c r="AH90" s="18"/>
     </row>
     <row r="91" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D91" s="15"/>
-      <c r="G91" s="29">
-        <v>3</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
-      <c r="X91" s="17"/>
-      <c r="Y91" s="17"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="17"/>
-      <c r="AB91" s="17"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="17"/>
-      <c r="AE91" s="17"/>
-      <c r="AF91" s="17"/>
-      <c r="AG91" s="17"/>
-      <c r="AH91" s="18"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="21"/>
+      <c r="Y91" s="21"/>
+      <c r="Z91" s="21"/>
+      <c r="AA91" s="21"/>
+      <c r="AB91" s="21"/>
+      <c r="AC91" s="21"/>
+      <c r="AD91" s="21"/>
+      <c r="AE91" s="21"/>
+      <c r="AF91" s="21"/>
+      <c r="AG91" s="21"/>
+      <c r="AH91" s="22"/>
     </row>
     <row r="92" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D92" s="15"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="21"/>
-      <c r="W92" s="21"/>
-      <c r="X92" s="21"/>
-      <c r="Y92" s="21"/>
-      <c r="Z92" s="21"/>
-      <c r="AA92" s="21"/>
-      <c r="AB92" s="21"/>
-      <c r="AC92" s="21"/>
-      <c r="AD92" s="21"/>
-      <c r="AE92" s="21"/>
-      <c r="AF92" s="21"/>
-      <c r="AG92" s="21"/>
-      <c r="AH92" s="22"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="24"/>
+      <c r="S92" s="24"/>
+      <c r="T92" s="24"/>
+      <c r="U92" s="24"/>
+      <c r="V92" s="24"/>
+      <c r="W92" s="24"/>
+      <c r="X92" s="24"/>
+      <c r="Y92" s="24"/>
+      <c r="Z92" s="24"/>
+      <c r="AA92" s="24"/>
+      <c r="AB92" s="24"/>
+      <c r="AC92" s="24"/>
+      <c r="AD92" s="24"/>
+      <c r="AE92" s="24"/>
+      <c r="AF92" s="24"/>
+      <c r="AG92" s="24"/>
+      <c r="AH92" s="25"/>
     </row>
     <row r="93" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="15"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q93" s="21"/>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
-      <c r="U93" s="21"/>
-      <c r="V93" s="21"/>
-      <c r="W93" s="21"/>
-      <c r="X93" s="21"/>
-      <c r="Y93" s="21"/>
-      <c r="Z93" s="21"/>
-      <c r="AA93" s="21"/>
-      <c r="AB93" s="21"/>
-      <c r="AC93" s="21"/>
-      <c r="AD93" s="21"/>
-      <c r="AE93" s="21"/>
-      <c r="AF93" s="21"/>
-      <c r="AG93" s="21"/>
-      <c r="AH93" s="22"/>
+      <c r="G93" s="29">
+        <v>3</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="17"/>
+      <c r="X93" s="17"/>
+      <c r="Y93" s="17"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="17"/>
+      <c r="AB93" s="17"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="17"/>
+      <c r="AE93" s="17"/>
+      <c r="AF93" s="17"/>
+      <c r="AG93" s="17"/>
+      <c r="AH93" s="18"/>
     </row>
     <row r="94" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D94" s="15"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="25"/>
-      <c r="P94" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="S94" s="24"/>
-      <c r="T94" s="24"/>
-      <c r="U94" s="24"/>
-      <c r="V94" s="24"/>
-      <c r="W94" s="24"/>
-      <c r="X94" s="24"/>
-      <c r="Y94" s="24"/>
-      <c r="Z94" s="24"/>
-      <c r="AA94" s="24"/>
-      <c r="AB94" s="24"/>
-      <c r="AC94" s="24"/>
-      <c r="AD94" s="24"/>
-      <c r="AE94" s="24"/>
-      <c r="AF94" s="24"/>
-      <c r="AG94" s="24"/>
-      <c r="AH94" s="25"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="21"/>
+      <c r="X94" s="21"/>
+      <c r="Y94" s="21"/>
+      <c r="Z94" s="21"/>
+      <c r="AA94" s="21"/>
+      <c r="AB94" s="21"/>
+      <c r="AC94" s="21"/>
+      <c r="AD94" s="21"/>
+      <c r="AE94" s="21"/>
+      <c r="AF94" s="21"/>
+      <c r="AG94" s="21"/>
+      <c r="AH94" s="22"/>
     </row>
     <row r="95" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="G95" s="29">
-        <v>4</v>
-      </c>
-      <c r="H95" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="17"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="17"/>
-      <c r="X95" s="17"/>
-      <c r="Y95" s="17"/>
-      <c r="Z95" s="17"/>
-      <c r="AA95" s="17"/>
-      <c r="AB95" s="17"/>
-      <c r="AC95" s="17"/>
-      <c r="AD95" s="17"/>
-      <c r="AE95" s="17"/>
-      <c r="AF95" s="17"/>
-      <c r="AG95" s="17"/>
-      <c r="AH95" s="18"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="21"/>
+      <c r="T95" s="21"/>
+      <c r="U95" s="21"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="21"/>
+      <c r="X95" s="21"/>
+      <c r="Y95" s="21"/>
+      <c r="Z95" s="21"/>
+      <c r="AA95" s="21"/>
+      <c r="AB95" s="21"/>
+      <c r="AC95" s="21"/>
+      <c r="AD95" s="21"/>
+      <c r="AE95" s="21"/>
+      <c r="AF95" s="21"/>
+      <c r="AG95" s="21"/>
+      <c r="AH95" s="22"/>
     </row>
     <row r="96" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q96" s="21"/>
-      <c r="R96" s="21"/>
-      <c r="S96" s="21"/>
-      <c r="T96" s="21"/>
-      <c r="U96" s="21"/>
-      <c r="V96" s="21"/>
-      <c r="W96" s="21"/>
-      <c r="X96" s="21"/>
-      <c r="Y96" s="21"/>
-      <c r="Z96" s="21"/>
-      <c r="AA96" s="21"/>
-      <c r="AB96" s="21"/>
-      <c r="AC96" s="21"/>
-      <c r="AD96" s="21"/>
-      <c r="AE96" s="21"/>
-      <c r="AF96" s="21"/>
-      <c r="AG96" s="21"/>
-      <c r="AH96" s="22"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="24"/>
+      <c r="S96" s="24"/>
+      <c r="T96" s="24"/>
+      <c r="U96" s="24"/>
+      <c r="V96" s="24"/>
+      <c r="W96" s="24"/>
+      <c r="X96" s="24"/>
+      <c r="Y96" s="24"/>
+      <c r="Z96" s="24"/>
+      <c r="AA96" s="24"/>
+      <c r="AB96" s="24"/>
+      <c r="AC96" s="24"/>
+      <c r="AD96" s="24"/>
+      <c r="AE96" s="24"/>
+      <c r="AF96" s="24"/>
+      <c r="AG96" s="24"/>
+      <c r="AH96" s="25"/>
     </row>
     <row r="97" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D97" s="15"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q97" s="21"/>
-      <c r="R97" s="21"/>
-      <c r="S97" s="21"/>
-      <c r="T97" s="21"/>
-      <c r="U97" s="21"/>
-      <c r="V97" s="21"/>
-      <c r="W97" s="21"/>
-      <c r="X97" s="21"/>
-      <c r="Y97" s="21"/>
-      <c r="Z97" s="21"/>
-      <c r="AA97" s="21"/>
-      <c r="AB97" s="21"/>
-      <c r="AC97" s="21"/>
-      <c r="AD97" s="21"/>
-      <c r="AE97" s="21"/>
-      <c r="AF97" s="21"/>
-      <c r="AG97" s="21"/>
-      <c r="AH97" s="22"/>
+      <c r="E97" s="15"/>
+      <c r="G97" s="29">
+        <v>4</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="17"/>
+      <c r="AB97" s="17"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="17"/>
+      <c r="AE97" s="17"/>
+      <c r="AF97" s="17"/>
+      <c r="AG97" s="17"/>
+      <c r="AH97" s="18"/>
     </row>
     <row r="98" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D98" s="15"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="25"/>
-      <c r="P98" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
-      <c r="T98" s="24"/>
-      <c r="U98" s="24"/>
-      <c r="V98" s="24"/>
-      <c r="W98" s="24"/>
-      <c r="X98" s="24"/>
-      <c r="Y98" s="24"/>
-      <c r="Z98" s="24"/>
-      <c r="AA98" s="24"/>
-      <c r="AB98" s="24"/>
-      <c r="AC98" s="24"/>
-      <c r="AD98" s="24"/>
-      <c r="AE98" s="24"/>
-      <c r="AF98" s="24"/>
-      <c r="AG98" s="24"/>
-      <c r="AH98" s="25"/>
+      <c r="E98" s="15"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q98" s="21"/>
+      <c r="R98" s="21"/>
+      <c r="S98" s="21"/>
+      <c r="T98" s="21"/>
+      <c r="U98" s="21"/>
+      <c r="V98" s="21"/>
+      <c r="W98" s="21"/>
+      <c r="X98" s="21"/>
+      <c r="Y98" s="21"/>
+      <c r="Z98" s="21"/>
+      <c r="AA98" s="21"/>
+      <c r="AB98" s="21"/>
+      <c r="AC98" s="21"/>
+      <c r="AD98" s="21"/>
+      <c r="AE98" s="21"/>
+      <c r="AF98" s="21"/>
+      <c r="AG98" s="21"/>
+      <c r="AH98" s="22"/>
     </row>
     <row r="99" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D99" s="15"/>
-      <c r="G99" s="29">
-        <v>5</v>
-      </c>
-      <c r="H99" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="17"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="17"/>
-      <c r="X99" s="17"/>
-      <c r="Y99" s="17"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="17"/>
-      <c r="AB99" s="17"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="17"/>
-      <c r="AE99" s="17"/>
-      <c r="AF99" s="17"/>
-      <c r="AG99" s="17"/>
-      <c r="AH99" s="18"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="21"/>
+      <c r="S99" s="21"/>
+      <c r="T99" s="21"/>
+      <c r="U99" s="21"/>
+      <c r="V99" s="21"/>
+      <c r="W99" s="21"/>
+      <c r="X99" s="21"/>
+      <c r="Y99" s="21"/>
+      <c r="Z99" s="21"/>
+      <c r="AA99" s="21"/>
+      <c r="AB99" s="21"/>
+      <c r="AC99" s="21"/>
+      <c r="AD99" s="21"/>
+      <c r="AE99" s="21"/>
+      <c r="AF99" s="21"/>
+      <c r="AG99" s="21"/>
+      <c r="AH99" s="22"/>
     </row>
     <row r="100" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D100" s="15"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I100" s="21"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="21"/>
-      <c r="W100" s="21"/>
-      <c r="X100" s="21"/>
-      <c r="Y100" s="21"/>
-      <c r="Z100" s="21"/>
-      <c r="AA100" s="21"/>
-      <c r="AB100" s="21"/>
-      <c r="AC100" s="21"/>
-      <c r="AD100" s="21"/>
-      <c r="AE100" s="21"/>
-      <c r="AF100" s="21"/>
-      <c r="AG100" s="21"/>
-      <c r="AH100" s="22"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="24"/>
+      <c r="T100" s="24"/>
+      <c r="U100" s="24"/>
+      <c r="V100" s="24"/>
+      <c r="W100" s="24"/>
+      <c r="X100" s="24"/>
+      <c r="Y100" s="24"/>
+      <c r="Z100" s="24"/>
+      <c r="AA100" s="24"/>
+      <c r="AB100" s="24"/>
+      <c r="AC100" s="24"/>
+      <c r="AD100" s="24"/>
+      <c r="AE100" s="24"/>
+      <c r="AF100" s="24"/>
+      <c r="AG100" s="24"/>
+      <c r="AH100" s="25"/>
     </row>
     <row r="101" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D101" s="15"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="21"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="21"/>
-      <c r="Y101" s="21"/>
-      <c r="Z101" s="21"/>
-      <c r="AA101" s="21"/>
-      <c r="AB101" s="21"/>
-      <c r="AC101" s="21"/>
-      <c r="AD101" s="21"/>
-      <c r="AE101" s="21"/>
-      <c r="AF101" s="21"/>
-      <c r="AG101" s="21"/>
-      <c r="AH101" s="22"/>
+      <c r="G101" s="29">
+        <v>5</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="17"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="17"/>
+      <c r="AB101" s="17"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="17"/>
+      <c r="AE101" s="17"/>
+      <c r="AF101" s="17"/>
+      <c r="AG101" s="17"/>
+      <c r="AH101" s="18"/>
     </row>
     <row r="102" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D102" s="15"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="25"/>
-      <c r="P102" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="24"/>
-      <c r="T102" s="24"/>
-      <c r="U102" s="24"/>
-      <c r="V102" s="24"/>
-      <c r="W102" s="24"/>
-      <c r="X102" s="24"/>
-      <c r="Y102" s="24"/>
-      <c r="Z102" s="24"/>
-      <c r="AA102" s="24"/>
-      <c r="AB102" s="24"/>
-      <c r="AC102" s="24"/>
-      <c r="AD102" s="24"/>
-      <c r="AE102" s="24"/>
-      <c r="AF102" s="24"/>
-      <c r="AG102" s="24"/>
-      <c r="AH102" s="25"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="21"/>
+      <c r="Y102" s="21"/>
+      <c r="Z102" s="21"/>
+      <c r="AA102" s="21"/>
+      <c r="AB102" s="21"/>
+      <c r="AC102" s="21"/>
+      <c r="AD102" s="21"/>
+      <c r="AE102" s="21"/>
+      <c r="AF102" s="21"/>
+      <c r="AG102" s="21"/>
+      <c r="AH102" s="22"/>
     </row>
     <row r="103" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D103" s="15"/>
-      <c r="G103" s="29">
-        <v>6</v>
-      </c>
-      <c r="H103" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="17"/>
-      <c r="T103" s="17"/>
-      <c r="U103" s="17"/>
-      <c r="V103" s="17"/>
-      <c r="W103" s="17"/>
-      <c r="X103" s="17"/>
-      <c r="Y103" s="17"/>
-      <c r="Z103" s="17"/>
-      <c r="AA103" s="17"/>
-      <c r="AB103" s="17"/>
-      <c r="AC103" s="17"/>
-      <c r="AD103" s="17"/>
-      <c r="AE103" s="17"/>
-      <c r="AF103" s="17"/>
-      <c r="AG103" s="17"/>
-      <c r="AH103" s="18"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="21"/>
+      <c r="AA103" s="21"/>
+      <c r="AB103" s="21"/>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="21"/>
+      <c r="AE103" s="21"/>
+      <c r="AF103" s="21"/>
+      <c r="AG103" s="21"/>
+      <c r="AH103" s="22"/>
     </row>
     <row r="104" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D104" s="15"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="22"/>
-      <c r="P104" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="21"/>
-      <c r="T104" s="21"/>
-      <c r="U104" s="21"/>
-      <c r="V104" s="21"/>
-      <c r="W104" s="21"/>
-      <c r="X104" s="21"/>
-      <c r="Y104" s="21"/>
-      <c r="Z104" s="21"/>
-      <c r="AA104" s="21"/>
-      <c r="AB104" s="21"/>
-      <c r="AC104" s="21"/>
-      <c r="AD104" s="21"/>
-      <c r="AE104" s="21"/>
-      <c r="AF104" s="21"/>
-      <c r="AG104" s="21"/>
-      <c r="AH104" s="22"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q104" s="24"/>
+      <c r="R104" s="24"/>
+      <c r="S104" s="24"/>
+      <c r="T104" s="24"/>
+      <c r="U104" s="24"/>
+      <c r="V104" s="24"/>
+      <c r="W104" s="24"/>
+      <c r="X104" s="24"/>
+      <c r="Y104" s="24"/>
+      <c r="Z104" s="24"/>
+      <c r="AA104" s="24"/>
+      <c r="AB104" s="24"/>
+      <c r="AC104" s="24"/>
+      <c r="AD104" s="24"/>
+      <c r="AE104" s="24"/>
+      <c r="AF104" s="24"/>
+      <c r="AG104" s="24"/>
+      <c r="AH104" s="25"/>
     </row>
     <row r="105" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D105" s="15"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="24"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="24"/>
-      <c r="N105" s="24"/>
-      <c r="O105" s="25"/>
-      <c r="P105" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q105" s="24"/>
-      <c r="R105" s="24"/>
-      <c r="S105" s="24"/>
-      <c r="T105" s="24"/>
-      <c r="U105" s="24"/>
-      <c r="V105" s="24"/>
-      <c r="W105" s="24"/>
-      <c r="X105" s="24"/>
-      <c r="Y105" s="24"/>
-      <c r="Z105" s="24"/>
-      <c r="AA105" s="24"/>
-      <c r="AB105" s="24"/>
-      <c r="AC105" s="24"/>
-      <c r="AD105" s="24"/>
-      <c r="AE105" s="24"/>
-      <c r="AF105" s="24"/>
-      <c r="AG105" s="24"/>
-      <c r="AH105" s="25"/>
+      <c r="G105" s="29">
+        <v>6</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="17"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="17"/>
+      <c r="X105" s="17"/>
+      <c r="Y105" s="17"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="17"/>
+      <c r="AB105" s="17"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="17"/>
+      <c r="AE105" s="17"/>
+      <c r="AF105" s="17"/>
+      <c r="AG105" s="17"/>
+      <c r="AH105" s="18"/>
     </row>
     <row r="106" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D106" s="15"/>
-      <c r="G106" s="29">
-        <v>7</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="18"/>
-      <c r="P106" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q106" s="17"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="17"/>
-      <c r="T106" s="17"/>
-      <c r="U106" s="17"/>
-      <c r="V106" s="17"/>
-      <c r="W106" s="17"/>
-      <c r="X106" s="17"/>
-      <c r="Y106" s="17"/>
-      <c r="Z106" s="17"/>
-      <c r="AA106" s="17"/>
-      <c r="AB106" s="17"/>
-      <c r="AC106" s="17"/>
-      <c r="AD106" s="17"/>
-      <c r="AE106" s="17"/>
-      <c r="AF106" s="17"/>
-      <c r="AG106" s="17"/>
-      <c r="AH106" s="18"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="21"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="21"/>
+      <c r="X106" s="21"/>
+      <c r="Y106" s="21"/>
+      <c r="Z106" s="21"/>
+      <c r="AA106" s="21"/>
+      <c r="AB106" s="21"/>
+      <c r="AC106" s="21"/>
+      <c r="AD106" s="21"/>
+      <c r="AE106" s="21"/>
+      <c r="AF106" s="21"/>
+      <c r="AG106" s="21"/>
+      <c r="AH106" s="22"/>
     </row>
     <row r="107" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="15"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="I107" s="21"/>
-      <c r="J107" s="21"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="21"/>
-      <c r="M107" s="21"/>
-      <c r="N107" s="21"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q107" s="21"/>
-      <c r="R107" s="21"/>
-      <c r="S107" s="21"/>
-      <c r="T107" s="21"/>
-      <c r="U107" s="21"/>
-      <c r="V107" s="21"/>
-      <c r="W107" s="21"/>
-      <c r="X107" s="21"/>
-      <c r="Y107" s="21"/>
-      <c r="Z107" s="21"/>
-      <c r="AA107" s="21"/>
-      <c r="AB107" s="21"/>
-      <c r="AC107" s="21"/>
-      <c r="AD107" s="21"/>
-      <c r="AE107" s="21"/>
-      <c r="AF107" s="21"/>
-      <c r="AG107" s="21"/>
-      <c r="AH107" s="22"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q107" s="24"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="24"/>
+      <c r="T107" s="24"/>
+      <c r="U107" s="24"/>
+      <c r="V107" s="24"/>
+      <c r="W107" s="24"/>
+      <c r="X107" s="24"/>
+      <c r="Y107" s="24"/>
+      <c r="Z107" s="24"/>
+      <c r="AA107" s="24"/>
+      <c r="AB107" s="24"/>
+      <c r="AC107" s="24"/>
+      <c r="AD107" s="24"/>
+      <c r="AE107" s="24"/>
+      <c r="AF107" s="24"/>
+      <c r="AG107" s="24"/>
+      <c r="AH107" s="25"/>
     </row>
     <row r="108" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="21"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="21"/>
-      <c r="S108" s="21"/>
-      <c r="T108" s="21"/>
-      <c r="U108" s="21"/>
-      <c r="V108" s="21"/>
-      <c r="W108" s="21"/>
-      <c r="X108" s="21"/>
-      <c r="Y108" s="21"/>
-      <c r="Z108" s="21"/>
-      <c r="AA108" s="21"/>
-      <c r="AB108" s="21"/>
-      <c r="AC108" s="21"/>
-      <c r="AD108" s="21"/>
-      <c r="AE108" s="21"/>
-      <c r="AF108" s="21"/>
-      <c r="AG108" s="21"/>
-      <c r="AH108" s="22"/>
+      <c r="G108" s="29">
+        <v>7</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="17"/>
+      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="17"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="17"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="18"/>
     </row>
     <row r="109" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D109" s="15"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
-      <c r="N109" s="24"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q109" s="24"/>
-      <c r="R109" s="24"/>
-      <c r="S109" s="24"/>
-      <c r="T109" s="24"/>
-      <c r="U109" s="24"/>
-      <c r="V109" s="24"/>
-      <c r="W109" s="24"/>
-      <c r="X109" s="24"/>
-      <c r="Y109" s="24"/>
-      <c r="Z109" s="24"/>
-      <c r="AA109" s="24"/>
-      <c r="AB109" s="24"/>
-      <c r="AC109" s="24"/>
-      <c r="AD109" s="24"/>
-      <c r="AE109" s="24"/>
-      <c r="AF109" s="24"/>
-      <c r="AG109" s="24"/>
-      <c r="AH109" s="25"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q109" s="21"/>
+      <c r="R109" s="21"/>
+      <c r="S109" s="21"/>
+      <c r="T109" s="21"/>
+      <c r="U109" s="21"/>
+      <c r="V109" s="21"/>
+      <c r="W109" s="21"/>
+      <c r="X109" s="21"/>
+      <c r="Y109" s="21"/>
+      <c r="Z109" s="21"/>
+      <c r="AA109" s="21"/>
+      <c r="AB109" s="21"/>
+      <c r="AC109" s="21"/>
+      <c r="AD109" s="21"/>
+      <c r="AE109" s="21"/>
+      <c r="AF109" s="21"/>
+      <c r="AG109" s="21"/>
+      <c r="AH109" s="22"/>
     </row>
     <row r="110" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" s="15"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="21"/>
+      <c r="V110" s="21"/>
+      <c r="W110" s="21"/>
+      <c r="X110" s="21"/>
+      <c r="Y110" s="21"/>
+      <c r="Z110" s="21"/>
+      <c r="AA110" s="21"/>
+      <c r="AB110" s="21"/>
+      <c r="AC110" s="21"/>
+      <c r="AD110" s="21"/>
+      <c r="AE110" s="21"/>
+      <c r="AF110" s="21"/>
+      <c r="AG110" s="21"/>
+      <c r="AH110" s="22"/>
     </row>
     <row r="111" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" s="15"/>
-      <c r="F111" s="15" t="str">
-        <f>$E$80&amp;".2."</f>
-        <v>(3).2.</v>
-      </c>
-      <c r="G111" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="G111" s="31"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24"/>
+      <c r="T111" s="24"/>
+      <c r="U111" s="24"/>
+      <c r="V111" s="24"/>
+      <c r="W111" s="24"/>
+      <c r="X111" s="24"/>
+      <c r="Y111" s="24"/>
+      <c r="Z111" s="24"/>
+      <c r="AA111" s="24"/>
+      <c r="AB111" s="24"/>
+      <c r="AC111" s="24"/>
+      <c r="AD111" s="24"/>
+      <c r="AE111" s="24"/>
+      <c r="AF111" s="24"/>
+      <c r="AG111" s="24"/>
+      <c r="AH111" s="25"/>
     </row>
     <row r="112" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D112" s="15"/>
-      <c r="G112" s="19" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="113" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D113" s="15"/>
+      <c r="F113" s="15" t="str">
+        <f>$E$82&amp;".2."</f>
+        <v>(3).2.</v>
+      </c>
       <c r="G113" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D114" s="15"/>
       <c r="G114" s="19" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" s="15"/>
       <c r="G115" s="19" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D116" s="15"/>
+      <c r="G116" s="19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="117" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D117" s="15"/>
-      <c r="G117" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H117" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="27"/>
-      <c r="O117" s="28"/>
-      <c r="P117" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q117" s="27"/>
-      <c r="R117" s="27"/>
-      <c r="S117" s="27"/>
-      <c r="T117" s="27"/>
-      <c r="U117" s="27"/>
-      <c r="V117" s="27"/>
-      <c r="W117" s="27"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="27"/>
-      <c r="AA117" s="27"/>
-      <c r="AB117" s="27"/>
-      <c r="AC117" s="27"/>
-      <c r="AD117" s="27"/>
-      <c r="AE117" s="27"/>
-      <c r="AF117" s="27"/>
-      <c r="AG117" s="27"/>
-      <c r="AH117" s="28"/>
+      <c r="G117" s="19" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="118" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D118" s="15"/>
-      <c r="G118" s="29">
-        <v>1</v>
-      </c>
-      <c r="H118" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="17"/>
-      <c r="S118" s="17"/>
-      <c r="T118" s="17"/>
-      <c r="U118" s="17"/>
-      <c r="V118" s="17"/>
-      <c r="W118" s="17"/>
-      <c r="X118" s="17"/>
-      <c r="Y118" s="17"/>
-      <c r="Z118" s="17"/>
-      <c r="AA118" s="17"/>
-      <c r="AB118" s="17"/>
-      <c r="AC118" s="17"/>
-      <c r="AD118" s="17"/>
-      <c r="AE118" s="17"/>
-      <c r="AF118" s="17"/>
-      <c r="AG118" s="17"/>
-      <c r="AH118" s="18"/>
     </row>
     <row r="119" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D119" s="15"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="21"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="21"/>
-      <c r="S119" s="21"/>
-      <c r="T119" s="21"/>
-      <c r="U119" s="21"/>
-      <c r="V119" s="21"/>
-      <c r="W119" s="21"/>
-      <c r="X119" s="21"/>
-      <c r="Y119" s="21"/>
-      <c r="Z119" s="21"/>
-      <c r="AA119" s="21"/>
-      <c r="AB119" s="21"/>
-      <c r="AC119" s="21"/>
-      <c r="AD119" s="21"/>
-      <c r="AE119" s="21"/>
-      <c r="AF119" s="21"/>
-      <c r="AG119" s="21"/>
-      <c r="AH119" s="22"/>
+      <c r="G119" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="28"/>
+      <c r="P119" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q119" s="27"/>
+      <c r="R119" s="27"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="27"/>
+      <c r="U119" s="27"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+      <c r="AA119" s="27"/>
+      <c r="AB119" s="27"/>
+      <c r="AC119" s="27"/>
+      <c r="AD119" s="27"/>
+      <c r="AE119" s="27"/>
+      <c r="AF119" s="27"/>
+      <c r="AG119" s="27"/>
+      <c r="AH119" s="28"/>
     </row>
     <row r="120" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D120" s="15"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="24"/>
-      <c r="L120" s="24"/>
-      <c r="M120" s="24"/>
-      <c r="N120" s="24"/>
-      <c r="O120" s="25"/>
-      <c r="P120" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q120" s="24"/>
-      <c r="R120" s="24"/>
-      <c r="S120" s="24"/>
-      <c r="T120" s="24"/>
-      <c r="U120" s="24"/>
-      <c r="V120" s="24"/>
-      <c r="W120" s="24"/>
-      <c r="X120" s="24"/>
-      <c r="Y120" s="24"/>
-      <c r="Z120" s="24"/>
-      <c r="AA120" s="24"/>
-      <c r="AB120" s="24"/>
-      <c r="AC120" s="24"/>
-      <c r="AD120" s="24"/>
-      <c r="AE120" s="24"/>
-      <c r="AF120" s="24"/>
-      <c r="AG120" s="24"/>
-      <c r="AH120" s="25"/>
+      <c r="G120" s="29">
+        <v>1</v>
+      </c>
+      <c r="H120" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q120" s="17"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="17"/>
+      <c r="T120" s="17"/>
+      <c r="U120" s="17"/>
+      <c r="V120" s="17"/>
+      <c r="W120" s="17"/>
+      <c r="X120" s="17"/>
+      <c r="Y120" s="17"/>
+      <c r="Z120" s="17"/>
+      <c r="AA120" s="17"/>
+      <c r="AB120" s="17"/>
+      <c r="AC120" s="17"/>
+      <c r="AD120" s="17"/>
+      <c r="AE120" s="17"/>
+      <c r="AF120" s="17"/>
+      <c r="AG120" s="17"/>
+      <c r="AH120" s="18"/>
     </row>
     <row r="121" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D121" s="15"/>
-      <c r="G121" s="29">
-        <v>2</v>
-      </c>
-      <c r="H121" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q121" s="17"/>
-      <c r="R121" s="17"/>
-      <c r="S121" s="17"/>
-      <c r="T121" s="17"/>
-      <c r="U121" s="17"/>
-      <c r="V121" s="17"/>
-      <c r="W121" s="17"/>
-      <c r="X121" s="17"/>
-      <c r="Y121" s="17"/>
-      <c r="Z121" s="17"/>
-      <c r="AA121" s="17"/>
-      <c r="AB121" s="17"/>
-      <c r="AC121" s="17"/>
-      <c r="AD121" s="17"/>
-      <c r="AE121" s="17"/>
-      <c r="AF121" s="17"/>
-      <c r="AG121" s="17"/>
-      <c r="AH121" s="18"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q121" s="21"/>
+      <c r="R121" s="21"/>
+      <c r="S121" s="21"/>
+      <c r="T121" s="21"/>
+      <c r="U121" s="21"/>
+      <c r="V121" s="21"/>
+      <c r="W121" s="21"/>
+      <c r="X121" s="21"/>
+      <c r="Y121" s="21"/>
+      <c r="Z121" s="21"/>
+      <c r="AA121" s="21"/>
+      <c r="AB121" s="21"/>
+      <c r="AC121" s="21"/>
+      <c r="AD121" s="21"/>
+      <c r="AE121" s="21"/>
+      <c r="AF121" s="21"/>
+      <c r="AG121" s="21"/>
+      <c r="AH121" s="22"/>
     </row>
     <row r="122" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D122" s="15"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I122" s="21"/>
-      <c r="J122" s="21"/>
-      <c r="K122" s="21"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="21"/>
-      <c r="O122" s="22"/>
-      <c r="P122" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q122" s="21"/>
-      <c r="R122" s="21"/>
-      <c r="S122" s="21"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="21"/>
-      <c r="V122" s="21"/>
-      <c r="W122" s="21"/>
-      <c r="X122" s="21"/>
-      <c r="Y122" s="21"/>
-      <c r="Z122" s="21"/>
-      <c r="AA122" s="21"/>
-      <c r="AB122" s="21"/>
-      <c r="AC122" s="21"/>
-      <c r="AD122" s="21"/>
-      <c r="AE122" s="21"/>
-      <c r="AF122" s="21"/>
-      <c r="AG122" s="21"/>
-      <c r="AH122" s="22"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+      <c r="O122" s="25"/>
+      <c r="P122" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="24"/>
+      <c r="S122" s="24"/>
+      <c r="T122" s="24"/>
+      <c r="U122" s="24"/>
+      <c r="V122" s="24"/>
+      <c r="W122" s="24"/>
+      <c r="X122" s="24"/>
+      <c r="Y122" s="24"/>
+      <c r="Z122" s="24"/>
+      <c r="AA122" s="24"/>
+      <c r="AB122" s="24"/>
+      <c r="AC122" s="24"/>
+      <c r="AD122" s="24"/>
+      <c r="AE122" s="24"/>
+      <c r="AF122" s="24"/>
+      <c r="AG122" s="24"/>
+      <c r="AH122" s="25"/>
     </row>
     <row r="123" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D123" s="15"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
-      <c r="M123" s="21"/>
-      <c r="N123" s="21"/>
-      <c r="O123" s="22"/>
-      <c r="P123" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q123" s="21"/>
-      <c r="R123" s="21"/>
-      <c r="S123" s="21"/>
-      <c r="T123" s="21"/>
-      <c r="U123" s="21"/>
-      <c r="V123" s="21"/>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-      <c r="Y123" s="21"/>
-      <c r="Z123" s="21"/>
-      <c r="AA123" s="21"/>
-      <c r="AB123" s="21"/>
-      <c r="AC123" s="21"/>
-      <c r="AD123" s="21"/>
-      <c r="AE123" s="21"/>
-      <c r="AF123" s="21"/>
-      <c r="AG123" s="21"/>
-      <c r="AH123" s="22"/>
+      <c r="G123" s="29">
+        <v>2</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q123" s="17"/>
+      <c r="R123" s="17"/>
+      <c r="S123" s="17"/>
+      <c r="T123" s="17"/>
+      <c r="U123" s="17"/>
+      <c r="V123" s="17"/>
+      <c r="W123" s="17"/>
+      <c r="X123" s="17"/>
+      <c r="Y123" s="17"/>
+      <c r="Z123" s="17"/>
+      <c r="AA123" s="17"/>
+      <c r="AB123" s="17"/>
+      <c r="AC123" s="17"/>
+      <c r="AD123" s="17"/>
+      <c r="AE123" s="17"/>
+      <c r="AF123" s="17"/>
+      <c r="AG123" s="17"/>
+      <c r="AH123" s="18"/>
     </row>
     <row r="124" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D124" s="15"/>
-      <c r="G124" s="31"/>
-      <c r="H124" s="23"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
-      <c r="M124" s="24"/>
-      <c r="N124" s="24"/>
-      <c r="O124" s="25"/>
-      <c r="P124" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q124" s="24"/>
-      <c r="R124" s="24"/>
-      <c r="S124" s="24"/>
-      <c r="T124" s="24"/>
-      <c r="U124" s="24"/>
-      <c r="V124" s="24"/>
-      <c r="W124" s="24"/>
-      <c r="X124" s="24"/>
-      <c r="Y124" s="24"/>
-      <c r="Z124" s="24"/>
-      <c r="AA124" s="24"/>
-      <c r="AB124" s="24"/>
-      <c r="AC124" s="24"/>
-      <c r="AD124" s="24"/>
-      <c r="AE124" s="24"/>
-      <c r="AF124" s="24"/>
-      <c r="AG124" s="24"/>
-      <c r="AH124" s="25"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q124" s="21"/>
+      <c r="R124" s="21"/>
+      <c r="S124" s="21"/>
+      <c r="T124" s="21"/>
+      <c r="U124" s="21"/>
+      <c r="V124" s="21"/>
+      <c r="W124" s="21"/>
+      <c r="X124" s="21"/>
+      <c r="Y124" s="21"/>
+      <c r="Z124" s="21"/>
+      <c r="AA124" s="21"/>
+      <c r="AB124" s="21"/>
+      <c r="AC124" s="21"/>
+      <c r="AD124" s="21"/>
+      <c r="AE124" s="21"/>
+      <c r="AF124" s="21"/>
+      <c r="AG124" s="21"/>
+      <c r="AH124" s="22"/>
     </row>
     <row r="125" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q125" s="21"/>
+      <c r="R125" s="21"/>
+      <c r="S125" s="21"/>
+      <c r="T125" s="21"/>
+      <c r="U125" s="21"/>
+      <c r="V125" s="21"/>
+      <c r="W125" s="21"/>
+      <c r="X125" s="21"/>
+      <c r="Y125" s="21"/>
+      <c r="Z125" s="21"/>
+      <c r="AA125" s="21"/>
+      <c r="AB125" s="21"/>
+      <c r="AC125" s="21"/>
+      <c r="AD125" s="21"/>
+      <c r="AE125" s="21"/>
+      <c r="AF125" s="21"/>
+      <c r="AG125" s="21"/>
+      <c r="AH125" s="22"/>
     </row>
     <row r="126" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D126" s="15"/>
-      <c r="F126" s="15" t="str">
-        <f>$E$80&amp;".3."</f>
-        <v>(3).3.</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>46</v>
-      </c>
+      <c r="G126" s="31"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="25"/>
+      <c r="P126" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q126" s="24"/>
+      <c r="R126" s="24"/>
+      <c r="S126" s="24"/>
+      <c r="T126" s="24"/>
+      <c r="U126" s="24"/>
+      <c r="V126" s="24"/>
+      <c r="W126" s="24"/>
+      <c r="X126" s="24"/>
+      <c r="Y126" s="24"/>
+      <c r="Z126" s="24"/>
+      <c r="AA126" s="24"/>
+      <c r="AB126" s="24"/>
+      <c r="AC126" s="24"/>
+      <c r="AD126" s="24"/>
+      <c r="AE126" s="24"/>
+      <c r="AF126" s="24"/>
+      <c r="AG126" s="24"/>
+      <c r="AH126" s="25"/>
     </row>
     <row r="127" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="19" t="s">
-        <v>47</v>
-      </c>
+      <c r="E127" s="15"/>
     </row>
     <row r="128" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D128" s="15"/>
-      <c r="F128" s="15"/>
+      <c r="F128" s="15" t="str">
+        <f>$E$82&amp;".3."</f>
+        <v>(3).3.</v>
+      </c>
       <c r="G128" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D129" s="15"/>
       <c r="F129" s="15"/>
+      <c r="G129" s="19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="130" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D130" s="15"/>
       <c r="F130" s="15"/>
-      <c r="G130" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H130" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="28"/>
-      <c r="P130" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q130" s="27"/>
-      <c r="R130" s="27"/>
-      <c r="S130" s="27"/>
-      <c r="T130" s="27"/>
-      <c r="U130" s="27"/>
-      <c r="V130" s="27"/>
-      <c r="W130" s="27"/>
-      <c r="X130" s="27"/>
-      <c r="Y130" s="27"/>
-      <c r="Z130" s="27"/>
-      <c r="AA130" s="27"/>
-      <c r="AB130" s="27"/>
-      <c r="AC130" s="27"/>
-      <c r="AD130" s="27"/>
-      <c r="AE130" s="27"/>
-      <c r="AF130" s="27"/>
-      <c r="AG130" s="27"/>
-      <c r="AH130" s="28"/>
-      <c r="AI130" s="15"/>
+      <c r="G130" s="19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="131" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D131" s="15"/>
-      <c r="G131" s="29">
-        <v>1</v>
-      </c>
-      <c r="H131" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="18"/>
-      <c r="P131" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q131" s="17"/>
-      <c r="R131" s="17"/>
-      <c r="S131" s="17"/>
-      <c r="T131" s="17"/>
-      <c r="U131" s="17"/>
-      <c r="V131" s="17"/>
-      <c r="W131" s="17"/>
-      <c r="X131" s="17"/>
-      <c r="Y131" s="17"/>
-      <c r="Z131" s="17"/>
-      <c r="AA131" s="17"/>
-      <c r="AB131" s="17"/>
-      <c r="AC131" s="17"/>
-      <c r="AD131" s="17"/>
-      <c r="AE131" s="17"/>
-      <c r="AF131" s="17"/>
-      <c r="AG131" s="17"/>
-      <c r="AH131" s="18"/>
-      <c r="AI131" s="15"/>
+      <c r="F131" s="15"/>
     </row>
     <row r="132" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D132" s="15"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I132" s="21"/>
-      <c r="J132" s="21"/>
-      <c r="K132" s="21"/>
-      <c r="L132" s="21"/>
-      <c r="M132" s="21"/>
-      <c r="N132" s="21"/>
-      <c r="O132" s="22"/>
-      <c r="P132" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q132" s="21"/>
-      <c r="R132" s="21"/>
-      <c r="S132" s="21"/>
-      <c r="T132" s="21"/>
-      <c r="U132" s="21"/>
-      <c r="V132" s="21"/>
-      <c r="W132" s="21"/>
-      <c r="X132" s="21"/>
-      <c r="Y132" s="21"/>
-      <c r="Z132" s="21"/>
-      <c r="AA132" s="21"/>
-      <c r="AB132" s="21"/>
-      <c r="AC132" s="21"/>
-      <c r="AD132" s="21"/>
-      <c r="AE132" s="21"/>
-      <c r="AF132" s="21"/>
-      <c r="AG132" s="21"/>
-      <c r="AH132" s="22"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="28"/>
+      <c r="P132" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q132" s="27"/>
+      <c r="R132" s="27"/>
+      <c r="S132" s="27"/>
+      <c r="T132" s="27"/>
+      <c r="U132" s="27"/>
+      <c r="V132" s="27"/>
+      <c r="W132" s="27"/>
+      <c r="X132" s="27"/>
+      <c r="Y132" s="27"/>
+      <c r="Z132" s="27"/>
+      <c r="AA132" s="27"/>
+      <c r="AB132" s="27"/>
+      <c r="AC132" s="27"/>
+      <c r="AD132" s="27"/>
+      <c r="AE132" s="27"/>
+      <c r="AF132" s="27"/>
+      <c r="AG132" s="27"/>
+      <c r="AH132" s="28"/>
       <c r="AI132" s="15"/>
     </row>
     <row r="133" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D133" s="15"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21"/>
-      <c r="K133" s="21"/>
-      <c r="L133" s="21"/>
-      <c r="M133" s="21"/>
-      <c r="N133" s="21"/>
-      <c r="O133" s="22"/>
-      <c r="P133" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q133" s="21"/>
-      <c r="R133" s="21"/>
-      <c r="S133" s="21"/>
-      <c r="T133" s="21"/>
-      <c r="U133" s="21"/>
-      <c r="V133" s="21"/>
-      <c r="W133" s="21"/>
-      <c r="X133" s="21"/>
-      <c r="Y133" s="21"/>
-      <c r="Z133" s="21"/>
-      <c r="AA133" s="21"/>
-      <c r="AB133" s="21"/>
-      <c r="AC133" s="21"/>
-      <c r="AD133" s="21"/>
-      <c r="AE133" s="21"/>
-      <c r="AF133" s="21"/>
-      <c r="AG133" s="21"/>
-      <c r="AH133" s="22"/>
+      <c r="G133" s="29">
+        <v>1</v>
+      </c>
+      <c r="H133" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q133" s="17"/>
+      <c r="R133" s="17"/>
+      <c r="S133" s="17"/>
+      <c r="T133" s="17"/>
+      <c r="U133" s="17"/>
+      <c r="V133" s="17"/>
+      <c r="W133" s="17"/>
+      <c r="X133" s="17"/>
+      <c r="Y133" s="17"/>
+      <c r="Z133" s="17"/>
+      <c r="AA133" s="17"/>
+      <c r="AB133" s="17"/>
+      <c r="AC133" s="17"/>
+      <c r="AD133" s="17"/>
+      <c r="AE133" s="17"/>
+      <c r="AF133" s="17"/>
+      <c r="AG133" s="17"/>
+      <c r="AH133" s="18"/>
       <c r="AI133" s="15"/>
     </row>
     <row r="134" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D134" s="15"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="23"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="24"/>
-      <c r="K134" s="24"/>
-      <c r="L134" s="24"/>
-      <c r="M134" s="24"/>
-      <c r="N134" s="24"/>
-      <c r="O134" s="25"/>
-      <c r="P134" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q134" s="24"/>
-      <c r="R134" s="24"/>
-      <c r="S134" s="24"/>
-      <c r="T134" s="24"/>
-      <c r="U134" s="24"/>
-      <c r="V134" s="24"/>
-      <c r="W134" s="24"/>
-      <c r="X134" s="24"/>
-      <c r="Y134" s="24"/>
-      <c r="Z134" s="24"/>
-      <c r="AA134" s="24"/>
-      <c r="AB134" s="24"/>
-      <c r="AC134" s="24"/>
-      <c r="AD134" s="24"/>
-      <c r="AE134" s="24"/>
-      <c r="AF134" s="24"/>
-      <c r="AG134" s="24"/>
-      <c r="AH134" s="25"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="21"/>
+      <c r="M134" s="21"/>
+      <c r="N134" s="21"/>
+      <c r="O134" s="22"/>
+      <c r="P134" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q134" s="21"/>
+      <c r="R134" s="21"/>
+      <c r="S134" s="21"/>
+      <c r="T134" s="21"/>
+      <c r="U134" s="21"/>
+      <c r="V134" s="21"/>
+      <c r="W134" s="21"/>
+      <c r="X134" s="21"/>
+      <c r="Y134" s="21"/>
+      <c r="Z134" s="21"/>
+      <c r="AA134" s="21"/>
+      <c r="AB134" s="21"/>
+      <c r="AC134" s="21"/>
+      <c r="AD134" s="21"/>
+      <c r="AE134" s="21"/>
+      <c r="AF134" s="21"/>
+      <c r="AG134" s="21"/>
+      <c r="AH134" s="22"/>
       <c r="AI134" s="15"/>
     </row>
     <row r="135" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D135" s="15"/>
-      <c r="G135" s="29">
-        <v>2</v>
-      </c>
-      <c r="H135" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I135" s="17"/>
-      <c r="J135" s="17"/>
-      <c r="K135" s="17"/>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="18"/>
-      <c r="P135" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q135" s="17"/>
-      <c r="R135" s="17"/>
-      <c r="S135" s="17"/>
-      <c r="T135" s="17"/>
-      <c r="U135" s="17"/>
-      <c r="V135" s="17"/>
-      <c r="W135" s="17"/>
-      <c r="X135" s="17"/>
-      <c r="Y135" s="17"/>
-      <c r="Z135" s="17"/>
-      <c r="AA135" s="17"/>
-      <c r="AB135" s="17"/>
-      <c r="AC135" s="17"/>
-      <c r="AD135" s="17"/>
-      <c r="AE135" s="17"/>
-      <c r="AF135" s="17"/>
-      <c r="AG135" s="17"/>
-      <c r="AH135" s="18"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="21"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="21"/>
+      <c r="M135" s="21"/>
+      <c r="N135" s="21"/>
+      <c r="O135" s="22"/>
+      <c r="P135" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q135" s="21"/>
+      <c r="R135" s="21"/>
+      <c r="S135" s="21"/>
+      <c r="T135" s="21"/>
+      <c r="U135" s="21"/>
+      <c r="V135" s="21"/>
+      <c r="W135" s="21"/>
+      <c r="X135" s="21"/>
+      <c r="Y135" s="21"/>
+      <c r="Z135" s="21"/>
+      <c r="AA135" s="21"/>
+      <c r="AB135" s="21"/>
+      <c r="AC135" s="21"/>
+      <c r="AD135" s="21"/>
+      <c r="AE135" s="21"/>
+      <c r="AF135" s="21"/>
+      <c r="AG135" s="21"/>
+      <c r="AH135" s="22"/>
       <c r="AI135" s="15"/>
     </row>
     <row r="136" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D136" s="15"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I136" s="21"/>
-      <c r="J136" s="21"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="21"/>
-      <c r="M136" s="21"/>
-      <c r="N136" s="21"/>
-      <c r="O136" s="22"/>
-      <c r="P136" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q136" s="21"/>
-      <c r="R136" s="21"/>
-      <c r="S136" s="21"/>
-      <c r="T136" s="21"/>
-      <c r="U136" s="21"/>
-      <c r="V136" s="21"/>
-      <c r="W136" s="21"/>
-      <c r="X136" s="21"/>
-      <c r="Y136" s="21"/>
-      <c r="Z136" s="21"/>
-      <c r="AA136" s="21"/>
-      <c r="AB136" s="21"/>
-      <c r="AC136" s="21"/>
-      <c r="AD136" s="21"/>
-      <c r="AE136" s="21"/>
-      <c r="AF136" s="21"/>
-      <c r="AG136" s="21"/>
-      <c r="AH136" s="22"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="24"/>
+      <c r="M136" s="24"/>
+      <c r="N136" s="24"/>
+      <c r="O136" s="25"/>
+      <c r="P136" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q136" s="24"/>
+      <c r="R136" s="24"/>
+      <c r="S136" s="24"/>
+      <c r="T136" s="24"/>
+      <c r="U136" s="24"/>
+      <c r="V136" s="24"/>
+      <c r="W136" s="24"/>
+      <c r="X136" s="24"/>
+      <c r="Y136" s="24"/>
+      <c r="Z136" s="24"/>
+      <c r="AA136" s="24"/>
+      <c r="AB136" s="24"/>
+      <c r="AC136" s="24"/>
+      <c r="AD136" s="24"/>
+      <c r="AE136" s="24"/>
+      <c r="AF136" s="24"/>
+      <c r="AG136" s="24"/>
+      <c r="AH136" s="25"/>
+      <c r="AI136" s="15"/>
     </row>
     <row r="137" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D137" s="15"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
-      <c r="K137" s="24"/>
-      <c r="L137" s="24"/>
-      <c r="M137" s="24"/>
-      <c r="N137" s="24"/>
-      <c r="O137" s="25"/>
-      <c r="P137" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q137" s="24"/>
-      <c r="R137" s="24"/>
-      <c r="S137" s="24"/>
-      <c r="T137" s="24"/>
-      <c r="U137" s="24"/>
-      <c r="V137" s="24"/>
-      <c r="W137" s="24"/>
-      <c r="X137" s="24"/>
-      <c r="Y137" s="24"/>
-      <c r="Z137" s="24"/>
-      <c r="AA137" s="24"/>
-      <c r="AB137" s="24"/>
-      <c r="AC137" s="24"/>
-      <c r="AD137" s="24"/>
-      <c r="AE137" s="24"/>
-      <c r="AF137" s="24"/>
-      <c r="AG137" s="24"/>
-      <c r="AH137" s="25"/>
+      <c r="G137" s="29">
+        <v>2</v>
+      </c>
+      <c r="H137" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="18"/>
+      <c r="P137" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q137" s="17"/>
+      <c r="R137" s="17"/>
+      <c r="S137" s="17"/>
+      <c r="T137" s="17"/>
+      <c r="U137" s="17"/>
+      <c r="V137" s="17"/>
+      <c r="W137" s="17"/>
+      <c r="X137" s="17"/>
+      <c r="Y137" s="17"/>
+      <c r="Z137" s="17"/>
+      <c r="AA137" s="17"/>
+      <c r="AB137" s="17"/>
+      <c r="AC137" s="17"/>
+      <c r="AD137" s="17"/>
+      <c r="AE137" s="17"/>
+      <c r="AF137" s="17"/>
+      <c r="AG137" s="17"/>
+      <c r="AH137" s="18"/>
+      <c r="AI137" s="15"/>
     </row>
     <row r="138" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D138" s="15"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="21"/>
+      <c r="M138" s="21"/>
+      <c r="N138" s="21"/>
+      <c r="O138" s="22"/>
+      <c r="P138" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q138" s="21"/>
+      <c r="R138" s="21"/>
+      <c r="S138" s="21"/>
+      <c r="T138" s="21"/>
+      <c r="U138" s="21"/>
+      <c r="V138" s="21"/>
+      <c r="W138" s="21"/>
+      <c r="X138" s="21"/>
+      <c r="Y138" s="21"/>
+      <c r="Z138" s="21"/>
+      <c r="AA138" s="21"/>
+      <c r="AB138" s="21"/>
+      <c r="AC138" s="21"/>
+      <c r="AD138" s="21"/>
+      <c r="AE138" s="21"/>
+      <c r="AF138" s="21"/>
+      <c r="AG138" s="21"/>
+      <c r="AH138" s="22"/>
     </row>
     <row r="139" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D139" s="15"/>
-      <c r="E139" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="G139" s="31"/>
+      <c r="H139" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
+      <c r="M139" s="24"/>
+      <c r="N139" s="24"/>
+      <c r="O139" s="25"/>
+      <c r="P139" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q139" s="24"/>
+      <c r="R139" s="24"/>
+      <c r="S139" s="24"/>
+      <c r="T139" s="24"/>
+      <c r="U139" s="24"/>
+      <c r="V139" s="24"/>
+      <c r="W139" s="24"/>
+      <c r="X139" s="24"/>
+      <c r="Y139" s="24"/>
+      <c r="Z139" s="24"/>
+      <c r="AA139" s="24"/>
+      <c r="AB139" s="24"/>
+      <c r="AC139" s="24"/>
+      <c r="AD139" s="24"/>
+      <c r="AE139" s="24"/>
+      <c r="AF139" s="24"/>
+      <c r="AG139" s="24"/>
+      <c r="AH139" s="25"/>
     </row>
     <row r="140" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D140" s="15"/>
-      <c r="F140" s="15" t="str">
-        <f>$E$139&amp;".1."</f>
-        <v>(4).1.</v>
-      </c>
-      <c r="G140" s="19" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="141" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="19" t="s">
-        <v>66</v>
+      <c r="E141" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F141" s="19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D142" s="15"/>
-      <c r="F142" s="15"/>
+      <c r="F142" s="15" t="str">
+        <f>$E$141&amp;".1."</f>
+        <v>(4).1.</v>
+      </c>
       <c r="G142" s="19" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
     </row>
     <row r="143" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="19" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="144" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D144" s="15"/>
-      <c r="E144" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F144" s="19" t="s">
-        <v>124</v>
+      <c r="F144" s="15"/>
+      <c r="G144" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D145" s="15"/>
-      <c r="F145" s="15" t="str">
-        <f>$E$144&amp;".1."</f>
-        <v>(5).1.</v>
-      </c>
-      <c r="G145" s="19" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D146" s="15"/>
-      <c r="G146" s="19" t="s">
-        <v>126</v>
+      <c r="E146" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F146" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D147" s="15"/>
+      <c r="F147" s="15" t="str">
+        <f>$E$146&amp;".1."</f>
+        <v>(5).1.</v>
+      </c>
       <c r="G147" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D148" s="15"/>
+      <c r="G148" s="19" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="149" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D149" s="15" t="str">
-        <f>$C$7&amp;"4."</f>
-        <v>6.1.4.</v>
-      </c>
-      <c r="E149" s="19" t="s">
-        <v>97</v>
+      <c r="D149" s="15"/>
+      <c r="G149" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D150" s="33"/>
-      <c r="E150" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="F150" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="D150" s="15"/>
     </row>
     <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="34"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="32" t="s">
+        <v>135</v>
+      </c>
       <c r="F151" s="19" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="34"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="32"/>
       <c r="F152" s="19" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="34"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="19" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="154" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="34"/>
+      <c r="D154" s="33"/>
+      <c r="F154" s="15"/>
     </row>
     <row r="155" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D155" s="34"/>
     </row>
-    <row r="156" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D156" s="34"/>
-    </row>
-    <row r="157" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D157" s="34"/>
-    </row>
-    <row r="158" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D158" s="34"/>
-    </row>
-    <row r="159" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D159" s="34"/>
-    </row>
-    <row r="160" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D160" s="34"/>
-    </row>
-    <row r="161" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D161" s="34"/>
-    </row>
-    <row r="162" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D162" s="34"/>
-    </row>
-    <row r="163" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D163" s="34"/>
-    </row>
-    <row r="164" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D164" s="34"/>
-    </row>
-    <row r="165" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D165" s="34"/>
-    </row>
-    <row r="166" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D166" s="34"/>
-    </row>
-    <row r="167" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D167" s="34"/>
-    </row>
-    <row r="168" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D168" s="34"/>
-    </row>
-    <row r="169" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D169" s="34"/>
-    </row>
-    <row r="170" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D170" s="34"/>
-    </row>
-    <row r="171" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D171" s="34"/>
-    </row>
-    <row r="172" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D172" s="34"/>
-    </row>
-    <row r="173" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D173" s="34"/>
-    </row>
-    <row r="174" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D174" s="34"/>
-    </row>
-    <row r="175" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D175" s="34"/>
-    </row>
-    <row r="176" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D176" s="34"/>
-    </row>
-    <row r="177" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D177" s="34"/>
-    </row>
-    <row r="178" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D178" s="33"/>
-      <c r="E178" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="F178" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="179" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D179" s="33"/>
-      <c r="E179" s="32"/>
-      <c r="F179" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="180" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D180" s="33"/>
-      <c r="E180" s="32"/>
-      <c r="F180" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="181" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D181" s="33"/>
-      <c r="F181" s="15"/>
-    </row>
-    <row r="182" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D182" s="34"/>
-    </row>
-    <row r="183" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5272,11 +5077,10 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="4" manualBreakCount="4">
-    <brk id="28" max="34" man="1"/>
-    <brk id="74" max="34" man="1"/>
-    <brk id="110" max="34" man="1"/>
-    <brk id="148" max="34" man="1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="30" max="34" man="1"/>
+    <brk id="76" max="34" man="1"/>
+    <brk id="112" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104ED3A8-D5F5-485D-80C2-FE0F0490F28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19080" windowHeight="7230"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.1.メッセージ仕向け" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$155</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -617,22 +629,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そのため、メッセージ仕向け（HTTP/HTTPS）からは開閉局制御を行わない</t>
-    <rPh sb="28" eb="30">
-      <t>カイヘイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>キョク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メッセージ仕向け（HTTP/HTTPS）は以下に準拠して作成する。</t>
     <rPh sb="21" eb="23">
       <t>イカ</t>
@@ -806,25 +802,6 @@
     <t>システム例外を業務アプリケーションに送出する。</t>
   </si>
   <si>
-    <t>接続先で取引成立がしていないため、処理はロールバックされる。</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイリツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レスポンス受信後、業務アプリ内でエラーが発生した場合の処理。</t>
     <rPh sb="5" eb="7">
       <t>ジュシン</t>
@@ -906,10 +883,6 @@
     <t>可能な限り1アクション内で接続先システムに対しての更新処理は１回のみに制限する。</t>
   </si>
   <si>
-    <t>同一アクション内で、２回以降の接続先システム更新処理を呼び出しで失敗した場合、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>それ以前の更新処理の取り消し処理を考慮しなければならない。</t>
   </si>
   <si>
@@ -941,16 +914,6 @@
   </si>
   <si>
     <t>取引が成立していれば、取消し電文を送信後、最初から処理を再実行する。</t>
-  </si>
-  <si>
-    <t>PJ固有の要件</t>
-    <rPh sb="2" eb="4">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>業務処理から要求データ（JavaBean形式）をJAX-RS実装APIに引き渡す。</t>
@@ -1176,49 +1139,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>API呼出の性能要件を満たすために、一部接続先システムに対して、複数のREST通信をマルチスレッドで取得可能な方式とする。</t>
-    <rPh sb="3" eb="5">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(5)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1297,102 +1217,136 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システム間で送受信したパラメータのうち、障害調査時に必要となるパラメータは、ログに記録する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログ出力対象のパラメータは以下の通り。</t>
-    <rPh sb="2" eb="4">
-      <t>シュツリョク</t>
+    <t>接続先システム側のWEBサービスの仕様は、接続先システムのインタフェース仕様書から確認する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>接続先で取引が成立していないため、処理はロールバックされる。</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(1)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>性能対策</t>
-    <rPh sb="0" eb="2">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>XXX管理番号</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザからの要求に対して、APIによる照会処理を並列実行し、レスポンスを待ち合わせて処理結果を画面に表示する。</t>
-    <rPh sb="6" eb="8">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タイ</t>
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同一アクション内で、２回目以降の接続先システム更新処理呼び出しで失敗した場合、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.0 からはクライアント用APIも含まれる。</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのため、メッセージ仕向け（HTTP/HTTPS）では開閉局制御を行わない</t>
+    <rPh sb="27" eb="29">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム間で送受信したパラメータは障害発生時の原因究明に必要となるため、基本的に全てログに記録する。</t>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ソウジュシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウガイ</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘイレツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接続先システム側のWEBサービスの仕様は、接続先システムのインタフェース仕様書から確認する。</t>
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ゲンインキュウメイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただし、パスワードや個人情報など漏洩するとセキュリティリスクとなる項目がある場合については、マスキングを行うこととする。</t>
+    <rPh sb="10" eb="14">
+      <t>コジンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ロウエイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※JAX-RSの実装としては参照実装であるEclipse Jerseyを使用する。</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(6)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1820,15 +1774,18 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1840,18 +1797,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1885,66 +1848,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>60615</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>123</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>30308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1723160" y="23803964"/>
-          <a:ext cx="4736522" cy="3415889"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1986,7 +1894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2019,9 +1927,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2054,6 +1979,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2229,11 +2171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI184"/>
+  <dimension ref="A1:AI156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2265,7 +2207,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S1" s="42"/>
       <c r="T1" s="42"/>
@@ -2435,7 +2377,7 @@
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="15"/>
       <c r="E14" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2444,7 +2386,7 @@
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="15"/>
       <c r="E16" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -2475,7 +2417,7 @@
     <row r="17" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="15"/>
       <c r="E17" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -2483,7 +2425,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
       <c r="K17" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -2511,7 +2453,9 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="23"/>
+      <c r="K18" s="23" t="s">
+        <v>130</v>
+      </c>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
@@ -2533,7 +2477,7 @@
     <row r="19" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="15"/>
       <c r="E19" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -2541,7 +2485,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="18"/>
       <c r="K19" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
@@ -2594,13 +2538,13 @@
     <row r="22" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="15"/>
       <c r="E22" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="15"/>
       <c r="E23" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
@@ -2636,7 +2580,7 @@
     <row r="24" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="15"/>
       <c r="E24" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -2651,7 +2595,7 @@
       <c r="N24" s="17"/>
       <c r="O24" s="18"/>
       <c r="P24" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
@@ -2683,7 +2627,7 @@
       <c r="N25" s="24"/>
       <c r="O25" s="25"/>
       <c r="P25" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
@@ -2704,7 +2648,7 @@
     <row r="26" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="15"/>
       <c r="E26" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -2719,7 +2663,7 @@
       <c r="N26" s="17"/>
       <c r="O26" s="18"/>
       <c r="P26" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
@@ -2769,34 +2713,88 @@
     </row>
     <row r="28" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
     </row>
     <row r="29" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="15"/>
-      <c r="D29" s="15" t="str">
+      <c r="E29" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+    </row>
+    <row r="30" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.1.3.</v>
       </c>
-      <c r="E29" s="19" t="str">
+      <c r="E31" s="19" t="str">
         <f>D7&amp;"機能詳細"</f>
         <v>メッセージ仕向け（HTTP/HTTPS）機能詳細</v>
       </c>
     </row>
-    <row r="30" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="15"/>
-      <c r="E30" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="15"/>
-      <c r="E31" s="32"/>
-    </row>
     <row r="32" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="15"/>
-      <c r="E32" s="32"/>
+      <c r="E32" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="15"/>
@@ -2903,175 +2901,119 @@
       <c r="E58" s="32"/>
     </row>
     <row r="59" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="15"/>
-      <c r="F60" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="27"/>
-      <c r="AE60" s="28"/>
+      <c r="C60" s="15"/>
+      <c r="E60" s="32"/>
     </row>
     <row r="61" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="15"/>
-      <c r="F61" s="16">
-        <v>1</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="17"/>
-      <c r="Z61" s="17"/>
-      <c r="AA61" s="17"/>
-      <c r="AB61" s="17"/>
-      <c r="AC61" s="17"/>
-      <c r="AD61" s="17"/>
-      <c r="AE61" s="18"/>
+      <c r="D61" s="15"/>
     </row>
     <row r="62" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
-      <c r="AA62" s="21"/>
-      <c r="AB62" s="21"/>
-      <c r="AC62" s="21"/>
-      <c r="AD62" s="21"/>
-      <c r="AE62" s="22"/>
+      <c r="F62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="27"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="27"/>
+      <c r="AE62" s="28"/>
     </row>
     <row r="63" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
-      <c r="AA63" s="24"/>
-      <c r="AB63" s="24"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="24"/>
-      <c r="AE63" s="25"/>
+      <c r="F63" s="16">
+        <v>1</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="17"/>
+      <c r="AC63" s="17"/>
+      <c r="AD63" s="17"/>
+      <c r="AE63" s="18"/>
     </row>
     <row r="64" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F64" s="16">
-        <v>2</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="17"/>
-      <c r="AB64" s="17"/>
-      <c r="AC64" s="17"/>
-      <c r="AD64" s="17"/>
-      <c r="AE64" s="18"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="21"/>
+      <c r="AD64" s="21"/>
+      <c r="AE64" s="22"/>
     </row>
     <row r="65" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="15"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="24"/>
@@ -3079,7 +3021,7 @@
       <c r="J65" s="24"/>
       <c r="K65" s="25"/>
       <c r="L65" s="23" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="24"/>
@@ -3103,17 +3045,17 @@
     </row>
     <row r="66" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F66" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
       <c r="K66" s="18"/>
       <c r="L66" s="16" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
@@ -3142,7 +3084,9 @@
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="23"/>
+      <c r="L67" s="23" t="s">
+        <v>105</v>
+      </c>
       <c r="M67" s="24"/>
       <c r="N67" s="24"/>
       <c r="O67" s="24"/>
@@ -3165,17 +3109,17 @@
     </row>
     <row r="68" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
       <c r="K68" s="18"/>
       <c r="L68" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
@@ -3227,17 +3171,17 @@
     </row>
     <row r="70" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F70" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="18"/>
       <c r="L70" s="16" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
@@ -3266,9 +3210,7 @@
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
       <c r="K71" s="25"/>
-      <c r="L71" s="23" t="s">
-        <v>105</v>
-      </c>
+      <c r="L71" s="23"/>
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
       <c r="O71" s="24"/>
@@ -3291,17 +3233,17 @@
     </row>
     <row r="72" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F72" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
       <c r="L72" s="16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
@@ -3331,7 +3273,7 @@
       <c r="J73" s="24"/>
       <c r="K73" s="25"/>
       <c r="L73" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="24"/>
@@ -3353,1816 +3295,1771 @@
       <c r="AD73" s="24"/>
       <c r="AE73" s="25"/>
     </row>
-    <row r="74" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="16">
+        <v>6</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="18"/>
+    </row>
     <row r="75" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D75" s="15"/>
-      <c r="E75" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D76" s="15"/>
-      <c r="F76" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="24"/>
+      <c r="V75" s="24"/>
+      <c r="W75" s="24"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="24"/>
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="24"/>
+      <c r="AE75" s="25"/>
+    </row>
+    <row r="76" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="15"/>
+      <c r="E77" s="32" t="s">
+        <v>58</v>
+      </c>
       <c r="F77" s="19" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="15"/>
       <c r="F78" s="19" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="15"/>
+      <c r="F79" s="19" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="80" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="15"/>
-      <c r="E80" s="32" t="s">
-        <v>59</v>
-      </c>
       <c r="F80" s="19" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="15"/>
-      <c r="F81" s="14" t="str">
-        <f>$E$80&amp;".1."</f>
-        <v>(3).1.</v>
-      </c>
-      <c r="G81" s="19" t="str">
-        <f>$F$80&amp;"内容"</f>
-        <v>エラー処理内容</v>
-      </c>
     </row>
     <row r="82" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="15"/>
-      <c r="G82" s="19" t="s">
-        <v>33</v>
+      <c r="E82" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="15"/>
+      <c r="F83" s="14" t="str">
+        <f>$E$82&amp;".1."</f>
+        <v>(3).1.</v>
+      </c>
+      <c r="G83" s="19" t="str">
+        <f>$F$82&amp;"内容"</f>
+        <v>エラー処理内容</v>
+      </c>
     </row>
     <row r="84" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="15"/>
-      <c r="G84" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="27"/>
-      <c r="W84" s="27"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="27"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="27"/>
-      <c r="AE84" s="27"/>
-      <c r="AF84" s="27"/>
-      <c r="AG84" s="27"/>
-      <c r="AH84" s="28"/>
+      <c r="G84" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="85" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="15"/>
-      <c r="G85" s="29">
-        <v>1</v>
-      </c>
-      <c r="H85" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="17"/>
-      <c r="X85" s="17"/>
-      <c r="Y85" s="17"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="17"/>
-      <c r="AB85" s="17"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="17"/>
-      <c r="AE85" s="17"/>
-      <c r="AF85" s="17"/>
-      <c r="AG85" s="17"/>
-      <c r="AH85" s="18"/>
     </row>
     <row r="86" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D86" s="15"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
-      <c r="U86" s="21"/>
-      <c r="V86" s="21"/>
-      <c r="W86" s="21"/>
-      <c r="X86" s="21"/>
-      <c r="Y86" s="21"/>
-      <c r="Z86" s="21"/>
-      <c r="AA86" s="21"/>
-      <c r="AB86" s="21"/>
-      <c r="AC86" s="21"/>
-      <c r="AD86" s="21"/>
-      <c r="AE86" s="21"/>
-      <c r="AF86" s="21"/>
-      <c r="AG86" s="21"/>
-      <c r="AH86" s="22"/>
+      <c r="G86" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="27"/>
+      <c r="S86" s="27"/>
+      <c r="T86" s="27"/>
+      <c r="U86" s="27"/>
+      <c r="V86" s="27"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="27"/>
+      <c r="AF86" s="27"/>
+      <c r="AG86" s="27"/>
+      <c r="AH86" s="28"/>
     </row>
     <row r="87" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="15"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="24"/>
-      <c r="T87" s="24"/>
-      <c r="U87" s="24"/>
-      <c r="V87" s="24"/>
-      <c r="W87" s="24"/>
-      <c r="X87" s="24"/>
-      <c r="Y87" s="24"/>
-      <c r="Z87" s="24"/>
-      <c r="AA87" s="24"/>
-      <c r="AB87" s="24"/>
-      <c r="AC87" s="24"/>
-      <c r="AD87" s="24"/>
-      <c r="AE87" s="24"/>
-      <c r="AF87" s="24"/>
-      <c r="AG87" s="24"/>
-      <c r="AH87" s="25"/>
+      <c r="G87" s="29">
+        <v>1</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="17"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="17"/>
+      <c r="X87" s="17"/>
+      <c r="Y87" s="17"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="17"/>
+      <c r="AB87" s="17"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="17"/>
+      <c r="AE87" s="17"/>
+      <c r="AF87" s="17"/>
+      <c r="AG87" s="17"/>
+      <c r="AH87" s="18"/>
     </row>
     <row r="88" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D88" s="15"/>
-      <c r="G88" s="29">
-        <v>2</v>
-      </c>
-      <c r="H88" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="17"/>
-      <c r="T88" s="17"/>
-      <c r="U88" s="17"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="17"/>
-      <c r="X88" s="17"/>
-      <c r="Y88" s="17"/>
-      <c r="Z88" s="17"/>
-      <c r="AA88" s="17"/>
-      <c r="AB88" s="17"/>
-      <c r="AC88" s="17"/>
-      <c r="AD88" s="17"/>
-      <c r="AE88" s="17"/>
-      <c r="AF88" s="17"/>
-      <c r="AG88" s="17"/>
-      <c r="AH88" s="18"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="21"/>
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="21"/>
+      <c r="AC88" s="21"/>
+      <c r="AD88" s="21"/>
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="21"/>
+      <c r="AH88" s="22"/>
     </row>
     <row r="89" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D89" s="15"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
-      <c r="U89" s="21"/>
-      <c r="V89" s="21"/>
-      <c r="W89" s="21"/>
-      <c r="X89" s="21"/>
-      <c r="Y89" s="21"/>
-      <c r="Z89" s="21"/>
-      <c r="AA89" s="21"/>
-      <c r="AB89" s="21"/>
-      <c r="AC89" s="21"/>
-      <c r="AD89" s="21"/>
-      <c r="AE89" s="21"/>
-      <c r="AF89" s="21"/>
-      <c r="AG89" s="21"/>
-      <c r="AH89" s="22"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="24"/>
+      <c r="U89" s="24"/>
+      <c r="V89" s="24"/>
+      <c r="W89" s="24"/>
+      <c r="X89" s="24"/>
+      <c r="Y89" s="24"/>
+      <c r="Z89" s="24"/>
+      <c r="AA89" s="24"/>
+      <c r="AB89" s="24"/>
+      <c r="AC89" s="24"/>
+      <c r="AD89" s="24"/>
+      <c r="AE89" s="24"/>
+      <c r="AF89" s="24"/>
+      <c r="AG89" s="24"/>
+      <c r="AH89" s="25"/>
     </row>
     <row r="90" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D90" s="15"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="25"/>
-      <c r="P90" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
-      <c r="T90" s="24"/>
-      <c r="U90" s="24"/>
-      <c r="V90" s="24"/>
-      <c r="W90" s="24"/>
-      <c r="X90" s="24"/>
-      <c r="Y90" s="24"/>
-      <c r="Z90" s="24"/>
-      <c r="AA90" s="24"/>
-      <c r="AB90" s="24"/>
-      <c r="AC90" s="24"/>
-      <c r="AD90" s="24"/>
-      <c r="AE90" s="24"/>
-      <c r="AF90" s="24"/>
-      <c r="AG90" s="24"/>
-      <c r="AH90" s="25"/>
+      <c r="G90" s="29">
+        <v>2</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="17"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="17"/>
+      <c r="AB90" s="17"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="17"/>
+      <c r="AE90" s="17"/>
+      <c r="AF90" s="17"/>
+      <c r="AG90" s="17"/>
+      <c r="AH90" s="18"/>
     </row>
     <row r="91" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D91" s="15"/>
-      <c r="G91" s="29">
-        <v>3</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
-      <c r="X91" s="17"/>
-      <c r="Y91" s="17"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="17"/>
-      <c r="AB91" s="17"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="17"/>
-      <c r="AE91" s="17"/>
-      <c r="AF91" s="17"/>
-      <c r="AG91" s="17"/>
-      <c r="AH91" s="18"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="21"/>
+      <c r="Y91" s="21"/>
+      <c r="Z91" s="21"/>
+      <c r="AA91" s="21"/>
+      <c r="AB91" s="21"/>
+      <c r="AC91" s="21"/>
+      <c r="AD91" s="21"/>
+      <c r="AE91" s="21"/>
+      <c r="AF91" s="21"/>
+      <c r="AG91" s="21"/>
+      <c r="AH91" s="22"/>
     </row>
     <row r="92" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D92" s="15"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="21"/>
-      <c r="W92" s="21"/>
-      <c r="X92" s="21"/>
-      <c r="Y92" s="21"/>
-      <c r="Z92" s="21"/>
-      <c r="AA92" s="21"/>
-      <c r="AB92" s="21"/>
-      <c r="AC92" s="21"/>
-      <c r="AD92" s="21"/>
-      <c r="AE92" s="21"/>
-      <c r="AF92" s="21"/>
-      <c r="AG92" s="21"/>
-      <c r="AH92" s="22"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="24"/>
+      <c r="S92" s="24"/>
+      <c r="T92" s="24"/>
+      <c r="U92" s="24"/>
+      <c r="V92" s="24"/>
+      <c r="W92" s="24"/>
+      <c r="X92" s="24"/>
+      <c r="Y92" s="24"/>
+      <c r="Z92" s="24"/>
+      <c r="AA92" s="24"/>
+      <c r="AB92" s="24"/>
+      <c r="AC92" s="24"/>
+      <c r="AD92" s="24"/>
+      <c r="AE92" s="24"/>
+      <c r="AF92" s="24"/>
+      <c r="AG92" s="24"/>
+      <c r="AH92" s="25"/>
     </row>
     <row r="93" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="15"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q93" s="21"/>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
-      <c r="U93" s="21"/>
-      <c r="V93" s="21"/>
-      <c r="W93" s="21"/>
-      <c r="X93" s="21"/>
-      <c r="Y93" s="21"/>
-      <c r="Z93" s="21"/>
-      <c r="AA93" s="21"/>
-      <c r="AB93" s="21"/>
-      <c r="AC93" s="21"/>
-      <c r="AD93" s="21"/>
-      <c r="AE93" s="21"/>
-      <c r="AF93" s="21"/>
-      <c r="AG93" s="21"/>
-      <c r="AH93" s="22"/>
+      <c r="G93" s="29">
+        <v>3</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="17"/>
+      <c r="X93" s="17"/>
+      <c r="Y93" s="17"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="17"/>
+      <c r="AB93" s="17"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="17"/>
+      <c r="AE93" s="17"/>
+      <c r="AF93" s="17"/>
+      <c r="AG93" s="17"/>
+      <c r="AH93" s="18"/>
     </row>
     <row r="94" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D94" s="15"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="25"/>
-      <c r="P94" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="S94" s="24"/>
-      <c r="T94" s="24"/>
-      <c r="U94" s="24"/>
-      <c r="V94" s="24"/>
-      <c r="W94" s="24"/>
-      <c r="X94" s="24"/>
-      <c r="Y94" s="24"/>
-      <c r="Z94" s="24"/>
-      <c r="AA94" s="24"/>
-      <c r="AB94" s="24"/>
-      <c r="AC94" s="24"/>
-      <c r="AD94" s="24"/>
-      <c r="AE94" s="24"/>
-      <c r="AF94" s="24"/>
-      <c r="AG94" s="24"/>
-      <c r="AH94" s="25"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="21"/>
+      <c r="X94" s="21"/>
+      <c r="Y94" s="21"/>
+      <c r="Z94" s="21"/>
+      <c r="AA94" s="21"/>
+      <c r="AB94" s="21"/>
+      <c r="AC94" s="21"/>
+      <c r="AD94" s="21"/>
+      <c r="AE94" s="21"/>
+      <c r="AF94" s="21"/>
+      <c r="AG94" s="21"/>
+      <c r="AH94" s="22"/>
     </row>
     <row r="95" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="G95" s="29">
-        <v>4</v>
-      </c>
-      <c r="H95" s="16" t="s">
+      <c r="G95" s="30"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="17"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="17"/>
-      <c r="X95" s="17"/>
-      <c r="Y95" s="17"/>
-      <c r="Z95" s="17"/>
-      <c r="AA95" s="17"/>
-      <c r="AB95" s="17"/>
-      <c r="AC95" s="17"/>
-      <c r="AD95" s="17"/>
-      <c r="AE95" s="17"/>
-      <c r="AF95" s="17"/>
-      <c r="AG95" s="17"/>
-      <c r="AH95" s="18"/>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="21"/>
+      <c r="T95" s="21"/>
+      <c r="U95" s="21"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="21"/>
+      <c r="X95" s="21"/>
+      <c r="Y95" s="21"/>
+      <c r="Z95" s="21"/>
+      <c r="AA95" s="21"/>
+      <c r="AB95" s="21"/>
+      <c r="AC95" s="21"/>
+      <c r="AD95" s="21"/>
+      <c r="AE95" s="21"/>
+      <c r="AF95" s="21"/>
+      <c r="AG95" s="21"/>
+      <c r="AH95" s="22"/>
     </row>
     <row r="96" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q96" s="21"/>
-      <c r="R96" s="21"/>
-      <c r="S96" s="21"/>
-      <c r="T96" s="21"/>
-      <c r="U96" s="21"/>
-      <c r="V96" s="21"/>
-      <c r="W96" s="21"/>
-      <c r="X96" s="21"/>
-      <c r="Y96" s="21"/>
-      <c r="Z96" s="21"/>
-      <c r="AA96" s="21"/>
-      <c r="AB96" s="21"/>
-      <c r="AC96" s="21"/>
-      <c r="AD96" s="21"/>
-      <c r="AE96" s="21"/>
-      <c r="AF96" s="21"/>
-      <c r="AG96" s="21"/>
-      <c r="AH96" s="22"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="24"/>
+      <c r="S96" s="24"/>
+      <c r="T96" s="24"/>
+      <c r="U96" s="24"/>
+      <c r="V96" s="24"/>
+      <c r="W96" s="24"/>
+      <c r="X96" s="24"/>
+      <c r="Y96" s="24"/>
+      <c r="Z96" s="24"/>
+      <c r="AA96" s="24"/>
+      <c r="AB96" s="24"/>
+      <c r="AC96" s="24"/>
+      <c r="AD96" s="24"/>
+      <c r="AE96" s="24"/>
+      <c r="AF96" s="24"/>
+      <c r="AG96" s="24"/>
+      <c r="AH96" s="25"/>
     </row>
     <row r="97" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D97" s="15"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q97" s="21"/>
-      <c r="R97" s="21"/>
-      <c r="S97" s="21"/>
-      <c r="T97" s="21"/>
-      <c r="U97" s="21"/>
-      <c r="V97" s="21"/>
-      <c r="W97" s="21"/>
-      <c r="X97" s="21"/>
-      <c r="Y97" s="21"/>
-      <c r="Z97" s="21"/>
-      <c r="AA97" s="21"/>
-      <c r="AB97" s="21"/>
-      <c r="AC97" s="21"/>
-      <c r="AD97" s="21"/>
-      <c r="AE97" s="21"/>
-      <c r="AF97" s="21"/>
-      <c r="AG97" s="21"/>
-      <c r="AH97" s="22"/>
+      <c r="E97" s="15"/>
+      <c r="G97" s="29">
+        <v>4</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="17"/>
+      <c r="AB97" s="17"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="17"/>
+      <c r="AE97" s="17"/>
+      <c r="AF97" s="17"/>
+      <c r="AG97" s="17"/>
+      <c r="AH97" s="18"/>
     </row>
     <row r="98" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D98" s="15"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="25"/>
-      <c r="P98" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
-      <c r="T98" s="24"/>
-      <c r="U98" s="24"/>
-      <c r="V98" s="24"/>
-      <c r="W98" s="24"/>
-      <c r="X98" s="24"/>
-      <c r="Y98" s="24"/>
-      <c r="Z98" s="24"/>
-      <c r="AA98" s="24"/>
-      <c r="AB98" s="24"/>
-      <c r="AC98" s="24"/>
-      <c r="AD98" s="24"/>
-      <c r="AE98" s="24"/>
-      <c r="AF98" s="24"/>
-      <c r="AG98" s="24"/>
-      <c r="AH98" s="25"/>
+      <c r="E98" s="15"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q98" s="21"/>
+      <c r="R98" s="21"/>
+      <c r="S98" s="21"/>
+      <c r="T98" s="21"/>
+      <c r="U98" s="21"/>
+      <c r="V98" s="21"/>
+      <c r="W98" s="21"/>
+      <c r="X98" s="21"/>
+      <c r="Y98" s="21"/>
+      <c r="Z98" s="21"/>
+      <c r="AA98" s="21"/>
+      <c r="AB98" s="21"/>
+      <c r="AC98" s="21"/>
+      <c r="AD98" s="21"/>
+      <c r="AE98" s="21"/>
+      <c r="AF98" s="21"/>
+      <c r="AG98" s="21"/>
+      <c r="AH98" s="22"/>
     </row>
     <row r="99" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D99" s="15"/>
-      <c r="G99" s="29">
-        <v>5</v>
-      </c>
-      <c r="H99" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="17"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="17"/>
-      <c r="X99" s="17"/>
-      <c r="Y99" s="17"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="17"/>
-      <c r="AB99" s="17"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="17"/>
-      <c r="AE99" s="17"/>
-      <c r="AF99" s="17"/>
-      <c r="AG99" s="17"/>
-      <c r="AH99" s="18"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="21"/>
+      <c r="S99" s="21"/>
+      <c r="T99" s="21"/>
+      <c r="U99" s="21"/>
+      <c r="V99" s="21"/>
+      <c r="W99" s="21"/>
+      <c r="X99" s="21"/>
+      <c r="Y99" s="21"/>
+      <c r="Z99" s="21"/>
+      <c r="AA99" s="21"/>
+      <c r="AB99" s="21"/>
+      <c r="AC99" s="21"/>
+      <c r="AD99" s="21"/>
+      <c r="AE99" s="21"/>
+      <c r="AF99" s="21"/>
+      <c r="AG99" s="21"/>
+      <c r="AH99" s="22"/>
     </row>
     <row r="100" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D100" s="15"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="I100" s="21"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="21"/>
-      <c r="W100" s="21"/>
-      <c r="X100" s="21"/>
-      <c r="Y100" s="21"/>
-      <c r="Z100" s="21"/>
-      <c r="AA100" s="21"/>
-      <c r="AB100" s="21"/>
-      <c r="AC100" s="21"/>
-      <c r="AD100" s="21"/>
-      <c r="AE100" s="21"/>
-      <c r="AF100" s="21"/>
-      <c r="AG100" s="21"/>
-      <c r="AH100" s="22"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="24"/>
+      <c r="T100" s="24"/>
+      <c r="U100" s="24"/>
+      <c r="V100" s="24"/>
+      <c r="W100" s="24"/>
+      <c r="X100" s="24"/>
+      <c r="Y100" s="24"/>
+      <c r="Z100" s="24"/>
+      <c r="AA100" s="24"/>
+      <c r="AB100" s="24"/>
+      <c r="AC100" s="24"/>
+      <c r="AD100" s="24"/>
+      <c r="AE100" s="24"/>
+      <c r="AF100" s="24"/>
+      <c r="AG100" s="24"/>
+      <c r="AH100" s="25"/>
     </row>
     <row r="101" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D101" s="15"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="21"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="21"/>
-      <c r="Y101" s="21"/>
-      <c r="Z101" s="21"/>
-      <c r="AA101" s="21"/>
-      <c r="AB101" s="21"/>
-      <c r="AC101" s="21"/>
-      <c r="AD101" s="21"/>
-      <c r="AE101" s="21"/>
-      <c r="AF101" s="21"/>
-      <c r="AG101" s="21"/>
-      <c r="AH101" s="22"/>
+      <c r="G101" s="29">
+        <v>5</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="17"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="17"/>
+      <c r="AB101" s="17"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="17"/>
+      <c r="AE101" s="17"/>
+      <c r="AF101" s="17"/>
+      <c r="AG101" s="17"/>
+      <c r="AH101" s="18"/>
     </row>
     <row r="102" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D102" s="15"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="25"/>
-      <c r="P102" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="24"/>
-      <c r="T102" s="24"/>
-      <c r="U102" s="24"/>
-      <c r="V102" s="24"/>
-      <c r="W102" s="24"/>
-      <c r="X102" s="24"/>
-      <c r="Y102" s="24"/>
-      <c r="Z102" s="24"/>
-      <c r="AA102" s="24"/>
-      <c r="AB102" s="24"/>
-      <c r="AC102" s="24"/>
-      <c r="AD102" s="24"/>
-      <c r="AE102" s="24"/>
-      <c r="AF102" s="24"/>
-      <c r="AG102" s="24"/>
-      <c r="AH102" s="25"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="21"/>
+      <c r="Y102" s="21"/>
+      <c r="Z102" s="21"/>
+      <c r="AA102" s="21"/>
+      <c r="AB102" s="21"/>
+      <c r="AC102" s="21"/>
+      <c r="AD102" s="21"/>
+      <c r="AE102" s="21"/>
+      <c r="AF102" s="21"/>
+      <c r="AG102" s="21"/>
+      <c r="AH102" s="22"/>
     </row>
     <row r="103" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D103" s="15"/>
-      <c r="G103" s="29">
-        <v>6</v>
-      </c>
-      <c r="H103" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="17"/>
-      <c r="T103" s="17"/>
-      <c r="U103" s="17"/>
-      <c r="V103" s="17"/>
-      <c r="W103" s="17"/>
-      <c r="X103" s="17"/>
-      <c r="Y103" s="17"/>
-      <c r="Z103" s="17"/>
-      <c r="AA103" s="17"/>
-      <c r="AB103" s="17"/>
-      <c r="AC103" s="17"/>
-      <c r="AD103" s="17"/>
-      <c r="AE103" s="17"/>
-      <c r="AF103" s="17"/>
-      <c r="AG103" s="17"/>
-      <c r="AH103" s="18"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="21"/>
+      <c r="AA103" s="21"/>
+      <c r="AB103" s="21"/>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="21"/>
+      <c r="AE103" s="21"/>
+      <c r="AF103" s="21"/>
+      <c r="AG103" s="21"/>
+      <c r="AH103" s="22"/>
     </row>
     <row r="104" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D104" s="15"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="22"/>
-      <c r="P104" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="21"/>
-      <c r="T104" s="21"/>
-      <c r="U104" s="21"/>
-      <c r="V104" s="21"/>
-      <c r="W104" s="21"/>
-      <c r="X104" s="21"/>
-      <c r="Y104" s="21"/>
-      <c r="Z104" s="21"/>
-      <c r="AA104" s="21"/>
-      <c r="AB104" s="21"/>
-      <c r="AC104" s="21"/>
-      <c r="AD104" s="21"/>
-      <c r="AE104" s="21"/>
-      <c r="AF104" s="21"/>
-      <c r="AG104" s="21"/>
-      <c r="AH104" s="22"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q104" s="24"/>
+      <c r="R104" s="24"/>
+      <c r="S104" s="24"/>
+      <c r="T104" s="24"/>
+      <c r="U104" s="24"/>
+      <c r="V104" s="24"/>
+      <c r="W104" s="24"/>
+      <c r="X104" s="24"/>
+      <c r="Y104" s="24"/>
+      <c r="Z104" s="24"/>
+      <c r="AA104" s="24"/>
+      <c r="AB104" s="24"/>
+      <c r="AC104" s="24"/>
+      <c r="AD104" s="24"/>
+      <c r="AE104" s="24"/>
+      <c r="AF104" s="24"/>
+      <c r="AG104" s="24"/>
+      <c r="AH104" s="25"/>
     </row>
     <row r="105" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D105" s="15"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="24"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="24"/>
-      <c r="N105" s="24"/>
-      <c r="O105" s="25"/>
-      <c r="P105" s="23" t="s">
+      <c r="G105" s="29">
+        <v>6</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="Q105" s="24"/>
-      <c r="R105" s="24"/>
-      <c r="S105" s="24"/>
-      <c r="T105" s="24"/>
-      <c r="U105" s="24"/>
-      <c r="V105" s="24"/>
-      <c r="W105" s="24"/>
-      <c r="X105" s="24"/>
-      <c r="Y105" s="24"/>
-      <c r="Z105" s="24"/>
-      <c r="AA105" s="24"/>
-      <c r="AB105" s="24"/>
-      <c r="AC105" s="24"/>
-      <c r="AD105" s="24"/>
-      <c r="AE105" s="24"/>
-      <c r="AF105" s="24"/>
-      <c r="AG105" s="24"/>
-      <c r="AH105" s="25"/>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="17"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="17"/>
+      <c r="X105" s="17"/>
+      <c r="Y105" s="17"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="17"/>
+      <c r="AB105" s="17"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="17"/>
+      <c r="AE105" s="17"/>
+      <c r="AF105" s="17"/>
+      <c r="AG105" s="17"/>
+      <c r="AH105" s="18"/>
     </row>
     <row r="106" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D106" s="15"/>
-      <c r="G106" s="29">
-        <v>7</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="18"/>
-      <c r="P106" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q106" s="17"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="17"/>
-      <c r="T106" s="17"/>
-      <c r="U106" s="17"/>
-      <c r="V106" s="17"/>
-      <c r="W106" s="17"/>
-      <c r="X106" s="17"/>
-      <c r="Y106" s="17"/>
-      <c r="Z106" s="17"/>
-      <c r="AA106" s="17"/>
-      <c r="AB106" s="17"/>
-      <c r="AC106" s="17"/>
-      <c r="AD106" s="17"/>
-      <c r="AE106" s="17"/>
-      <c r="AF106" s="17"/>
-      <c r="AG106" s="17"/>
-      <c r="AH106" s="18"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="21"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="21"/>
+      <c r="X106" s="21"/>
+      <c r="Y106" s="21"/>
+      <c r="Z106" s="21"/>
+      <c r="AA106" s="21"/>
+      <c r="AB106" s="21"/>
+      <c r="AC106" s="21"/>
+      <c r="AD106" s="21"/>
+      <c r="AE106" s="21"/>
+      <c r="AF106" s="21"/>
+      <c r="AG106" s="21"/>
+      <c r="AH106" s="22"/>
     </row>
     <row r="107" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="15"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I107" s="21"/>
-      <c r="J107" s="21"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="21"/>
-      <c r="M107" s="21"/>
-      <c r="N107" s="21"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q107" s="21"/>
-      <c r="R107" s="21"/>
-      <c r="S107" s="21"/>
-      <c r="T107" s="21"/>
-      <c r="U107" s="21"/>
-      <c r="V107" s="21"/>
-      <c r="W107" s="21"/>
-      <c r="X107" s="21"/>
-      <c r="Y107" s="21"/>
-      <c r="Z107" s="21"/>
-      <c r="AA107" s="21"/>
-      <c r="AB107" s="21"/>
-      <c r="AC107" s="21"/>
-      <c r="AD107" s="21"/>
-      <c r="AE107" s="21"/>
-      <c r="AF107" s="21"/>
-      <c r="AG107" s="21"/>
-      <c r="AH107" s="22"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q107" s="24"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="24"/>
+      <c r="T107" s="24"/>
+      <c r="U107" s="24"/>
+      <c r="V107" s="24"/>
+      <c r="W107" s="24"/>
+      <c r="X107" s="24"/>
+      <c r="Y107" s="24"/>
+      <c r="Z107" s="24"/>
+      <c r="AA107" s="24"/>
+      <c r="AB107" s="24"/>
+      <c r="AC107" s="24"/>
+      <c r="AD107" s="24"/>
+      <c r="AE107" s="24"/>
+      <c r="AF107" s="24"/>
+      <c r="AG107" s="24"/>
+      <c r="AH107" s="25"/>
     </row>
     <row r="108" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="21"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="21"/>
-      <c r="S108" s="21"/>
-      <c r="T108" s="21"/>
-      <c r="U108" s="21"/>
-      <c r="V108" s="21"/>
-      <c r="W108" s="21"/>
-      <c r="X108" s="21"/>
-      <c r="Y108" s="21"/>
-      <c r="Z108" s="21"/>
-      <c r="AA108" s="21"/>
-      <c r="AB108" s="21"/>
-      <c r="AC108" s="21"/>
-      <c r="AD108" s="21"/>
-      <c r="AE108" s="21"/>
-      <c r="AF108" s="21"/>
-      <c r="AG108" s="21"/>
-      <c r="AH108" s="22"/>
+      <c r="G108" s="29">
+        <v>7</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="17"/>
+      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="17"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="17"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="18"/>
     </row>
     <row r="109" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D109" s="15"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
-      <c r="N109" s="24"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q109" s="24"/>
-      <c r="R109" s="24"/>
-      <c r="S109" s="24"/>
-      <c r="T109" s="24"/>
-      <c r="U109" s="24"/>
-      <c r="V109" s="24"/>
-      <c r="W109" s="24"/>
-      <c r="X109" s="24"/>
-      <c r="Y109" s="24"/>
-      <c r="Z109" s="24"/>
-      <c r="AA109" s="24"/>
-      <c r="AB109" s="24"/>
-      <c r="AC109" s="24"/>
-      <c r="AD109" s="24"/>
-      <c r="AE109" s="24"/>
-      <c r="AF109" s="24"/>
-      <c r="AG109" s="24"/>
-      <c r="AH109" s="25"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q109" s="21"/>
+      <c r="R109" s="21"/>
+      <c r="S109" s="21"/>
+      <c r="T109" s="21"/>
+      <c r="U109" s="21"/>
+      <c r="V109" s="21"/>
+      <c r="W109" s="21"/>
+      <c r="X109" s="21"/>
+      <c r="Y109" s="21"/>
+      <c r="Z109" s="21"/>
+      <c r="AA109" s="21"/>
+      <c r="AB109" s="21"/>
+      <c r="AC109" s="21"/>
+      <c r="AD109" s="21"/>
+      <c r="AE109" s="21"/>
+      <c r="AF109" s="21"/>
+      <c r="AG109" s="21"/>
+      <c r="AH109" s="22"/>
     </row>
     <row r="110" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" s="15"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="21"/>
+      <c r="V110" s="21"/>
+      <c r="W110" s="21"/>
+      <c r="X110" s="21"/>
+      <c r="Y110" s="21"/>
+      <c r="Z110" s="21"/>
+      <c r="AA110" s="21"/>
+      <c r="AB110" s="21"/>
+      <c r="AC110" s="21"/>
+      <c r="AD110" s="21"/>
+      <c r="AE110" s="21"/>
+      <c r="AF110" s="21"/>
+      <c r="AG110" s="21"/>
+      <c r="AH110" s="22"/>
     </row>
     <row r="111" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" s="15"/>
-      <c r="F111" s="15" t="str">
-        <f>$E$80&amp;".2."</f>
-        <v>(3).2.</v>
-      </c>
-      <c r="G111" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="G111" s="31"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24"/>
+      <c r="T111" s="24"/>
+      <c r="U111" s="24"/>
+      <c r="V111" s="24"/>
+      <c r="W111" s="24"/>
+      <c r="X111" s="24"/>
+      <c r="Y111" s="24"/>
+      <c r="Z111" s="24"/>
+      <c r="AA111" s="24"/>
+      <c r="AB111" s="24"/>
+      <c r="AC111" s="24"/>
+      <c r="AD111" s="24"/>
+      <c r="AE111" s="24"/>
+      <c r="AF111" s="24"/>
+      <c r="AG111" s="24"/>
+      <c r="AH111" s="25"/>
     </row>
     <row r="112" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D112" s="15"/>
-      <c r="G112" s="19" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="113" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D113" s="15"/>
+      <c r="F113" s="15" t="str">
+        <f>$E$82&amp;".2."</f>
+        <v>(3).2.</v>
+      </c>
       <c r="G113" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D114" s="15"/>
       <c r="G114" s="19" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" s="15"/>
       <c r="G115" s="19" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D116" s="15"/>
+      <c r="G116" s="19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="117" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D117" s="15"/>
-      <c r="G117" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H117" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="27"/>
-      <c r="O117" s="28"/>
-      <c r="P117" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q117" s="27"/>
-      <c r="R117" s="27"/>
-      <c r="S117" s="27"/>
-      <c r="T117" s="27"/>
-      <c r="U117" s="27"/>
-      <c r="V117" s="27"/>
-      <c r="W117" s="27"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="27"/>
-      <c r="AA117" s="27"/>
-      <c r="AB117" s="27"/>
-      <c r="AC117" s="27"/>
-      <c r="AD117" s="27"/>
-      <c r="AE117" s="27"/>
-      <c r="AF117" s="27"/>
-      <c r="AG117" s="27"/>
-      <c r="AH117" s="28"/>
+      <c r="G117" s="19" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="118" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D118" s="15"/>
-      <c r="G118" s="29">
-        <v>1</v>
-      </c>
-      <c r="H118" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="17"/>
-      <c r="S118" s="17"/>
-      <c r="T118" s="17"/>
-      <c r="U118" s="17"/>
-      <c r="V118" s="17"/>
-      <c r="W118" s="17"/>
-      <c r="X118" s="17"/>
-      <c r="Y118" s="17"/>
-      <c r="Z118" s="17"/>
-      <c r="AA118" s="17"/>
-      <c r="AB118" s="17"/>
-      <c r="AC118" s="17"/>
-      <c r="AD118" s="17"/>
-      <c r="AE118" s="17"/>
-      <c r="AF118" s="17"/>
-      <c r="AG118" s="17"/>
-      <c r="AH118" s="18"/>
     </row>
     <row r="119" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D119" s="15"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="21"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="21"/>
-      <c r="S119" s="21"/>
-      <c r="T119" s="21"/>
-      <c r="U119" s="21"/>
-      <c r="V119" s="21"/>
-      <c r="W119" s="21"/>
-      <c r="X119" s="21"/>
-      <c r="Y119" s="21"/>
-      <c r="Z119" s="21"/>
-      <c r="AA119" s="21"/>
-      <c r="AB119" s="21"/>
-      <c r="AC119" s="21"/>
-      <c r="AD119" s="21"/>
-      <c r="AE119" s="21"/>
-      <c r="AF119" s="21"/>
-      <c r="AG119" s="21"/>
-      <c r="AH119" s="22"/>
+      <c r="G119" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="28"/>
+      <c r="P119" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q119" s="27"/>
+      <c r="R119" s="27"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="27"/>
+      <c r="U119" s="27"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+      <c r="AA119" s="27"/>
+      <c r="AB119" s="27"/>
+      <c r="AC119" s="27"/>
+      <c r="AD119" s="27"/>
+      <c r="AE119" s="27"/>
+      <c r="AF119" s="27"/>
+      <c r="AG119" s="27"/>
+      <c r="AH119" s="28"/>
     </row>
     <row r="120" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D120" s="15"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="24"/>
-      <c r="L120" s="24"/>
-      <c r="M120" s="24"/>
-      <c r="N120" s="24"/>
-      <c r="O120" s="25"/>
-      <c r="P120" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q120" s="24"/>
-      <c r="R120" s="24"/>
-      <c r="S120" s="24"/>
-      <c r="T120" s="24"/>
-      <c r="U120" s="24"/>
-      <c r="V120" s="24"/>
-      <c r="W120" s="24"/>
-      <c r="X120" s="24"/>
-      <c r="Y120" s="24"/>
-      <c r="Z120" s="24"/>
-      <c r="AA120" s="24"/>
-      <c r="AB120" s="24"/>
-      <c r="AC120" s="24"/>
-      <c r="AD120" s="24"/>
-      <c r="AE120" s="24"/>
-      <c r="AF120" s="24"/>
-      <c r="AG120" s="24"/>
-      <c r="AH120" s="25"/>
+      <c r="G120" s="29">
+        <v>1</v>
+      </c>
+      <c r="H120" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q120" s="17"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="17"/>
+      <c r="T120" s="17"/>
+      <c r="U120" s="17"/>
+      <c r="V120" s="17"/>
+      <c r="W120" s="17"/>
+      <c r="X120" s="17"/>
+      <c r="Y120" s="17"/>
+      <c r="Z120" s="17"/>
+      <c r="AA120" s="17"/>
+      <c r="AB120" s="17"/>
+      <c r="AC120" s="17"/>
+      <c r="AD120" s="17"/>
+      <c r="AE120" s="17"/>
+      <c r="AF120" s="17"/>
+      <c r="AG120" s="17"/>
+      <c r="AH120" s="18"/>
     </row>
     <row r="121" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D121" s="15"/>
-      <c r="G121" s="29">
-        <v>2</v>
-      </c>
-      <c r="H121" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q121" s="17"/>
-      <c r="R121" s="17"/>
-      <c r="S121" s="17"/>
-      <c r="T121" s="17"/>
-      <c r="U121" s="17"/>
-      <c r="V121" s="17"/>
-      <c r="W121" s="17"/>
-      <c r="X121" s="17"/>
-      <c r="Y121" s="17"/>
-      <c r="Z121" s="17"/>
-      <c r="AA121" s="17"/>
-      <c r="AB121" s="17"/>
-      <c r="AC121" s="17"/>
-      <c r="AD121" s="17"/>
-      <c r="AE121" s="17"/>
-      <c r="AF121" s="17"/>
-      <c r="AG121" s="17"/>
-      <c r="AH121" s="18"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q121" s="21"/>
+      <c r="R121" s="21"/>
+      <c r="S121" s="21"/>
+      <c r="T121" s="21"/>
+      <c r="U121" s="21"/>
+      <c r="V121" s="21"/>
+      <c r="W121" s="21"/>
+      <c r="X121" s="21"/>
+      <c r="Y121" s="21"/>
+      <c r="Z121" s="21"/>
+      <c r="AA121" s="21"/>
+      <c r="AB121" s="21"/>
+      <c r="AC121" s="21"/>
+      <c r="AD121" s="21"/>
+      <c r="AE121" s="21"/>
+      <c r="AF121" s="21"/>
+      <c r="AG121" s="21"/>
+      <c r="AH121" s="22"/>
     </row>
     <row r="122" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D122" s="15"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I122" s="21"/>
-      <c r="J122" s="21"/>
-      <c r="K122" s="21"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="21"/>
-      <c r="O122" s="22"/>
-      <c r="P122" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q122" s="21"/>
-      <c r="R122" s="21"/>
-      <c r="S122" s="21"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="21"/>
-      <c r="V122" s="21"/>
-      <c r="W122" s="21"/>
-      <c r="X122" s="21"/>
-      <c r="Y122" s="21"/>
-      <c r="Z122" s="21"/>
-      <c r="AA122" s="21"/>
-      <c r="AB122" s="21"/>
-      <c r="AC122" s="21"/>
-      <c r="AD122" s="21"/>
-      <c r="AE122" s="21"/>
-      <c r="AF122" s="21"/>
-      <c r="AG122" s="21"/>
-      <c r="AH122" s="22"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+      <c r="O122" s="25"/>
+      <c r="P122" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="24"/>
+      <c r="S122" s="24"/>
+      <c r="T122" s="24"/>
+      <c r="U122" s="24"/>
+      <c r="V122" s="24"/>
+      <c r="W122" s="24"/>
+      <c r="X122" s="24"/>
+      <c r="Y122" s="24"/>
+      <c r="Z122" s="24"/>
+      <c r="AA122" s="24"/>
+      <c r="AB122" s="24"/>
+      <c r="AC122" s="24"/>
+      <c r="AD122" s="24"/>
+      <c r="AE122" s="24"/>
+      <c r="AF122" s="24"/>
+      <c r="AG122" s="24"/>
+      <c r="AH122" s="25"/>
     </row>
     <row r="123" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D123" s="15"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
-      <c r="M123" s="21"/>
-      <c r="N123" s="21"/>
-      <c r="O123" s="22"/>
-      <c r="P123" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q123" s="21"/>
-      <c r="R123" s="21"/>
-      <c r="S123" s="21"/>
-      <c r="T123" s="21"/>
-      <c r="U123" s="21"/>
-      <c r="V123" s="21"/>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-      <c r="Y123" s="21"/>
-      <c r="Z123" s="21"/>
-      <c r="AA123" s="21"/>
-      <c r="AB123" s="21"/>
-      <c r="AC123" s="21"/>
-      <c r="AD123" s="21"/>
-      <c r="AE123" s="21"/>
-      <c r="AF123" s="21"/>
-      <c r="AG123" s="21"/>
-      <c r="AH123" s="22"/>
+      <c r="G123" s="29">
+        <v>2</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q123" s="17"/>
+      <c r="R123" s="17"/>
+      <c r="S123" s="17"/>
+      <c r="T123" s="17"/>
+      <c r="U123" s="17"/>
+      <c r="V123" s="17"/>
+      <c r="W123" s="17"/>
+      <c r="X123" s="17"/>
+      <c r="Y123" s="17"/>
+      <c r="Z123" s="17"/>
+      <c r="AA123" s="17"/>
+      <c r="AB123" s="17"/>
+      <c r="AC123" s="17"/>
+      <c r="AD123" s="17"/>
+      <c r="AE123" s="17"/>
+      <c r="AF123" s="17"/>
+      <c r="AG123" s="17"/>
+      <c r="AH123" s="18"/>
     </row>
     <row r="124" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D124" s="15"/>
-      <c r="G124" s="31"/>
-      <c r="H124" s="23"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
-      <c r="M124" s="24"/>
-      <c r="N124" s="24"/>
-      <c r="O124" s="25"/>
-      <c r="P124" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q124" s="24"/>
-      <c r="R124" s="24"/>
-      <c r="S124" s="24"/>
-      <c r="T124" s="24"/>
-      <c r="U124" s="24"/>
-      <c r="V124" s="24"/>
-      <c r="W124" s="24"/>
-      <c r="X124" s="24"/>
-      <c r="Y124" s="24"/>
-      <c r="Z124" s="24"/>
-      <c r="AA124" s="24"/>
-      <c r="AB124" s="24"/>
-      <c r="AC124" s="24"/>
-      <c r="AD124" s="24"/>
-      <c r="AE124" s="24"/>
-      <c r="AF124" s="24"/>
-      <c r="AG124" s="24"/>
-      <c r="AH124" s="25"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q124" s="21"/>
+      <c r="R124" s="21"/>
+      <c r="S124" s="21"/>
+      <c r="T124" s="21"/>
+      <c r="U124" s="21"/>
+      <c r="V124" s="21"/>
+      <c r="W124" s="21"/>
+      <c r="X124" s="21"/>
+      <c r="Y124" s="21"/>
+      <c r="Z124" s="21"/>
+      <c r="AA124" s="21"/>
+      <c r="AB124" s="21"/>
+      <c r="AC124" s="21"/>
+      <c r="AD124" s="21"/>
+      <c r="AE124" s="21"/>
+      <c r="AF124" s="21"/>
+      <c r="AG124" s="21"/>
+      <c r="AH124" s="22"/>
     </row>
     <row r="125" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q125" s="21"/>
+      <c r="R125" s="21"/>
+      <c r="S125" s="21"/>
+      <c r="T125" s="21"/>
+      <c r="U125" s="21"/>
+      <c r="V125" s="21"/>
+      <c r="W125" s="21"/>
+      <c r="X125" s="21"/>
+      <c r="Y125" s="21"/>
+      <c r="Z125" s="21"/>
+      <c r="AA125" s="21"/>
+      <c r="AB125" s="21"/>
+      <c r="AC125" s="21"/>
+      <c r="AD125" s="21"/>
+      <c r="AE125" s="21"/>
+      <c r="AF125" s="21"/>
+      <c r="AG125" s="21"/>
+      <c r="AH125" s="22"/>
     </row>
     <row r="126" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D126" s="15"/>
-      <c r="F126" s="15" t="str">
-        <f>$E$80&amp;".3."</f>
-        <v>(3).3.</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>46</v>
-      </c>
+      <c r="G126" s="31"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="25"/>
+      <c r="P126" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q126" s="24"/>
+      <c r="R126" s="24"/>
+      <c r="S126" s="24"/>
+      <c r="T126" s="24"/>
+      <c r="U126" s="24"/>
+      <c r="V126" s="24"/>
+      <c r="W126" s="24"/>
+      <c r="X126" s="24"/>
+      <c r="Y126" s="24"/>
+      <c r="Z126" s="24"/>
+      <c r="AA126" s="24"/>
+      <c r="AB126" s="24"/>
+      <c r="AC126" s="24"/>
+      <c r="AD126" s="24"/>
+      <c r="AE126" s="24"/>
+      <c r="AF126" s="24"/>
+      <c r="AG126" s="24"/>
+      <c r="AH126" s="25"/>
     </row>
     <row r="127" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="19" t="s">
-        <v>47</v>
-      </c>
+      <c r="E127" s="15"/>
     </row>
     <row r="128" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D128" s="15"/>
-      <c r="F128" s="15"/>
+      <c r="F128" s="15" t="str">
+        <f>$E$82&amp;".3."</f>
+        <v>(3).3.</v>
+      </c>
       <c r="G128" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D129" s="15"/>
       <c r="F129" s="15"/>
+      <c r="G129" s="19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="130" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D130" s="15"/>
       <c r="F130" s="15"/>
-      <c r="G130" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H130" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="28"/>
-      <c r="P130" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q130" s="27"/>
-      <c r="R130" s="27"/>
-      <c r="S130" s="27"/>
-      <c r="T130" s="27"/>
-      <c r="U130" s="27"/>
-      <c r="V130" s="27"/>
-      <c r="W130" s="27"/>
-      <c r="X130" s="27"/>
-      <c r="Y130" s="27"/>
-      <c r="Z130" s="27"/>
-      <c r="AA130" s="27"/>
-      <c r="AB130" s="27"/>
-      <c r="AC130" s="27"/>
-      <c r="AD130" s="27"/>
-      <c r="AE130" s="27"/>
-      <c r="AF130" s="27"/>
-      <c r="AG130" s="27"/>
-      <c r="AH130" s="28"/>
-      <c r="AI130" s="15"/>
+      <c r="G130" s="19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="131" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D131" s="15"/>
-      <c r="G131" s="29">
-        <v>1</v>
-      </c>
-      <c r="H131" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="18"/>
-      <c r="P131" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q131" s="17"/>
-      <c r="R131" s="17"/>
-      <c r="S131" s="17"/>
-      <c r="T131" s="17"/>
-      <c r="U131" s="17"/>
-      <c r="V131" s="17"/>
-      <c r="W131" s="17"/>
-      <c r="X131" s="17"/>
-      <c r="Y131" s="17"/>
-      <c r="Z131" s="17"/>
-      <c r="AA131" s="17"/>
-      <c r="AB131" s="17"/>
-      <c r="AC131" s="17"/>
-      <c r="AD131" s="17"/>
-      <c r="AE131" s="17"/>
-      <c r="AF131" s="17"/>
-      <c r="AG131" s="17"/>
-      <c r="AH131" s="18"/>
-      <c r="AI131" s="15"/>
+      <c r="F131" s="15"/>
     </row>
     <row r="132" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D132" s="15"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I132" s="21"/>
-      <c r="J132" s="21"/>
-      <c r="K132" s="21"/>
-      <c r="L132" s="21"/>
-      <c r="M132" s="21"/>
-      <c r="N132" s="21"/>
-      <c r="O132" s="22"/>
-      <c r="P132" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q132" s="21"/>
-      <c r="R132" s="21"/>
-      <c r="S132" s="21"/>
-      <c r="T132" s="21"/>
-      <c r="U132" s="21"/>
-      <c r="V132" s="21"/>
-      <c r="W132" s="21"/>
-      <c r="X132" s="21"/>
-      <c r="Y132" s="21"/>
-      <c r="Z132" s="21"/>
-      <c r="AA132" s="21"/>
-      <c r="AB132" s="21"/>
-      <c r="AC132" s="21"/>
-      <c r="AD132" s="21"/>
-      <c r="AE132" s="21"/>
-      <c r="AF132" s="21"/>
-      <c r="AG132" s="21"/>
-      <c r="AH132" s="22"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="28"/>
+      <c r="P132" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q132" s="27"/>
+      <c r="R132" s="27"/>
+      <c r="S132" s="27"/>
+      <c r="T132" s="27"/>
+      <c r="U132" s="27"/>
+      <c r="V132" s="27"/>
+      <c r="W132" s="27"/>
+      <c r="X132" s="27"/>
+      <c r="Y132" s="27"/>
+      <c r="Z132" s="27"/>
+      <c r="AA132" s="27"/>
+      <c r="AB132" s="27"/>
+      <c r="AC132" s="27"/>
+      <c r="AD132" s="27"/>
+      <c r="AE132" s="27"/>
+      <c r="AF132" s="27"/>
+      <c r="AG132" s="27"/>
+      <c r="AH132" s="28"/>
       <c r="AI132" s="15"/>
     </row>
     <row r="133" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D133" s="15"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21"/>
-      <c r="K133" s="21"/>
-      <c r="L133" s="21"/>
-      <c r="M133" s="21"/>
-      <c r="N133" s="21"/>
-      <c r="O133" s="22"/>
-      <c r="P133" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q133" s="21"/>
-      <c r="R133" s="21"/>
-      <c r="S133" s="21"/>
-      <c r="T133" s="21"/>
-      <c r="U133" s="21"/>
-      <c r="V133" s="21"/>
-      <c r="W133" s="21"/>
-      <c r="X133" s="21"/>
-      <c r="Y133" s="21"/>
-      <c r="Z133" s="21"/>
-      <c r="AA133" s="21"/>
-      <c r="AB133" s="21"/>
-      <c r="AC133" s="21"/>
-      <c r="AD133" s="21"/>
-      <c r="AE133" s="21"/>
-      <c r="AF133" s="21"/>
-      <c r="AG133" s="21"/>
-      <c r="AH133" s="22"/>
+      <c r="G133" s="29">
+        <v>1</v>
+      </c>
+      <c r="H133" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q133" s="17"/>
+      <c r="R133" s="17"/>
+      <c r="S133" s="17"/>
+      <c r="T133" s="17"/>
+      <c r="U133" s="17"/>
+      <c r="V133" s="17"/>
+      <c r="W133" s="17"/>
+      <c r="X133" s="17"/>
+      <c r="Y133" s="17"/>
+      <c r="Z133" s="17"/>
+      <c r="AA133" s="17"/>
+      <c r="AB133" s="17"/>
+      <c r="AC133" s="17"/>
+      <c r="AD133" s="17"/>
+      <c r="AE133" s="17"/>
+      <c r="AF133" s="17"/>
+      <c r="AG133" s="17"/>
+      <c r="AH133" s="18"/>
       <c r="AI133" s="15"/>
     </row>
     <row r="134" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D134" s="15"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="23"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="24"/>
-      <c r="K134" s="24"/>
-      <c r="L134" s="24"/>
-      <c r="M134" s="24"/>
-      <c r="N134" s="24"/>
-      <c r="O134" s="25"/>
-      <c r="P134" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q134" s="24"/>
-      <c r="R134" s="24"/>
-      <c r="S134" s="24"/>
-      <c r="T134" s="24"/>
-      <c r="U134" s="24"/>
-      <c r="V134" s="24"/>
-      <c r="W134" s="24"/>
-      <c r="X134" s="24"/>
-      <c r="Y134" s="24"/>
-      <c r="Z134" s="24"/>
-      <c r="AA134" s="24"/>
-      <c r="AB134" s="24"/>
-      <c r="AC134" s="24"/>
-      <c r="AD134" s="24"/>
-      <c r="AE134" s="24"/>
-      <c r="AF134" s="24"/>
-      <c r="AG134" s="24"/>
-      <c r="AH134" s="25"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="21"/>
+      <c r="M134" s="21"/>
+      <c r="N134" s="21"/>
+      <c r="O134" s="22"/>
+      <c r="P134" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q134" s="21"/>
+      <c r="R134" s="21"/>
+      <c r="S134" s="21"/>
+      <c r="T134" s="21"/>
+      <c r="U134" s="21"/>
+      <c r="V134" s="21"/>
+      <c r="W134" s="21"/>
+      <c r="X134" s="21"/>
+      <c r="Y134" s="21"/>
+      <c r="Z134" s="21"/>
+      <c r="AA134" s="21"/>
+      <c r="AB134" s="21"/>
+      <c r="AC134" s="21"/>
+      <c r="AD134" s="21"/>
+      <c r="AE134" s="21"/>
+      <c r="AF134" s="21"/>
+      <c r="AG134" s="21"/>
+      <c r="AH134" s="22"/>
       <c r="AI134" s="15"/>
     </row>
     <row r="135" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D135" s="15"/>
-      <c r="G135" s="29">
-        <v>2</v>
-      </c>
-      <c r="H135" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I135" s="17"/>
-      <c r="J135" s="17"/>
-      <c r="K135" s="17"/>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="18"/>
-      <c r="P135" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q135" s="17"/>
-      <c r="R135" s="17"/>
-      <c r="S135" s="17"/>
-      <c r="T135" s="17"/>
-      <c r="U135" s="17"/>
-      <c r="V135" s="17"/>
-      <c r="W135" s="17"/>
-      <c r="X135" s="17"/>
-      <c r="Y135" s="17"/>
-      <c r="Z135" s="17"/>
-      <c r="AA135" s="17"/>
-      <c r="AB135" s="17"/>
-      <c r="AC135" s="17"/>
-      <c r="AD135" s="17"/>
-      <c r="AE135" s="17"/>
-      <c r="AF135" s="17"/>
-      <c r="AG135" s="17"/>
-      <c r="AH135" s="18"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="21"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="21"/>
+      <c r="M135" s="21"/>
+      <c r="N135" s="21"/>
+      <c r="O135" s="22"/>
+      <c r="P135" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q135" s="21"/>
+      <c r="R135" s="21"/>
+      <c r="S135" s="21"/>
+      <c r="T135" s="21"/>
+      <c r="U135" s="21"/>
+      <c r="V135" s="21"/>
+      <c r="W135" s="21"/>
+      <c r="X135" s="21"/>
+      <c r="Y135" s="21"/>
+      <c r="Z135" s="21"/>
+      <c r="AA135" s="21"/>
+      <c r="AB135" s="21"/>
+      <c r="AC135" s="21"/>
+      <c r="AD135" s="21"/>
+      <c r="AE135" s="21"/>
+      <c r="AF135" s="21"/>
+      <c r="AG135" s="21"/>
+      <c r="AH135" s="22"/>
       <c r="AI135" s="15"/>
     </row>
     <row r="136" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D136" s="15"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I136" s="21"/>
-      <c r="J136" s="21"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="21"/>
-      <c r="M136" s="21"/>
-      <c r="N136" s="21"/>
-      <c r="O136" s="22"/>
-      <c r="P136" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q136" s="21"/>
-      <c r="R136" s="21"/>
-      <c r="S136" s="21"/>
-      <c r="T136" s="21"/>
-      <c r="U136" s="21"/>
-      <c r="V136" s="21"/>
-      <c r="W136" s="21"/>
-      <c r="X136" s="21"/>
-      <c r="Y136" s="21"/>
-      <c r="Z136" s="21"/>
-      <c r="AA136" s="21"/>
-      <c r="AB136" s="21"/>
-      <c r="AC136" s="21"/>
-      <c r="AD136" s="21"/>
-      <c r="AE136" s="21"/>
-      <c r="AF136" s="21"/>
-      <c r="AG136" s="21"/>
-      <c r="AH136" s="22"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="24"/>
+      <c r="M136" s="24"/>
+      <c r="N136" s="24"/>
+      <c r="O136" s="25"/>
+      <c r="P136" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q136" s="24"/>
+      <c r="R136" s="24"/>
+      <c r="S136" s="24"/>
+      <c r="T136" s="24"/>
+      <c r="U136" s="24"/>
+      <c r="V136" s="24"/>
+      <c r="W136" s="24"/>
+      <c r="X136" s="24"/>
+      <c r="Y136" s="24"/>
+      <c r="Z136" s="24"/>
+      <c r="AA136" s="24"/>
+      <c r="AB136" s="24"/>
+      <c r="AC136" s="24"/>
+      <c r="AD136" s="24"/>
+      <c r="AE136" s="24"/>
+      <c r="AF136" s="24"/>
+      <c r="AG136" s="24"/>
+      <c r="AH136" s="25"/>
+      <c r="AI136" s="15"/>
     </row>
     <row r="137" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D137" s="15"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
-      <c r="K137" s="24"/>
-      <c r="L137" s="24"/>
-      <c r="M137" s="24"/>
-      <c r="N137" s="24"/>
-      <c r="O137" s="25"/>
-      <c r="P137" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q137" s="24"/>
-      <c r="R137" s="24"/>
-      <c r="S137" s="24"/>
-      <c r="T137" s="24"/>
-      <c r="U137" s="24"/>
-      <c r="V137" s="24"/>
-      <c r="W137" s="24"/>
-      <c r="X137" s="24"/>
-      <c r="Y137" s="24"/>
-      <c r="Z137" s="24"/>
-      <c r="AA137" s="24"/>
-      <c r="AB137" s="24"/>
-      <c r="AC137" s="24"/>
-      <c r="AD137" s="24"/>
-      <c r="AE137" s="24"/>
-      <c r="AF137" s="24"/>
-      <c r="AG137" s="24"/>
-      <c r="AH137" s="25"/>
+      <c r="G137" s="29">
+        <v>2</v>
+      </c>
+      <c r="H137" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="18"/>
+      <c r="P137" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q137" s="17"/>
+      <c r="R137" s="17"/>
+      <c r="S137" s="17"/>
+      <c r="T137" s="17"/>
+      <c r="U137" s="17"/>
+      <c r="V137" s="17"/>
+      <c r="W137" s="17"/>
+      <c r="X137" s="17"/>
+      <c r="Y137" s="17"/>
+      <c r="Z137" s="17"/>
+      <c r="AA137" s="17"/>
+      <c r="AB137" s="17"/>
+      <c r="AC137" s="17"/>
+      <c r="AD137" s="17"/>
+      <c r="AE137" s="17"/>
+      <c r="AF137" s="17"/>
+      <c r="AG137" s="17"/>
+      <c r="AH137" s="18"/>
+      <c r="AI137" s="15"/>
     </row>
     <row r="138" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D138" s="15"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="21"/>
+      <c r="M138" s="21"/>
+      <c r="N138" s="21"/>
+      <c r="O138" s="22"/>
+      <c r="P138" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q138" s="21"/>
+      <c r="R138" s="21"/>
+      <c r="S138" s="21"/>
+      <c r="T138" s="21"/>
+      <c r="U138" s="21"/>
+      <c r="V138" s="21"/>
+      <c r="W138" s="21"/>
+      <c r="X138" s="21"/>
+      <c r="Y138" s="21"/>
+      <c r="Z138" s="21"/>
+      <c r="AA138" s="21"/>
+      <c r="AB138" s="21"/>
+      <c r="AC138" s="21"/>
+      <c r="AD138" s="21"/>
+      <c r="AE138" s="21"/>
+      <c r="AF138" s="21"/>
+      <c r="AG138" s="21"/>
+      <c r="AH138" s="22"/>
     </row>
     <row r="139" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D139" s="15"/>
-      <c r="E139" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="G139" s="31"/>
+      <c r="H139" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
+      <c r="M139" s="24"/>
+      <c r="N139" s="24"/>
+      <c r="O139" s="25"/>
+      <c r="P139" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q139" s="24"/>
+      <c r="R139" s="24"/>
+      <c r="S139" s="24"/>
+      <c r="T139" s="24"/>
+      <c r="U139" s="24"/>
+      <c r="V139" s="24"/>
+      <c r="W139" s="24"/>
+      <c r="X139" s="24"/>
+      <c r="Y139" s="24"/>
+      <c r="Z139" s="24"/>
+      <c r="AA139" s="24"/>
+      <c r="AB139" s="24"/>
+      <c r="AC139" s="24"/>
+      <c r="AD139" s="24"/>
+      <c r="AE139" s="24"/>
+      <c r="AF139" s="24"/>
+      <c r="AG139" s="24"/>
+      <c r="AH139" s="25"/>
     </row>
     <row r="140" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D140" s="15"/>
-      <c r="F140" s="15" t="str">
-        <f>$E$139&amp;".1."</f>
-        <v>(4).1.</v>
-      </c>
-      <c r="G140" s="19" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="141" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="19" t="s">
-        <v>66</v>
+      <c r="E141" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F141" s="19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D142" s="15"/>
-      <c r="F142" s="15"/>
+      <c r="F142" s="15" t="str">
+        <f>$E$141&amp;".1."</f>
+        <v>(4).1.</v>
+      </c>
       <c r="G142" s="19" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="143" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="19" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="144" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D144" s="15"/>
-      <c r="E144" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F144" s="19" t="s">
-        <v>127</v>
+      <c r="F144" s="15"/>
+      <c r="G144" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D145" s="15"/>
-      <c r="F145" s="15" t="str">
-        <f>$E$144&amp;".1."</f>
-        <v>(5).1.</v>
-      </c>
-      <c r="G145" s="19" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D146" s="15"/>
-      <c r="G146" s="19" t="s">
-        <v>129</v>
+      <c r="E146" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F146" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D147" s="15"/>
+      <c r="F147" s="15" t="str">
+        <f>$E$146&amp;".1."</f>
+        <v>(5).1.</v>
+      </c>
       <c r="G147" s="19" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D148" s="15"/>
+      <c r="G148" s="19" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="149" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D149" s="15" t="str">
-        <f>$C$7&amp;"4."</f>
-        <v>6.1.4.</v>
-      </c>
-      <c r="E149" s="19" t="s">
-        <v>100</v>
+      <c r="D149" s="15"/>
+      <c r="G149" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D150" s="33"/>
-      <c r="E150" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F150" s="19" t="s">
+      <c r="D150" s="15"/>
+    </row>
+    <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="33"/>
+      <c r="E151" s="32" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="34"/>
       <c r="F151" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="34"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="32"/>
       <c r="F152" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="34"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="19" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="154" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="34"/>
+      <c r="D154" s="33"/>
+      <c r="F154" s="15"/>
     </row>
     <row r="155" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D155" s="34"/>
     </row>
-    <row r="156" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D156" s="34"/>
-    </row>
-    <row r="157" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D157" s="34"/>
-    </row>
-    <row r="158" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D158" s="34"/>
-    </row>
-    <row r="159" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D159" s="34"/>
-    </row>
-    <row r="160" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D160" s="34"/>
-    </row>
-    <row r="161" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D161" s="34"/>
-    </row>
-    <row r="162" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D162" s="34"/>
-    </row>
-    <row r="163" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D163" s="34"/>
-    </row>
-    <row r="164" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D164" s="34"/>
-    </row>
-    <row r="165" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D165" s="34"/>
-    </row>
-    <row r="166" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D166" s="34"/>
-    </row>
-    <row r="167" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D167" s="34"/>
-    </row>
-    <row r="168" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D168" s="34"/>
-    </row>
-    <row r="169" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D169" s="34"/>
-    </row>
-    <row r="170" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D170" s="34"/>
-    </row>
-    <row r="171" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D171" s="34"/>
-    </row>
-    <row r="172" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D172" s="34"/>
-    </row>
-    <row r="173" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D173" s="34"/>
-    </row>
-    <row r="174" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D174" s="34"/>
-    </row>
-    <row r="175" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D175" s="34"/>
-    </row>
-    <row r="176" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D176" s="34"/>
-    </row>
-    <row r="177" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D177" s="34"/>
-    </row>
-    <row r="178" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D178" s="33"/>
-      <c r="E178" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="F178" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="179" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D179" s="33"/>
-      <c r="F179" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="180" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D180" s="33"/>
-      <c r="F180" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="181" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D181" s="33"/>
-      <c r="G181" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="182" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D182" s="33"/>
-      <c r="F182" s="15"/>
-    </row>
-    <row r="183" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D183" s="34"/>
-    </row>
-    <row r="184" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5180,11 +5077,10 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="4" manualBreakCount="4">
-    <brk id="28" max="34" man="1"/>
-    <brk id="74" max="34" man="1"/>
-    <brk id="110" max="34" man="1"/>
-    <brk id="148" max="34" man="1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="30" max="34" man="1"/>
+    <brk id="76" max="34" man="1"/>
+    <brk id="112" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.1.メッセージ仕向け(REST).xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104ED3A8-D5F5-485D-80C2-FE0F0490F28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478ECD21-9A8E-4159-A425-ABC6EDF749A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.1.メッセージ仕向け" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$155</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.1.メッセージ仕向け'!$A$1:$AI$156</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -642,14 +642,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>JAX-RS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JAX-WS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>準拠方式</t>
     <rPh sb="0" eb="2">
       <t>ジュンキョ</t>
@@ -712,38 +704,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムでは、オンラインおよび一部バッチで外部システムとの連携に</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接続先提供のREST-APIを使用するため。</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(4)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -916,18 +876,12 @@
     <t>取引が成立していれば、取消し電文を送信後、最初から処理を再実行する。</t>
   </si>
   <si>
-    <t>業務処理から要求データ（JavaBean形式）をJAX-RS実装APIに引き渡す。</t>
-  </si>
-  <si>
     <t>この際、接続先システムはプロパティファイルで管理する。</t>
   </si>
   <si>
     <t>その後はAPIから制御が返される（=応答データが届く）まで待機状態となる。</t>
   </si>
   <si>
-    <t>JAX-RS実装APIが、応答電文（JSON形式）を受信し、エラー判定およびエラー処理を行う。</t>
-  </si>
-  <si>
     <t>また、応答電文から応答データ（JavaBean形式）を作成し、待機状態の業務処理に返却する。</t>
   </si>
   <si>
@@ -935,10 +889,6 @@
   </si>
   <si>
     <t>応答データのエラー判定およびエラー処理は業務処理にて行う。</t>
-  </si>
-  <si>
-    <t>JAX-RS実装APIが、要求データを要求電文（JSON形式）に変換し、</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>接続先システムのWebサービスに対して電文を送信する。</t>
@@ -1323,23 +1273,73 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※JAX-RSの実装としては参照実装であるEclipse Jerseyを使用する。</t>
-    <rPh sb="8" eb="10">
+    <t>(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jakarta RESTful Web Services</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、オンラインおよび一部バッチで</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外部システムとの連携に接続先提供のREST-APIを使用するため。</t>
+    <rPh sb="11" eb="13">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※Jakarta RESTful Web Servicesの実装としては参照実装であるEclipse Jerseyを使用する。</t>
+    <rPh sb="30" eb="32">
       <t>ジッソウ</t>
     </rPh>
-    <rPh sb="14" eb="16">
+    <rPh sb="36" eb="38">
       <t>サンショウ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="38" eb="40">
       <t>ジッソウ</t>
     </rPh>
-    <rPh sb="36" eb="38">
+    <rPh sb="58" eb="60">
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(6)</t>
+    <t>業務処理から要求データ（JavaBean形式）をJakarta RESTful Web Services実装APIに引き渡す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jakarta RESTful Web Services実装APIが、要求データを要求電文（JSON形式）に変換し、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jakarta RESTful Web Services実装APIが、応答電文（JSON形式）を受信し、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー判定およびエラー処理を行う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jakarta XML Web Services</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1796,22 +1796,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>117567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84521006-B798-40B4-B8F1-FA63D52FDEEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,15 +1833,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="4543425"/>
-          <a:ext cx="4838700" cy="3819525"/>
+          <a:off x="1308100" y="4654550"/>
+          <a:ext cx="4813300" cy="3540217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2175,16 +2175,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI156"/>
+  <dimension ref="A1:AI157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="19"/>
+    <col min="1" max="16384" width="3.6328125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="41" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="S1" s="42"/>
       <c r="T1" s="42"/>
@@ -2229,7 +2229,7 @@
       <c r="AH1" s="36"/>
       <c r="AI1" s="37"/>
     </row>
-    <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="AH2" s="36"/>
       <c r="AI2" s="37"/>
     </row>
-    <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2315,8 +2315,8 @@
       <c r="AH3" s="36"/>
       <c r="AI3" s="37"/>
     </row>
-    <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
@@ -2324,8 +2324,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="15" t="str">
         <f>$B$5&amp;"1."</f>
         <v>6.1.</v>
@@ -2334,10 +2334,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="str">
         <f>$C$7&amp;"1."</f>
@@ -2348,22 +2348,22 @@
         <v>メッセージ仕向け（HTTP/HTTPS）の機能概要</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="15"/>
       <c r="E10" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="15"/>
       <c r="E11" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="str">
         <f>$C$7&amp;"2."</f>
@@ -2374,30 +2374,30 @@
         <v>メッセージ仕向け（HTTP/HTTPS）の方法</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="15"/>
       <c r="E14" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="15"/>
       <c r="E16" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="26" t="s">
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
@@ -2414,21 +2414,21 @@
       <c r="AA16" s="27"/>
       <c r="AB16" s="28"/>
     </row>
-    <row r="17" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="15"/>
       <c r="E17" s="16" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
@@ -2445,19 +2445,19 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="18"/>
     </row>
-    <row r="18" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="15"/>
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -2474,21 +2474,21 @@
       <c r="AA18" s="24"/>
       <c r="AB18" s="25"/>
     </row>
-    <row r="19" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="15"/>
       <c r="E19" s="16" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
@@ -2505,17 +2505,17 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="18"/>
     </row>
-    <row r="20" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="15"/>
       <c r="E20" s="23"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="23"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -2532,37 +2532,37 @@
       <c r="AA20" s="24"/>
       <c r="AB20" s="25"/>
     </row>
-    <row r="21" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="15"/>
       <c r="E22" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="15"/>
       <c r="E23" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="27" t="s">
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
       <c r="N23" s="27"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="26" t="s">
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
       <c r="U23" s="27"/>
@@ -2577,28 +2577,28 @@
       <c r="AD23" s="27"/>
       <c r="AE23" s="28"/>
     </row>
-    <row r="24" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="15"/>
       <c r="E24" s="16" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="17" t="s">
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
@@ -2613,24 +2613,24 @@
       <c r="AD24" s="17"/>
       <c r="AE24" s="18"/>
     </row>
-    <row r="25" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="15"/>
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="23"/>
       <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="23" t="s">
+        <v>130</v>
+      </c>
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
       <c r="U25" s="24"/>
@@ -2645,28 +2645,28 @@
       <c r="AD25" s="24"/>
       <c r="AE25" s="25"/>
     </row>
-    <row r="26" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="15"/>
       <c r="E26" s="16" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="17" t="s">
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -2681,22 +2681,22 @@
       <c r="AD26" s="17"/>
       <c r="AE26" s="18"/>
     </row>
-    <row r="27" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="15"/>
       <c r="E27" s="23"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="23"/>
       <c r="N27" s="24"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="23"/>
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
       <c r="U27" s="24"/>
@@ -2711,7 +2711,7 @@
       <c r="AD27" s="24"/>
       <c r="AE27" s="25"/>
     </row>
-    <row r="28" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -2741,10 +2741,10 @@
       <c r="AD28" s="21"/>
       <c r="AE28" s="21"/>
     </row>
-    <row r="29" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="15"/>
       <c r="E29" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -2773,10 +2773,10 @@
       <c r="AD29" s="21"/>
       <c r="AE29" s="21"/>
     </row>
-    <row r="30" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="15"/>
       <c r="D31" s="15" t="str">
         <f>$C$7&amp;"3."</f>
@@ -2787,7 +2787,7 @@
         <v>メッセージ仕向け（HTTP/HTTPS）機能詳細</v>
       </c>
     </row>
-    <row r="32" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="15"/>
       <c r="E32" s="32" t="s">
         <v>57</v>
@@ -2796,476 +2796,502 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="15"/>
       <c r="E33" s="32"/>
     </row>
-    <row r="34" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="15"/>
       <c r="E34" s="32"/>
     </row>
-    <row r="35" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="15"/>
       <c r="E35" s="32"/>
     </row>
-    <row r="36" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="15"/>
       <c r="E36" s="32"/>
     </row>
-    <row r="37" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="15"/>
       <c r="E37" s="32"/>
     </row>
-    <row r="38" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="15"/>
       <c r="E38" s="32"/>
     </row>
-    <row r="39" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="15"/>
       <c r="E39" s="32"/>
     </row>
-    <row r="40" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="15"/>
       <c r="E40" s="32"/>
     </row>
-    <row r="41" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="15"/>
       <c r="E41" s="32"/>
     </row>
-    <row r="42" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="15"/>
       <c r="E42" s="32"/>
     </row>
-    <row r="43" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="15"/>
       <c r="E43" s="32"/>
     </row>
-    <row r="44" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="15"/>
       <c r="E44" s="32"/>
     </row>
-    <row r="45" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="15"/>
       <c r="E45" s="32"/>
     </row>
-    <row r="46" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="15"/>
       <c r="E46" s="32"/>
     </row>
-    <row r="47" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="15"/>
       <c r="E47" s="32"/>
     </row>
-    <row r="48" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="15"/>
       <c r="E48" s="32"/>
     </row>
-    <row r="49" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="15"/>
       <c r="E49" s="32"/>
     </row>
-    <row r="50" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="15"/>
       <c r="E50" s="32"/>
     </row>
-    <row r="51" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="15"/>
       <c r="E51" s="32"/>
     </row>
-    <row r="52" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="15"/>
       <c r="E52" s="32"/>
     </row>
-    <row r="53" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="15"/>
       <c r="E53" s="32"/>
     </row>
-    <row r="54" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="15"/>
       <c r="E54" s="32"/>
     </row>
-    <row r="55" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="15"/>
       <c r="E55" s="32"/>
     </row>
-    <row r="56" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="15"/>
       <c r="E56" s="32"/>
     </row>
-    <row r="57" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="15"/>
       <c r="E57" s="32"/>
     </row>
-    <row r="58" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="15"/>
       <c r="E58" s="32"/>
     </row>
-    <row r="59" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="15"/>
       <c r="E59" s="32"/>
     </row>
-    <row r="60" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="15"/>
-      <c r="E60" s="32"/>
-    </row>
-    <row r="61" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D61" s="15"/>
-    </row>
-    <row r="62" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="15"/>
+      <c r="F61" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="27"/>
+      <c r="AB61" s="27"/>
+      <c r="AC61" s="27"/>
+      <c r="AD61" s="27"/>
+      <c r="AE61" s="28"/>
+    </row>
+    <row r="62" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="15"/>
-      <c r="F62" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="27"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="27"/>
-      <c r="AE62" s="28"/>
-    </row>
-    <row r="63" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F62" s="16">
+        <v>1</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="17"/>
+      <c r="AB62" s="17"/>
+      <c r="AC62" s="17"/>
+      <c r="AD62" s="17"/>
+      <c r="AE62" s="18"/>
+    </row>
+    <row r="63" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E63" s="15"/>
-      <c r="F63" s="16">
-        <v>1</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
-      <c r="Z63" s="17"/>
-      <c r="AA63" s="17"/>
-      <c r="AB63" s="17"/>
-      <c r="AC63" s="17"/>
-      <c r="AD63" s="17"/>
-      <c r="AE63" s="18"/>
-    </row>
-    <row r="64" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="21"/>
+      <c r="AC63" s="21"/>
+      <c r="AD63" s="21"/>
+      <c r="AE63" s="22"/>
+    </row>
+    <row r="64" spans="3:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E64" s="15"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="20" t="s">
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="24"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="25"/>
+    </row>
+    <row r="65" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="16">
+        <v>2</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="17"/>
+      <c r="AB65" s="17"/>
+      <c r="AC65" s="17"/>
+      <c r="AD65" s="17"/>
+      <c r="AE65" s="18"/>
+    </row>
+    <row r="66" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
-      <c r="AA64" s="21"/>
-      <c r="AB64" s="21"/>
-      <c r="AC64" s="21"/>
-      <c r="AD64" s="21"/>
-      <c r="AE64" s="22"/>
-    </row>
-    <row r="65" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E65" s="15"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="24"/>
-      <c r="U65" s="24"/>
-      <c r="V65" s="24"/>
-      <c r="W65" s="24"/>
-      <c r="X65" s="24"/>
-      <c r="Y65" s="24"/>
-      <c r="Z65" s="24"/>
-      <c r="AA65" s="24"/>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="25"/>
-    </row>
-    <row r="66" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F66" s="16">
-        <v>2</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
-      <c r="Z66" s="17"/>
-      <c r="AA66" s="17"/>
-      <c r="AB66" s="17"/>
-      <c r="AC66" s="17"/>
-      <c r="AD66" s="17"/>
-      <c r="AE66" s="18"/>
-    </row>
-    <row r="67" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="24"/>
-      <c r="T67" s="24"/>
-      <c r="U67" s="24"/>
-      <c r="V67" s="24"/>
-      <c r="W67" s="24"/>
-      <c r="X67" s="24"/>
-      <c r="Y67" s="24"/>
-      <c r="Z67" s="24"/>
-      <c r="AA67" s="24"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="25"/>
-    </row>
-    <row r="68" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F68" s="16">
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="24"/>
+      <c r="AE66" s="25"/>
+    </row>
+    <row r="67" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="16">
         <v>3</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G67" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="16" t="s">
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="17"/>
-      <c r="Z68" s="17"/>
-      <c r="AA68" s="17"/>
-      <c r="AB68" s="17"/>
-      <c r="AC68" s="17"/>
-      <c r="AD68" s="17"/>
-      <c r="AE68" s="18"/>
-    </row>
-    <row r="69" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24"/>
-      <c r="Y69" s="24"/>
-      <c r="Z69" s="24"/>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="25"/>
-    </row>
-    <row r="70" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F70" s="16">
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="17"/>
+      <c r="AC67" s="17"/>
+      <c r="AD67" s="17"/>
+      <c r="AE67" s="18"/>
+    </row>
+    <row r="68" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="24"/>
+      <c r="AC68" s="24"/>
+      <c r="AD68" s="24"/>
+      <c r="AE68" s="25"/>
+    </row>
+    <row r="69" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="16">
         <v>4</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G69" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="16" t="s">
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="17"/>
-      <c r="V70" s="17"/>
-      <c r="W70" s="17"/>
-      <c r="X70" s="17"/>
-      <c r="Y70" s="17"/>
-      <c r="Z70" s="17"/>
-      <c r="AA70" s="17"/>
-      <c r="AB70" s="17"/>
-      <c r="AC70" s="17"/>
-      <c r="AD70" s="17"/>
-      <c r="AE70" s="18"/>
-    </row>
-    <row r="71" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="24"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="24"/>
-      <c r="W71" s="24"/>
-      <c r="X71" s="24"/>
-      <c r="Y71" s="24"/>
-      <c r="Z71" s="24"/>
-      <c r="AA71" s="24"/>
-      <c r="AB71" s="24"/>
-      <c r="AC71" s="24"/>
-      <c r="AD71" s="24"/>
-      <c r="AE71" s="25"/>
-    </row>
-    <row r="72" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F72" s="16">
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="17"/>
+      <c r="AB69" s="17"/>
+      <c r="AC69" s="17"/>
+      <c r="AD69" s="17"/>
+      <c r="AE69" s="18"/>
+    </row>
+    <row r="70" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="25"/>
+    </row>
+    <row r="71" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="16">
         <v>5</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G71" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="17"/>
-      <c r="V72" s="17"/>
-      <c r="W72" s="17"/>
-      <c r="X72" s="17"/>
-      <c r="Y72" s="17"/>
-      <c r="Z72" s="17"/>
-      <c r="AA72" s="17"/>
-      <c r="AB72" s="17"/>
-      <c r="AC72" s="17"/>
-      <c r="AD72" s="17"/>
-      <c r="AE72" s="18"/>
-    </row>
-    <row r="73" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="17"/>
+      <c r="AB71" s="17"/>
+      <c r="AC71" s="17"/>
+      <c r="AD71" s="17"/>
+      <c r="AE71" s="18"/>
+    </row>
+    <row r="72" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="21"/>
+      <c r="AB72" s="21"/>
+      <c r="AC72" s="21"/>
+      <c r="AD72" s="21"/>
+      <c r="AE72" s="22"/>
+    </row>
+    <row r="73" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
       <c r="H73" s="24"/>
@@ -3273,7 +3299,7 @@
       <c r="J73" s="24"/>
       <c r="K73" s="25"/>
       <c r="L73" s="23" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="24"/>
@@ -3295,7 +3321,7 @@
       <c r="AD73" s="24"/>
       <c r="AE73" s="25"/>
     </row>
-    <row r="74" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F74" s="16">
         <v>6</v>
       </c>
@@ -3307,7 +3333,7 @@
       <c r="J74" s="17"/>
       <c r="K74" s="18"/>
       <c r="L74" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
@@ -3329,7 +3355,7 @@
       <c r="AD74" s="17"/>
       <c r="AE74" s="18"/>
     </row>
-    <row r="75" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F75" s="23"/>
       <c r="G75" s="23"/>
       <c r="H75" s="24"/>
@@ -3337,7 +3363,7 @@
       <c r="J75" s="24"/>
       <c r="K75" s="25"/>
       <c r="L75" s="23" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M75" s="24"/>
       <c r="N75" s="24"/>
@@ -3359,380 +3385,375 @@
       <c r="AD75" s="24"/>
       <c r="AE75" s="25"/>
     </row>
-    <row r="76" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D77" s="15"/>
-      <c r="E77" s="32" t="s">
+    <row r="76" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
+      <c r="U76" s="21"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="21"/>
+      <c r="X76" s="21"/>
+      <c r="Y76" s="21"/>
+      <c r="Z76" s="21"/>
+      <c r="AA76" s="21"/>
+      <c r="AB76" s="21"/>
+      <c r="AC76" s="21"/>
+      <c r="AD76" s="21"/>
+      <c r="AE76" s="21"/>
+    </row>
+    <row r="77" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="15"/>
+      <c r="E78" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F78" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D78" s="15"/>
-      <c r="F78" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D79" s="15"/>
       <c r="F79" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="4:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D80" s="15"/>
       <c r="F80" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D81" s="15"/>
-    </row>
-    <row r="82" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F81" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D82" s="15"/>
-      <c r="E82" s="32" t="s">
+    </row>
+    <row r="83" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D83" s="15"/>
+      <c r="E83" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F82" s="19" t="s">
+      <c r="F83" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D83" s="15"/>
-      <c r="F83" s="14" t="str">
-        <f>$E$82&amp;".1."</f>
+    <row r="84" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D84" s="15"/>
+      <c r="F84" s="14" t="str">
+        <f>$E$83&amp;".1."</f>
         <v>(3).1.</v>
       </c>
-      <c r="G83" s="19" t="str">
-        <f>$F$82&amp;"内容"</f>
+      <c r="G84" s="19" t="str">
+        <f>$F$83&amp;"内容"</f>
         <v>エラー処理内容</v>
       </c>
     </row>
-    <row r="84" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D84" s="15"/>
-      <c r="G84" s="19" t="s">
+    <row r="85" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D85" s="15"/>
+      <c r="G85" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D85" s="15"/>
-    </row>
-    <row r="86" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D86" s="15"/>
-      <c r="G86" s="26" t="s">
+    </row>
+    <row r="87" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D87" s="15"/>
+      <c r="G87" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H86" s="26" t="s">
+      <c r="H87" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="28"/>
-      <c r="P86" s="26" t="s">
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="27"/>
-      <c r="S86" s="27"/>
-      <c r="T86" s="27"/>
-      <c r="U86" s="27"/>
-      <c r="V86" s="27"/>
-      <c r="W86" s="27"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="27"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="27"/>
-      <c r="AC86" s="27"/>
-      <c r="AD86" s="27"/>
-      <c r="AE86" s="27"/>
-      <c r="AF86" s="27"/>
-      <c r="AG86" s="27"/>
-      <c r="AH86" s="28"/>
-    </row>
-    <row r="87" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D87" s="15"/>
-      <c r="G87" s="29">
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27"/>
+      <c r="S87" s="27"/>
+      <c r="T87" s="27"/>
+      <c r="U87" s="27"/>
+      <c r="V87" s="27"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="27"/>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="27"/>
+      <c r="AF87" s="27"/>
+      <c r="AG87" s="27"/>
+      <c r="AH87" s="28"/>
+    </row>
+    <row r="88" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D88" s="15"/>
+      <c r="G88" s="29">
         <v>1</v>
       </c>
-      <c r="H87" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q87" s="17"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="17"/>
-      <c r="T87" s="17"/>
-      <c r="U87" s="17"/>
-      <c r="V87" s="17"/>
-      <c r="W87" s="17"/>
-      <c r="X87" s="17"/>
-      <c r="Y87" s="17"/>
-      <c r="Z87" s="17"/>
-      <c r="AA87" s="17"/>
-      <c r="AB87" s="17"/>
-      <c r="AC87" s="17"/>
-      <c r="AD87" s="17"/>
-      <c r="AE87" s="17"/>
-      <c r="AF87" s="17"/>
-      <c r="AG87" s="17"/>
-      <c r="AH87" s="18"/>
-    </row>
-    <row r="88" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D88" s="15"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
-      <c r="U88" s="21"/>
-      <c r="V88" s="21"/>
-      <c r="W88" s="21"/>
-      <c r="X88" s="21"/>
-      <c r="Y88" s="21"/>
-      <c r="Z88" s="21"/>
-      <c r="AA88" s="21"/>
-      <c r="AB88" s="21"/>
-      <c r="AC88" s="21"/>
-      <c r="AD88" s="21"/>
-      <c r="AE88" s="21"/>
-      <c r="AF88" s="21"/>
-      <c r="AG88" s="21"/>
-      <c r="AH88" s="22"/>
-    </row>
-    <row r="89" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H88" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="17"/>
+      <c r="X88" s="17"/>
+      <c r="Y88" s="17"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="17"/>
+      <c r="AB88" s="17"/>
+      <c r="AC88" s="17"/>
+      <c r="AD88" s="17"/>
+      <c r="AE88" s="17"/>
+      <c r="AF88" s="17"/>
+      <c r="AG88" s="17"/>
+      <c r="AH88" s="18"/>
+    </row>
+    <row r="89" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="15"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="25"/>
-      <c r="P89" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="24"/>
-      <c r="T89" s="24"/>
-      <c r="U89" s="24"/>
-      <c r="V89" s="24"/>
-      <c r="W89" s="24"/>
-      <c r="X89" s="24"/>
-      <c r="Y89" s="24"/>
-      <c r="Z89" s="24"/>
-      <c r="AA89" s="24"/>
-      <c r="AB89" s="24"/>
-      <c r="AC89" s="24"/>
-      <c r="AD89" s="24"/>
-      <c r="AE89" s="24"/>
-      <c r="AF89" s="24"/>
-      <c r="AG89" s="24"/>
-      <c r="AH89" s="25"/>
-    </row>
-    <row r="90" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G89" s="30"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="21"/>
+      <c r="Z89" s="21"/>
+      <c r="AA89" s="21"/>
+      <c r="AB89" s="21"/>
+      <c r="AC89" s="21"/>
+      <c r="AD89" s="21"/>
+      <c r="AE89" s="21"/>
+      <c r="AF89" s="21"/>
+      <c r="AG89" s="21"/>
+      <c r="AH89" s="22"/>
+    </row>
+    <row r="90" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D90" s="15"/>
-      <c r="G90" s="29">
+      <c r="G90" s="31"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="S90" s="24"/>
+      <c r="T90" s="24"/>
+      <c r="U90" s="24"/>
+      <c r="V90" s="24"/>
+      <c r="W90" s="24"/>
+      <c r="X90" s="24"/>
+      <c r="Y90" s="24"/>
+      <c r="Z90" s="24"/>
+      <c r="AA90" s="24"/>
+      <c r="AB90" s="24"/>
+      <c r="AC90" s="24"/>
+      <c r="AD90" s="24"/>
+      <c r="AE90" s="24"/>
+      <c r="AF90" s="24"/>
+      <c r="AG90" s="24"/>
+      <c r="AH90" s="25"/>
+    </row>
+    <row r="91" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D91" s="15"/>
+      <c r="G91" s="29">
         <v>2</v>
       </c>
-      <c r="H90" s="16" t="s">
+      <c r="H91" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="17"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="17"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="17"/>
-      <c r="X90" s="17"/>
-      <c r="Y90" s="17"/>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="17"/>
-      <c r="AB90" s="17"/>
-      <c r="AC90" s="17"/>
-      <c r="AD90" s="17"/>
-      <c r="AE90" s="17"/>
-      <c r="AF90" s="17"/>
-      <c r="AG90" s="17"/>
-      <c r="AH90" s="18"/>
-    </row>
-    <row r="91" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="15"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q91" s="21"/>
-      <c r="R91" s="21"/>
-      <c r="S91" s="21"/>
-      <c r="T91" s="21"/>
-      <c r="U91" s="21"/>
-      <c r="V91" s="21"/>
-      <c r="W91" s="21"/>
-      <c r="X91" s="21"/>
-      <c r="Y91" s="21"/>
-      <c r="Z91" s="21"/>
-      <c r="AA91" s="21"/>
-      <c r="AB91" s="21"/>
-      <c r="AC91" s="21"/>
-      <c r="AD91" s="21"/>
-      <c r="AE91" s="21"/>
-      <c r="AF91" s="21"/>
-      <c r="AG91" s="21"/>
-      <c r="AH91" s="22"/>
-    </row>
-    <row r="92" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="17"/>
+      <c r="X91" s="17"/>
+      <c r="Y91" s="17"/>
+      <c r="Z91" s="17"/>
+      <c r="AA91" s="17"/>
+      <c r="AB91" s="17"/>
+      <c r="AC91" s="17"/>
+      <c r="AD91" s="17"/>
+      <c r="AE91" s="17"/>
+      <c r="AF91" s="17"/>
+      <c r="AG91" s="17"/>
+      <c r="AH91" s="18"/>
+    </row>
+    <row r="92" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D92" s="15"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="25"/>
-      <c r="P92" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q92" s="24"/>
-      <c r="R92" s="24"/>
-      <c r="S92" s="24"/>
-      <c r="T92" s="24"/>
-      <c r="U92" s="24"/>
-      <c r="V92" s="24"/>
-      <c r="W92" s="24"/>
-      <c r="X92" s="24"/>
-      <c r="Y92" s="24"/>
-      <c r="Z92" s="24"/>
-      <c r="AA92" s="24"/>
-      <c r="AB92" s="24"/>
-      <c r="AC92" s="24"/>
-      <c r="AD92" s="24"/>
-      <c r="AE92" s="24"/>
-      <c r="AF92" s="24"/>
-      <c r="AG92" s="24"/>
-      <c r="AH92" s="25"/>
-    </row>
-    <row r="93" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G92" s="30"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
+      <c r="Y92" s="21"/>
+      <c r="Z92" s="21"/>
+      <c r="AA92" s="21"/>
+      <c r="AB92" s="21"/>
+      <c r="AC92" s="21"/>
+      <c r="AD92" s="21"/>
+      <c r="AE92" s="21"/>
+      <c r="AF92" s="21"/>
+      <c r="AG92" s="21"/>
+      <c r="AH92" s="22"/>
+    </row>
+    <row r="93" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D93" s="15"/>
-      <c r="G93" s="29">
+      <c r="G93" s="31"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24"/>
+      <c r="T93" s="24"/>
+      <c r="U93" s="24"/>
+      <c r="V93" s="24"/>
+      <c r="W93" s="24"/>
+      <c r="X93" s="24"/>
+      <c r="Y93" s="24"/>
+      <c r="Z93" s="24"/>
+      <c r="AA93" s="24"/>
+      <c r="AB93" s="24"/>
+      <c r="AC93" s="24"/>
+      <c r="AD93" s="24"/>
+      <c r="AE93" s="24"/>
+      <c r="AF93" s="24"/>
+      <c r="AG93" s="24"/>
+      <c r="AH93" s="25"/>
+    </row>
+    <row r="94" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D94" s="15"/>
+      <c r="G94" s="29">
         <v>3</v>
       </c>
-      <c r="H93" s="16" t="s">
+      <c r="H94" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="17"/>
-      <c r="T93" s="17"/>
-      <c r="U93" s="17"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="17"/>
-      <c r="X93" s="17"/>
-      <c r="Y93" s="17"/>
-      <c r="Z93" s="17"/>
-      <c r="AA93" s="17"/>
-      <c r="AB93" s="17"/>
-      <c r="AC93" s="17"/>
-      <c r="AD93" s="17"/>
-      <c r="AE93" s="17"/>
-      <c r="AF93" s="17"/>
-      <c r="AG93" s="17"/>
-      <c r="AH93" s="18"/>
-    </row>
-    <row r="94" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D94" s="15"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="22"/>
-      <c r="P94" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q94" s="21"/>
-      <c r="R94" s="21"/>
-      <c r="S94" s="21"/>
-      <c r="T94" s="21"/>
-      <c r="U94" s="21"/>
-      <c r="V94" s="21"/>
-      <c r="W94" s="21"/>
-      <c r="X94" s="21"/>
-      <c r="Y94" s="21"/>
-      <c r="Z94" s="21"/>
-      <c r="AA94" s="21"/>
-      <c r="AB94" s="21"/>
-      <c r="AC94" s="21"/>
-      <c r="AD94" s="21"/>
-      <c r="AE94" s="21"/>
-      <c r="AF94" s="21"/>
-      <c r="AG94" s="21"/>
-      <c r="AH94" s="22"/>
-    </row>
-    <row r="95" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="17"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="17"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="17"/>
+      <c r="X94" s="17"/>
+      <c r="Y94" s="17"/>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="17"/>
+      <c r="AB94" s="17"/>
+      <c r="AC94" s="17"/>
+      <c r="AD94" s="17"/>
+      <c r="AE94" s="17"/>
+      <c r="AF94" s="17"/>
+      <c r="AG94" s="17"/>
+      <c r="AH94" s="18"/>
+    </row>
+    <row r="95" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D95" s="15"/>
       <c r="G95" s="30"/>
       <c r="H95" s="20"/>
@@ -3744,7 +3765,7 @@
       <c r="N95" s="21"/>
       <c r="O95" s="22"/>
       <c r="P95" s="20" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Q95" s="21"/>
       <c r="R95" s="21"/>
@@ -3765,113 +3786,113 @@
       <c r="AG95" s="21"/>
       <c r="AH95" s="22"/>
     </row>
-    <row r="96" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D96" s="15"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="25"/>
-      <c r="P96" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q96" s="24"/>
-      <c r="R96" s="24"/>
-      <c r="S96" s="24"/>
-      <c r="T96" s="24"/>
-      <c r="U96" s="24"/>
-      <c r="V96" s="24"/>
-      <c r="W96" s="24"/>
-      <c r="X96" s="24"/>
-      <c r="Y96" s="24"/>
-      <c r="Z96" s="24"/>
-      <c r="AA96" s="24"/>
-      <c r="AB96" s="24"/>
-      <c r="AC96" s="24"/>
-      <c r="AD96" s="24"/>
-      <c r="AE96" s="24"/>
-      <c r="AF96" s="24"/>
-      <c r="AG96" s="24"/>
-      <c r="AH96" s="25"/>
-    </row>
-    <row r="97" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G96" s="30"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="21"/>
+      <c r="S96" s="21"/>
+      <c r="T96" s="21"/>
+      <c r="U96" s="21"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="21"/>
+      <c r="X96" s="21"/>
+      <c r="Y96" s="21"/>
+      <c r="Z96" s="21"/>
+      <c r="AA96" s="21"/>
+      <c r="AB96" s="21"/>
+      <c r="AC96" s="21"/>
+      <c r="AD96" s="21"/>
+      <c r="AE96" s="21"/>
+      <c r="AF96" s="21"/>
+      <c r="AG96" s="21"/>
+      <c r="AH96" s="22"/>
+    </row>
+    <row r="97" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="G97" s="29">
-        <v>4</v>
-      </c>
-      <c r="H97" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="17"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="17"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="17"/>
-      <c r="X97" s="17"/>
-      <c r="Y97" s="17"/>
-      <c r="Z97" s="17"/>
-      <c r="AA97" s="17"/>
-      <c r="AB97" s="17"/>
-      <c r="AC97" s="17"/>
-      <c r="AD97" s="17"/>
-      <c r="AE97" s="17"/>
-      <c r="AF97" s="17"/>
-      <c r="AG97" s="17"/>
-      <c r="AH97" s="18"/>
-    </row>
-    <row r="98" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G97" s="31"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="24"/>
+      <c r="T97" s="24"/>
+      <c r="U97" s="24"/>
+      <c r="V97" s="24"/>
+      <c r="W97" s="24"/>
+      <c r="X97" s="24"/>
+      <c r="Y97" s="24"/>
+      <c r="Z97" s="24"/>
+      <c r="AA97" s="24"/>
+      <c r="AB97" s="24"/>
+      <c r="AC97" s="24"/>
+      <c r="AD97" s="24"/>
+      <c r="AE97" s="24"/>
+      <c r="AF97" s="24"/>
+      <c r="AG97" s="24"/>
+      <c r="AH97" s="25"/>
+    </row>
+    <row r="98" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="21"/>
-      <c r="J98" s="21"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="21"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="22"/>
-      <c r="P98" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q98" s="21"/>
-      <c r="R98" s="21"/>
-      <c r="S98" s="21"/>
-      <c r="T98" s="21"/>
-      <c r="U98" s="21"/>
-      <c r="V98" s="21"/>
-      <c r="W98" s="21"/>
-      <c r="X98" s="21"/>
-      <c r="Y98" s="21"/>
-      <c r="Z98" s="21"/>
-      <c r="AA98" s="21"/>
-      <c r="AB98" s="21"/>
-      <c r="AC98" s="21"/>
-      <c r="AD98" s="21"/>
-      <c r="AE98" s="21"/>
-      <c r="AF98" s="21"/>
-      <c r="AG98" s="21"/>
-      <c r="AH98" s="22"/>
-    </row>
-    <row r="99" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G98" s="29">
+        <v>4</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="17"/>
+      <c r="X98" s="17"/>
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="17"/>
+      <c r="AB98" s="17"/>
+      <c r="AC98" s="17"/>
+      <c r="AD98" s="17"/>
+      <c r="AE98" s="17"/>
+      <c r="AF98" s="17"/>
+      <c r="AG98" s="17"/>
+      <c r="AH98" s="18"/>
+    </row>
+    <row r="99" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
       <c r="G99" s="30"/>
       <c r="H99" s="20"/>
       <c r="I99" s="21"/>
@@ -3882,7 +3903,7 @@
       <c r="N99" s="21"/>
       <c r="O99" s="22"/>
       <c r="P99" s="20" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="Q99" s="21"/>
       <c r="R99" s="21"/>
@@ -3903,115 +3924,115 @@
       <c r="AG99" s="21"/>
       <c r="AH99" s="22"/>
     </row>
-    <row r="100" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D100" s="15"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="25"/>
-      <c r="P100" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="24"/>
-      <c r="S100" s="24"/>
-      <c r="T100" s="24"/>
-      <c r="U100" s="24"/>
-      <c r="V100" s="24"/>
-      <c r="W100" s="24"/>
-      <c r="X100" s="24"/>
-      <c r="Y100" s="24"/>
-      <c r="Z100" s="24"/>
-      <c r="AA100" s="24"/>
-      <c r="AB100" s="24"/>
-      <c r="AC100" s="24"/>
-      <c r="AD100" s="24"/>
-      <c r="AE100" s="24"/>
-      <c r="AF100" s="24"/>
-      <c r="AG100" s="24"/>
-      <c r="AH100" s="25"/>
-    </row>
-    <row r="101" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G100" s="30"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="21"/>
+      <c r="W100" s="21"/>
+      <c r="X100" s="21"/>
+      <c r="Y100" s="21"/>
+      <c r="Z100" s="21"/>
+      <c r="AA100" s="21"/>
+      <c r="AB100" s="21"/>
+      <c r="AC100" s="21"/>
+      <c r="AD100" s="21"/>
+      <c r="AE100" s="21"/>
+      <c r="AF100" s="21"/>
+      <c r="AG100" s="21"/>
+      <c r="AH100" s="22"/>
+    </row>
+    <row r="101" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D101" s="15"/>
-      <c r="G101" s="29">
+      <c r="G101" s="31"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="24"/>
+      <c r="T101" s="24"/>
+      <c r="U101" s="24"/>
+      <c r="V101" s="24"/>
+      <c r="W101" s="24"/>
+      <c r="X101" s="24"/>
+      <c r="Y101" s="24"/>
+      <c r="Z101" s="24"/>
+      <c r="AA101" s="24"/>
+      <c r="AB101" s="24"/>
+      <c r="AC101" s="24"/>
+      <c r="AD101" s="24"/>
+      <c r="AE101" s="24"/>
+      <c r="AF101" s="24"/>
+      <c r="AG101" s="24"/>
+      <c r="AH101" s="25"/>
+    </row>
+    <row r="102" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D102" s="15"/>
+      <c r="G102" s="29">
         <v>5</v>
       </c>
-      <c r="H101" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
-      <c r="T101" s="17"/>
-      <c r="U101" s="17"/>
-      <c r="V101" s="17"/>
-      <c r="W101" s="17"/>
-      <c r="X101" s="17"/>
-      <c r="Y101" s="17"/>
-      <c r="Z101" s="17"/>
-      <c r="AA101" s="17"/>
-      <c r="AB101" s="17"/>
-      <c r="AC101" s="17"/>
-      <c r="AD101" s="17"/>
-      <c r="AE101" s="17"/>
-      <c r="AF101" s="17"/>
-      <c r="AG101" s="17"/>
-      <c r="AH101" s="18"/>
-    </row>
-    <row r="102" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D102" s="15"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I102" s="21"/>
-      <c r="J102" s="21"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="21"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="21"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q102" s="21"/>
-      <c r="R102" s="21"/>
-      <c r="S102" s="21"/>
-      <c r="T102" s="21"/>
-      <c r="U102" s="21"/>
-      <c r="V102" s="21"/>
-      <c r="W102" s="21"/>
-      <c r="X102" s="21"/>
-      <c r="Y102" s="21"/>
-      <c r="Z102" s="21"/>
-      <c r="AA102" s="21"/>
-      <c r="AB102" s="21"/>
-      <c r="AC102" s="21"/>
-      <c r="AD102" s="21"/>
-      <c r="AE102" s="21"/>
-      <c r="AF102" s="21"/>
-      <c r="AG102" s="21"/>
-      <c r="AH102" s="22"/>
-    </row>
-    <row r="103" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H102" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q102" s="17"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="17"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="17"/>
+      <c r="V102" s="17"/>
+      <c r="W102" s="17"/>
+      <c r="X102" s="17"/>
+      <c r="Y102" s="17"/>
+      <c r="Z102" s="17"/>
+      <c r="AA102" s="17"/>
+      <c r="AB102" s="17"/>
+      <c r="AC102" s="17"/>
+      <c r="AD102" s="17"/>
+      <c r="AE102" s="17"/>
+      <c r="AF102" s="17"/>
+      <c r="AG102" s="17"/>
+      <c r="AH102" s="18"/>
+    </row>
+    <row r="103" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" s="15"/>
       <c r="G103" s="30"/>
-      <c r="H103" s="20"/>
+      <c r="H103" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
       <c r="K103" s="21"/>
@@ -4020,7 +4041,7 @@
       <c r="N103" s="21"/>
       <c r="O103" s="22"/>
       <c r="P103" s="20" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="Q103" s="21"/>
       <c r="R103" s="21"/>
@@ -4041,218 +4062,218 @@
       <c r="AG103" s="21"/>
       <c r="AH103" s="22"/>
     </row>
-    <row r="104" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D104" s="15"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="24"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="24"/>
-      <c r="O104" s="25"/>
-      <c r="P104" s="23" t="s">
+      <c r="G104" s="30"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q104" s="21"/>
+      <c r="R104" s="21"/>
+      <c r="S104" s="21"/>
+      <c r="T104" s="21"/>
+      <c r="U104" s="21"/>
+      <c r="V104" s="21"/>
+      <c r="W104" s="21"/>
+      <c r="X104" s="21"/>
+      <c r="Y104" s="21"/>
+      <c r="Z104" s="21"/>
+      <c r="AA104" s="21"/>
+      <c r="AB104" s="21"/>
+      <c r="AC104" s="21"/>
+      <c r="AD104" s="21"/>
+      <c r="AE104" s="21"/>
+      <c r="AF104" s="21"/>
+      <c r="AG104" s="21"/>
+      <c r="AH104" s="22"/>
+    </row>
+    <row r="105" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D105" s="15"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="24"/>
+      <c r="O105" s="25"/>
+      <c r="P105" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q105" s="24"/>
+      <c r="R105" s="24"/>
+      <c r="S105" s="24"/>
+      <c r="T105" s="24"/>
+      <c r="U105" s="24"/>
+      <c r="V105" s="24"/>
+      <c r="W105" s="24"/>
+      <c r="X105" s="24"/>
+      <c r="Y105" s="24"/>
+      <c r="Z105" s="24"/>
+      <c r="AA105" s="24"/>
+      <c r="AB105" s="24"/>
+      <c r="AC105" s="24"/>
+      <c r="AD105" s="24"/>
+      <c r="AE105" s="24"/>
+      <c r="AF105" s="24"/>
+      <c r="AG105" s="24"/>
+      <c r="AH105" s="25"/>
+    </row>
+    <row r="106" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D106" s="15"/>
+      <c r="G106" s="29">
+        <v>6</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="17"/>
+      <c r="V106" s="17"/>
+      <c r="W106" s="17"/>
+      <c r="X106" s="17"/>
+      <c r="Y106" s="17"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="17"/>
+      <c r="AB106" s="17"/>
+      <c r="AC106" s="17"/>
+      <c r="AD106" s="17"/>
+      <c r="AE106" s="17"/>
+      <c r="AF106" s="17"/>
+      <c r="AG106" s="17"/>
+      <c r="AH106" s="18"/>
+    </row>
+    <row r="107" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D107" s="15"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q107" s="21"/>
+      <c r="R107" s="21"/>
+      <c r="S107" s="21"/>
+      <c r="T107" s="21"/>
+      <c r="U107" s="21"/>
+      <c r="V107" s="21"/>
+      <c r="W107" s="21"/>
+      <c r="X107" s="21"/>
+      <c r="Y107" s="21"/>
+      <c r="Z107" s="21"/>
+      <c r="AA107" s="21"/>
+      <c r="AB107" s="21"/>
+      <c r="AC107" s="21"/>
+      <c r="AD107" s="21"/>
+      <c r="AE107" s="21"/>
+      <c r="AF107" s="21"/>
+      <c r="AG107" s="21"/>
+      <c r="AH107" s="22"/>
+    </row>
+    <row r="108" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D108" s="15"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="24"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q108" s="24"/>
+      <c r="R108" s="24"/>
+      <c r="S108" s="24"/>
+      <c r="T108" s="24"/>
+      <c r="U108" s="24"/>
+      <c r="V108" s="24"/>
+      <c r="W108" s="24"/>
+      <c r="X108" s="24"/>
+      <c r="Y108" s="24"/>
+      <c r="Z108" s="24"/>
+      <c r="AA108" s="24"/>
+      <c r="AB108" s="24"/>
+      <c r="AC108" s="24"/>
+      <c r="AD108" s="24"/>
+      <c r="AE108" s="24"/>
+      <c r="AF108" s="24"/>
+      <c r="AG108" s="24"/>
+      <c r="AH108" s="25"/>
+    </row>
+    <row r="109" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D109" s="15"/>
+      <c r="G109" s="29">
+        <v>7</v>
+      </c>
+      <c r="H109" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q104" s="24"/>
-      <c r="R104" s="24"/>
-      <c r="S104" s="24"/>
-      <c r="T104" s="24"/>
-      <c r="U104" s="24"/>
-      <c r="V104" s="24"/>
-      <c r="W104" s="24"/>
-      <c r="X104" s="24"/>
-      <c r="Y104" s="24"/>
-      <c r="Z104" s="24"/>
-      <c r="AA104" s="24"/>
-      <c r="AB104" s="24"/>
-      <c r="AC104" s="24"/>
-      <c r="AD104" s="24"/>
-      <c r="AE104" s="24"/>
-      <c r="AF104" s="24"/>
-      <c r="AG104" s="24"/>
-      <c r="AH104" s="25"/>
-    </row>
-    <row r="105" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D105" s="15"/>
-      <c r="G105" s="29">
-        <v>6</v>
-      </c>
-      <c r="H105" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="18"/>
-      <c r="P105" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="17"/>
-      <c r="U105" s="17"/>
-      <c r="V105" s="17"/>
-      <c r="W105" s="17"/>
-      <c r="X105" s="17"/>
-      <c r="Y105" s="17"/>
-      <c r="Z105" s="17"/>
-      <c r="AA105" s="17"/>
-      <c r="AB105" s="17"/>
-      <c r="AC105" s="17"/>
-      <c r="AD105" s="17"/>
-      <c r="AE105" s="17"/>
-      <c r="AF105" s="17"/>
-      <c r="AG105" s="17"/>
-      <c r="AH105" s="18"/>
-    </row>
-    <row r="106" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D106" s="15"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="21"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="21"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q106" s="21"/>
-      <c r="R106" s="21"/>
-      <c r="S106" s="21"/>
-      <c r="T106" s="21"/>
-      <c r="U106" s="21"/>
-      <c r="V106" s="21"/>
-      <c r="W106" s="21"/>
-      <c r="X106" s="21"/>
-      <c r="Y106" s="21"/>
-      <c r="Z106" s="21"/>
-      <c r="AA106" s="21"/>
-      <c r="AB106" s="21"/>
-      <c r="AC106" s="21"/>
-      <c r="AD106" s="21"/>
-      <c r="AE106" s="21"/>
-      <c r="AF106" s="21"/>
-      <c r="AG106" s="21"/>
-      <c r="AH106" s="22"/>
-    </row>
-    <row r="107" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D107" s="15"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="24"/>
-      <c r="O107" s="25"/>
-      <c r="P107" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q107" s="24"/>
-      <c r="R107" s="24"/>
-      <c r="S107" s="24"/>
-      <c r="T107" s="24"/>
-      <c r="U107" s="24"/>
-      <c r="V107" s="24"/>
-      <c r="W107" s="24"/>
-      <c r="X107" s="24"/>
-      <c r="Y107" s="24"/>
-      <c r="Z107" s="24"/>
-      <c r="AA107" s="24"/>
-      <c r="AB107" s="24"/>
-      <c r="AC107" s="24"/>
-      <c r="AD107" s="24"/>
-      <c r="AE107" s="24"/>
-      <c r="AF107" s="24"/>
-      <c r="AG107" s="24"/>
-      <c r="AH107" s="25"/>
-    </row>
-    <row r="108" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D108" s="15"/>
-      <c r="G108" s="29">
-        <v>7</v>
-      </c>
-      <c r="H108" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="18"/>
-      <c r="P108" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q108" s="17"/>
-      <c r="R108" s="17"/>
-      <c r="S108" s="17"/>
-      <c r="T108" s="17"/>
-      <c r="U108" s="17"/>
-      <c r="V108" s="17"/>
-      <c r="W108" s="17"/>
-      <c r="X108" s="17"/>
-      <c r="Y108" s="17"/>
-      <c r="Z108" s="17"/>
-      <c r="AA108" s="17"/>
-      <c r="AB108" s="17"/>
-      <c r="AC108" s="17"/>
-      <c r="AD108" s="17"/>
-      <c r="AE108" s="17"/>
-      <c r="AF108" s="17"/>
-      <c r="AG108" s="17"/>
-      <c r="AH108" s="18"/>
-    </row>
-    <row r="109" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D109" s="15"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
-      <c r="M109" s="21"/>
-      <c r="N109" s="21"/>
-      <c r="O109" s="22"/>
-      <c r="P109" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q109" s="21"/>
-      <c r="R109" s="21"/>
-      <c r="S109" s="21"/>
-      <c r="T109" s="21"/>
-      <c r="U109" s="21"/>
-      <c r="V109" s="21"/>
-      <c r="W109" s="21"/>
-      <c r="X109" s="21"/>
-      <c r="Y109" s="21"/>
-      <c r="Z109" s="21"/>
-      <c r="AA109" s="21"/>
-      <c r="AB109" s="21"/>
-      <c r="AC109" s="21"/>
-      <c r="AD109" s="21"/>
-      <c r="AE109" s="21"/>
-      <c r="AF109" s="21"/>
-      <c r="AG109" s="21"/>
-      <c r="AH109" s="22"/>
-    </row>
-    <row r="110" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="18"/>
+      <c r="P109" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="17"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="17"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="17"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="17"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="18"/>
+    </row>
+    <row r="110" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D110" s="15"/>
       <c r="G110" s="30"/>
-      <c r="H110" s="20"/>
+      <c r="H110" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="I110" s="21"/>
       <c r="J110" s="21"/>
       <c r="K110" s="21"/>
@@ -4261,7 +4282,7 @@
       <c r="N110" s="21"/>
       <c r="O110" s="22"/>
       <c r="P110" s="20" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Q110" s="21"/>
       <c r="R110" s="21"/>
@@ -4282,297 +4303,297 @@
       <c r="AG110" s="21"/>
       <c r="AH110" s="22"/>
     </row>
-    <row r="111" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D111" s="15"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="24"/>
-      <c r="N111" s="24"/>
-      <c r="O111" s="25"/>
-      <c r="P111" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q111" s="24"/>
-      <c r="R111" s="24"/>
-      <c r="S111" s="24"/>
-      <c r="T111" s="24"/>
-      <c r="U111" s="24"/>
-      <c r="V111" s="24"/>
-      <c r="W111" s="24"/>
-      <c r="X111" s="24"/>
-      <c r="Y111" s="24"/>
-      <c r="Z111" s="24"/>
-      <c r="AA111" s="24"/>
-      <c r="AB111" s="24"/>
-      <c r="AC111" s="24"/>
-      <c r="AD111" s="24"/>
-      <c r="AE111" s="24"/>
-      <c r="AF111" s="24"/>
-      <c r="AG111" s="24"/>
-      <c r="AH111" s="25"/>
-    </row>
-    <row r="112" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G111" s="30"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="21"/>
+      <c r="T111" s="21"/>
+      <c r="U111" s="21"/>
+      <c r="V111" s="21"/>
+      <c r="W111" s="21"/>
+      <c r="X111" s="21"/>
+      <c r="Y111" s="21"/>
+      <c r="Z111" s="21"/>
+      <c r="AA111" s="21"/>
+      <c r="AB111" s="21"/>
+      <c r="AC111" s="21"/>
+      <c r="AD111" s="21"/>
+      <c r="AE111" s="21"/>
+      <c r="AF111" s="21"/>
+      <c r="AG111" s="21"/>
+      <c r="AH111" s="22"/>
+    </row>
+    <row r="112" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D112" s="15"/>
-    </row>
-    <row r="113" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G112" s="31"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="24"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q112" s="24"/>
+      <c r="R112" s="24"/>
+      <c r="S112" s="24"/>
+      <c r="T112" s="24"/>
+      <c r="U112" s="24"/>
+      <c r="V112" s="24"/>
+      <c r="W112" s="24"/>
+      <c r="X112" s="24"/>
+      <c r="Y112" s="24"/>
+      <c r="Z112" s="24"/>
+      <c r="AA112" s="24"/>
+      <c r="AB112" s="24"/>
+      <c r="AC112" s="24"/>
+      <c r="AD112" s="24"/>
+      <c r="AE112" s="24"/>
+      <c r="AF112" s="24"/>
+      <c r="AG112" s="24"/>
+      <c r="AH112" s="25"/>
+    </row>
+    <row r="113" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D113" s="15"/>
-      <c r="F113" s="15" t="str">
-        <f>$E$82&amp;".2."</f>
+    </row>
+    <row r="114" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D114" s="15"/>
+      <c r="F114" s="15" t="str">
+        <f>$E$83&amp;".2."</f>
         <v>(3).2.</v>
       </c>
-      <c r="G113" s="19" t="s">
+      <c r="G114" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D114" s="15"/>
-      <c r="G114" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D115" s="15"/>
       <c r="G115" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D116" s="15"/>
       <c r="G116" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D117" s="15"/>
       <c r="G117" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D118" s="15"/>
+      <c r="G118" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D118" s="15"/>
-    </row>
-    <row r="119" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D119" s="15"/>
-      <c r="G119" s="26" t="s">
+    </row>
+    <row r="120" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D120" s="15"/>
+      <c r="G120" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H119" s="26" t="s">
+      <c r="H120" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="27"/>
-      <c r="M119" s="27"/>
-      <c r="N119" s="27"/>
-      <c r="O119" s="28"/>
-      <c r="P119" s="26" t="s">
+      <c r="I120" s="27"/>
+      <c r="J120" s="27"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="27"/>
+      <c r="M120" s="27"/>
+      <c r="N120" s="27"/>
+      <c r="O120" s="28"/>
+      <c r="P120" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="Q119" s="27"/>
-      <c r="R119" s="27"/>
-      <c r="S119" s="27"/>
-      <c r="T119" s="27"/>
-      <c r="U119" s="27"/>
-      <c r="V119" s="27"/>
-      <c r="W119" s="27"/>
-      <c r="X119" s="27"/>
-      <c r="Y119" s="27"/>
-      <c r="Z119" s="27"/>
-      <c r="AA119" s="27"/>
-      <c r="AB119" s="27"/>
-      <c r="AC119" s="27"/>
-      <c r="AD119" s="27"/>
-      <c r="AE119" s="27"/>
-      <c r="AF119" s="27"/>
-      <c r="AG119" s="27"/>
-      <c r="AH119" s="28"/>
-    </row>
-    <row r="120" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D120" s="15"/>
-      <c r="G120" s="29">
+      <c r="Q120" s="27"/>
+      <c r="R120" s="27"/>
+      <c r="S120" s="27"/>
+      <c r="T120" s="27"/>
+      <c r="U120" s="27"/>
+      <c r="V120" s="27"/>
+      <c r="W120" s="27"/>
+      <c r="X120" s="27"/>
+      <c r="Y120" s="27"/>
+      <c r="Z120" s="27"/>
+      <c r="AA120" s="27"/>
+      <c r="AB120" s="27"/>
+      <c r="AC120" s="27"/>
+      <c r="AD120" s="27"/>
+      <c r="AE120" s="27"/>
+      <c r="AF120" s="27"/>
+      <c r="AG120" s="27"/>
+      <c r="AH120" s="28"/>
+    </row>
+    <row r="121" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D121" s="15"/>
+      <c r="G121" s="29">
         <v>1</v>
       </c>
-      <c r="H120" s="16" t="s">
+      <c r="H121" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q120" s="17"/>
-      <c r="R120" s="17"/>
-      <c r="S120" s="17"/>
-      <c r="T120" s="17"/>
-      <c r="U120" s="17"/>
-      <c r="V120" s="17"/>
-      <c r="W120" s="17"/>
-      <c r="X120" s="17"/>
-      <c r="Y120" s="17"/>
-      <c r="Z120" s="17"/>
-      <c r="AA120" s="17"/>
-      <c r="AB120" s="17"/>
-      <c r="AC120" s="17"/>
-      <c r="AD120" s="17"/>
-      <c r="AE120" s="17"/>
-      <c r="AF120" s="17"/>
-      <c r="AG120" s="17"/>
-      <c r="AH120" s="18"/>
-    </row>
-    <row r="121" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D121" s="15"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="20" t="s">
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q121" s="17"/>
+      <c r="R121" s="17"/>
+      <c r="S121" s="17"/>
+      <c r="T121" s="17"/>
+      <c r="U121" s="17"/>
+      <c r="V121" s="17"/>
+      <c r="W121" s="17"/>
+      <c r="X121" s="17"/>
+      <c r="Y121" s="17"/>
+      <c r="Z121" s="17"/>
+      <c r="AA121" s="17"/>
+      <c r="AB121" s="17"/>
+      <c r="AC121" s="17"/>
+      <c r="AD121" s="17"/>
+      <c r="AE121" s="17"/>
+      <c r="AF121" s="17"/>
+      <c r="AG121" s="17"/>
+      <c r="AH121" s="18"/>
+    </row>
+    <row r="122" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D122" s="15"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I121" s="21"/>
-      <c r="J121" s="21"/>
-      <c r="K121" s="21"/>
-      <c r="L121" s="21"/>
-      <c r="M121" s="21"/>
-      <c r="N121" s="21"/>
-      <c r="O121" s="22"/>
-      <c r="P121" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q121" s="21"/>
-      <c r="R121" s="21"/>
-      <c r="S121" s="21"/>
-      <c r="T121" s="21"/>
-      <c r="U121" s="21"/>
-      <c r="V121" s="21"/>
-      <c r="W121" s="21"/>
-      <c r="X121" s="21"/>
-      <c r="Y121" s="21"/>
-      <c r="Z121" s="21"/>
-      <c r="AA121" s="21"/>
-      <c r="AB121" s="21"/>
-      <c r="AC121" s="21"/>
-      <c r="AD121" s="21"/>
-      <c r="AE121" s="21"/>
-      <c r="AF121" s="21"/>
-      <c r="AG121" s="21"/>
-      <c r="AH121" s="22"/>
-    </row>
-    <row r="122" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D122" s="15"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
-      <c r="K122" s="24"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="24"/>
-      <c r="N122" s="24"/>
-      <c r="O122" s="25"/>
-      <c r="P122" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q122" s="24"/>
-      <c r="R122" s="24"/>
-      <c r="S122" s="24"/>
-      <c r="T122" s="24"/>
-      <c r="U122" s="24"/>
-      <c r="V122" s="24"/>
-      <c r="W122" s="24"/>
-      <c r="X122" s="24"/>
-      <c r="Y122" s="24"/>
-      <c r="Z122" s="24"/>
-      <c r="AA122" s="24"/>
-      <c r="AB122" s="24"/>
-      <c r="AC122" s="24"/>
-      <c r="AD122" s="24"/>
-      <c r="AE122" s="24"/>
-      <c r="AF122" s="24"/>
-      <c r="AG122" s="24"/>
-      <c r="AH122" s="25"/>
-    </row>
-    <row r="123" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21"/>
+      <c r="O122" s="22"/>
+      <c r="P122" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q122" s="21"/>
+      <c r="R122" s="21"/>
+      <c r="S122" s="21"/>
+      <c r="T122" s="21"/>
+      <c r="U122" s="21"/>
+      <c r="V122" s="21"/>
+      <c r="W122" s="21"/>
+      <c r="X122" s="21"/>
+      <c r="Y122" s="21"/>
+      <c r="Z122" s="21"/>
+      <c r="AA122" s="21"/>
+      <c r="AB122" s="21"/>
+      <c r="AC122" s="21"/>
+      <c r="AD122" s="21"/>
+      <c r="AE122" s="21"/>
+      <c r="AF122" s="21"/>
+      <c r="AG122" s="21"/>
+      <c r="AH122" s="22"/>
+    </row>
+    <row r="123" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D123" s="15"/>
-      <c r="G123" s="29">
+      <c r="G123" s="31"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="24"/>
+      <c r="O123" s="25"/>
+      <c r="P123" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q123" s="24"/>
+      <c r="R123" s="24"/>
+      <c r="S123" s="24"/>
+      <c r="T123" s="24"/>
+      <c r="U123" s="24"/>
+      <c r="V123" s="24"/>
+      <c r="W123" s="24"/>
+      <c r="X123" s="24"/>
+      <c r="Y123" s="24"/>
+      <c r="Z123" s="24"/>
+      <c r="AA123" s="24"/>
+      <c r="AB123" s="24"/>
+      <c r="AC123" s="24"/>
+      <c r="AD123" s="24"/>
+      <c r="AE123" s="24"/>
+      <c r="AF123" s="24"/>
+      <c r="AG123" s="24"/>
+      <c r="AH123" s="25"/>
+    </row>
+    <row r="124" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D124" s="15"/>
+      <c r="G124" s="29">
         <v>2</v>
       </c>
-      <c r="H123" s="16" t="s">
+      <c r="H124" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="18"/>
-      <c r="P123" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q123" s="17"/>
-      <c r="R123" s="17"/>
-      <c r="S123" s="17"/>
-      <c r="T123" s="17"/>
-      <c r="U123" s="17"/>
-      <c r="V123" s="17"/>
-      <c r="W123" s="17"/>
-      <c r="X123" s="17"/>
-      <c r="Y123" s="17"/>
-      <c r="Z123" s="17"/>
-      <c r="AA123" s="17"/>
-      <c r="AB123" s="17"/>
-      <c r="AC123" s="17"/>
-      <c r="AD123" s="17"/>
-      <c r="AE123" s="17"/>
-      <c r="AF123" s="17"/>
-      <c r="AG123" s="17"/>
-      <c r="AH123" s="18"/>
-    </row>
-    <row r="124" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D124" s="15"/>
-      <c r="G124" s="30"/>
-      <c r="H124" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I124" s="21"/>
-      <c r="J124" s="21"/>
-      <c r="K124" s="21"/>
-      <c r="L124" s="21"/>
-      <c r="M124" s="21"/>
-      <c r="N124" s="21"/>
-      <c r="O124" s="22"/>
-      <c r="P124" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q124" s="21"/>
-      <c r="R124" s="21"/>
-      <c r="S124" s="21"/>
-      <c r="T124" s="21"/>
-      <c r="U124" s="21"/>
-      <c r="V124" s="21"/>
-      <c r="W124" s="21"/>
-      <c r="X124" s="21"/>
-      <c r="Y124" s="21"/>
-      <c r="Z124" s="21"/>
-      <c r="AA124" s="21"/>
-      <c r="AB124" s="21"/>
-      <c r="AC124" s="21"/>
-      <c r="AD124" s="21"/>
-      <c r="AE124" s="21"/>
-      <c r="AF124" s="21"/>
-      <c r="AG124" s="21"/>
-      <c r="AH124" s="22"/>
-    </row>
-    <row r="125" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q124" s="17"/>
+      <c r="R124" s="17"/>
+      <c r="S124" s="17"/>
+      <c r="T124" s="17"/>
+      <c r="U124" s="17"/>
+      <c r="V124" s="17"/>
+      <c r="W124" s="17"/>
+      <c r="X124" s="17"/>
+      <c r="Y124" s="17"/>
+      <c r="Z124" s="17"/>
+      <c r="AA124" s="17"/>
+      <c r="AB124" s="17"/>
+      <c r="AC124" s="17"/>
+      <c r="AD124" s="17"/>
+      <c r="AE124" s="17"/>
+      <c r="AF124" s="17"/>
+      <c r="AG124" s="17"/>
+      <c r="AH124" s="18"/>
+    </row>
+    <row r="125" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D125" s="15"/>
       <c r="G125" s="30"/>
-      <c r="H125" s="20"/>
+      <c r="H125" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="I125" s="21"/>
       <c r="J125" s="21"/>
       <c r="K125" s="21"/>
@@ -4581,7 +4602,7 @@
       <c r="N125" s="21"/>
       <c r="O125" s="22"/>
       <c r="P125" s="20" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="Q125" s="21"/>
       <c r="R125" s="21"/>
@@ -4602,188 +4623,187 @@
       <c r="AG125" s="21"/>
       <c r="AH125" s="22"/>
     </row>
-    <row r="126" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D126" s="15"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="23"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="24"/>
-      <c r="K126" s="24"/>
-      <c r="L126" s="24"/>
-      <c r="M126" s="24"/>
-      <c r="N126" s="24"/>
-      <c r="O126" s="25"/>
-      <c r="P126" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q126" s="24"/>
-      <c r="R126" s="24"/>
-      <c r="S126" s="24"/>
-      <c r="T126" s="24"/>
-      <c r="U126" s="24"/>
-      <c r="V126" s="24"/>
-      <c r="W126" s="24"/>
-      <c r="X126" s="24"/>
-      <c r="Y126" s="24"/>
-      <c r="Z126" s="24"/>
-      <c r="AA126" s="24"/>
-      <c r="AB126" s="24"/>
-      <c r="AC126" s="24"/>
-      <c r="AD126" s="24"/>
-      <c r="AE126" s="24"/>
-      <c r="AF126" s="24"/>
-      <c r="AG126" s="24"/>
-      <c r="AH126" s="25"/>
-    </row>
-    <row r="127" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G126" s="30"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="21"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="21"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="21"/>
+      <c r="O126" s="22"/>
+      <c r="P126" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q126" s="21"/>
+      <c r="R126" s="21"/>
+      <c r="S126" s="21"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="21"/>
+      <c r="V126" s="21"/>
+      <c r="W126" s="21"/>
+      <c r="X126" s="21"/>
+      <c r="Y126" s="21"/>
+      <c r="Z126" s="21"/>
+      <c r="AA126" s="21"/>
+      <c r="AB126" s="21"/>
+      <c r="AC126" s="21"/>
+      <c r="AD126" s="21"/>
+      <c r="AE126" s="21"/>
+      <c r="AF126" s="21"/>
+      <c r="AG126" s="21"/>
+      <c r="AH126" s="22"/>
+    </row>
+    <row r="127" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-    </row>
-    <row r="128" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G127" s="31"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="24"/>
+      <c r="O127" s="25"/>
+      <c r="P127" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q127" s="24"/>
+      <c r="R127" s="24"/>
+      <c r="S127" s="24"/>
+      <c r="T127" s="24"/>
+      <c r="U127" s="24"/>
+      <c r="V127" s="24"/>
+      <c r="W127" s="24"/>
+      <c r="X127" s="24"/>
+      <c r="Y127" s="24"/>
+      <c r="Z127" s="24"/>
+      <c r="AA127" s="24"/>
+      <c r="AB127" s="24"/>
+      <c r="AC127" s="24"/>
+      <c r="AD127" s="24"/>
+      <c r="AE127" s="24"/>
+      <c r="AF127" s="24"/>
+      <c r="AG127" s="24"/>
+      <c r="AH127" s="25"/>
+    </row>
+    <row r="128" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D128" s="15"/>
-      <c r="F128" s="15" t="str">
-        <f>$E$82&amp;".3."</f>
+      <c r="E128" s="15"/>
+    </row>
+    <row r="129" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D129" s="15"/>
+      <c r="F129" s="15" t="str">
+        <f>$E$83&amp;".3."</f>
         <v>(3).3.</v>
       </c>
-      <c r="G128" s="19" t="s">
+      <c r="G129" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="130" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D130" s="15"/>
       <c r="F130" s="15"/>
       <c r="G130" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="131" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D131" s="15"/>
       <c r="F131" s="15"/>
-    </row>
-    <row r="132" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G131" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D132" s="15"/>
       <c r="F132" s="15"/>
-      <c r="G132" s="26" t="s">
+    </row>
+    <row r="133" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H132" s="26" t="s">
+      <c r="H133" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="27"/>
-      <c r="O132" s="28"/>
-      <c r="P132" s="26" t="s">
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="27"/>
+      <c r="M133" s="27"/>
+      <c r="N133" s="27"/>
+      <c r="O133" s="28"/>
+      <c r="P133" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Q132" s="27"/>
-      <c r="R132" s="27"/>
-      <c r="S132" s="27"/>
-      <c r="T132" s="27"/>
-      <c r="U132" s="27"/>
-      <c r="V132" s="27"/>
-      <c r="W132" s="27"/>
-      <c r="X132" s="27"/>
-      <c r="Y132" s="27"/>
-      <c r="Z132" s="27"/>
-      <c r="AA132" s="27"/>
-      <c r="AB132" s="27"/>
-      <c r="AC132" s="27"/>
-      <c r="AD132" s="27"/>
-      <c r="AE132" s="27"/>
-      <c r="AF132" s="27"/>
-      <c r="AG132" s="27"/>
-      <c r="AH132" s="28"/>
-      <c r="AI132" s="15"/>
-    </row>
-    <row r="133" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D133" s="15"/>
-      <c r="G133" s="29">
+      <c r="Q133" s="27"/>
+      <c r="R133" s="27"/>
+      <c r="S133" s="27"/>
+      <c r="T133" s="27"/>
+      <c r="U133" s="27"/>
+      <c r="V133" s="27"/>
+      <c r="W133" s="27"/>
+      <c r="X133" s="27"/>
+      <c r="Y133" s="27"/>
+      <c r="Z133" s="27"/>
+      <c r="AA133" s="27"/>
+      <c r="AB133" s="27"/>
+      <c r="AC133" s="27"/>
+      <c r="AD133" s="27"/>
+      <c r="AE133" s="27"/>
+      <c r="AF133" s="27"/>
+      <c r="AG133" s="27"/>
+      <c r="AH133" s="28"/>
+      <c r="AI133" s="15"/>
+    </row>
+    <row r="134" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D134" s="15"/>
+      <c r="G134" s="29">
         <v>1</v>
       </c>
-      <c r="H133" s="16" t="s">
+      <c r="H134" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I133" s="17"/>
-      <c r="J133" s="17"/>
-      <c r="K133" s="17"/>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="18"/>
-      <c r="P133" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q133" s="17"/>
-      <c r="R133" s="17"/>
-      <c r="S133" s="17"/>
-      <c r="T133" s="17"/>
-      <c r="U133" s="17"/>
-      <c r="V133" s="17"/>
-      <c r="W133" s="17"/>
-      <c r="X133" s="17"/>
-      <c r="Y133" s="17"/>
-      <c r="Z133" s="17"/>
-      <c r="AA133" s="17"/>
-      <c r="AB133" s="17"/>
-      <c r="AC133" s="17"/>
-      <c r="AD133" s="17"/>
-      <c r="AE133" s="17"/>
-      <c r="AF133" s="17"/>
-      <c r="AG133" s="17"/>
-      <c r="AH133" s="18"/>
-      <c r="AI133" s="15"/>
-    </row>
-    <row r="134" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D134" s="15"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I134" s="21"/>
-      <c r="J134" s="21"/>
-      <c r="K134" s="21"/>
-      <c r="L134" s="21"/>
-      <c r="M134" s="21"/>
-      <c r="N134" s="21"/>
-      <c r="O134" s="22"/>
-      <c r="P134" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q134" s="21"/>
-      <c r="R134" s="21"/>
-      <c r="S134" s="21"/>
-      <c r="T134" s="21"/>
-      <c r="U134" s="21"/>
-      <c r="V134" s="21"/>
-      <c r="W134" s="21"/>
-      <c r="X134" s="21"/>
-      <c r="Y134" s="21"/>
-      <c r="Z134" s="21"/>
-      <c r="AA134" s="21"/>
-      <c r="AB134" s="21"/>
-      <c r="AC134" s="21"/>
-      <c r="AD134" s="21"/>
-      <c r="AE134" s="21"/>
-      <c r="AF134" s="21"/>
-      <c r="AG134" s="21"/>
-      <c r="AH134" s="22"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="18"/>
+      <c r="P134" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q134" s="17"/>
+      <c r="R134" s="17"/>
+      <c r="S134" s="17"/>
+      <c r="T134" s="17"/>
+      <c r="U134" s="17"/>
+      <c r="V134" s="17"/>
+      <c r="W134" s="17"/>
+      <c r="X134" s="17"/>
+      <c r="Y134" s="17"/>
+      <c r="Z134" s="17"/>
+      <c r="AA134" s="17"/>
+      <c r="AB134" s="17"/>
+      <c r="AC134" s="17"/>
+      <c r="AD134" s="17"/>
+      <c r="AE134" s="17"/>
+      <c r="AF134" s="17"/>
+      <c r="AG134" s="17"/>
+      <c r="AH134" s="18"/>
       <c r="AI134" s="15"/>
     </row>
-    <row r="135" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D135" s="15"/>
       <c r="G135" s="30"/>
-      <c r="H135" s="20"/>
+      <c r="H135" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="I135" s="21"/>
       <c r="J135" s="21"/>
       <c r="K135" s="21"/>
@@ -4792,7 +4812,7 @@
       <c r="N135" s="21"/>
       <c r="O135" s="22"/>
       <c r="P135" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q135" s="21"/>
       <c r="R135" s="21"/>
@@ -4814,252 +4834,286 @@
       <c r="AH135" s="22"/>
       <c r="AI135" s="15"/>
     </row>
-    <row r="136" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D136" s="15"/>
-      <c r="G136" s="31"/>
-      <c r="H136" s="23"/>
-      <c r="I136" s="24"/>
-      <c r="J136" s="24"/>
-      <c r="K136" s="24"/>
-      <c r="L136" s="24"/>
-      <c r="M136" s="24"/>
-      <c r="N136" s="24"/>
-      <c r="O136" s="25"/>
-      <c r="P136" s="23" t="s">
+      <c r="G136" s="30"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="21"/>
+      <c r="M136" s="21"/>
+      <c r="N136" s="21"/>
+      <c r="O136" s="22"/>
+      <c r="P136" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q136" s="21"/>
+      <c r="R136" s="21"/>
+      <c r="S136" s="21"/>
+      <c r="T136" s="21"/>
+      <c r="U136" s="21"/>
+      <c r="V136" s="21"/>
+      <c r="W136" s="21"/>
+      <c r="X136" s="21"/>
+      <c r="Y136" s="21"/>
+      <c r="Z136" s="21"/>
+      <c r="AA136" s="21"/>
+      <c r="AB136" s="21"/>
+      <c r="AC136" s="21"/>
+      <c r="AD136" s="21"/>
+      <c r="AE136" s="21"/>
+      <c r="AF136" s="21"/>
+      <c r="AG136" s="21"/>
+      <c r="AH136" s="22"/>
+      <c r="AI136" s="15"/>
+    </row>
+    <row r="137" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D137" s="15"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="24"/>
+      <c r="L137" s="24"/>
+      <c r="M137" s="24"/>
+      <c r="N137" s="24"/>
+      <c r="O137" s="25"/>
+      <c r="P137" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q137" s="24"/>
+      <c r="R137" s="24"/>
+      <c r="S137" s="24"/>
+      <c r="T137" s="24"/>
+      <c r="U137" s="24"/>
+      <c r="V137" s="24"/>
+      <c r="W137" s="24"/>
+      <c r="X137" s="24"/>
+      <c r="Y137" s="24"/>
+      <c r="Z137" s="24"/>
+      <c r="AA137" s="24"/>
+      <c r="AB137" s="24"/>
+      <c r="AC137" s="24"/>
+      <c r="AD137" s="24"/>
+      <c r="AE137" s="24"/>
+      <c r="AF137" s="24"/>
+      <c r="AG137" s="24"/>
+      <c r="AH137" s="25"/>
+      <c r="AI137" s="15"/>
+    </row>
+    <row r="138" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D138" s="15"/>
+      <c r="G138" s="29">
+        <v>2</v>
+      </c>
+      <c r="H138" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="18"/>
+      <c r="P138" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q138" s="17"/>
+      <c r="R138" s="17"/>
+      <c r="S138" s="17"/>
+      <c r="T138" s="17"/>
+      <c r="U138" s="17"/>
+      <c r="V138" s="17"/>
+      <c r="W138" s="17"/>
+      <c r="X138" s="17"/>
+      <c r="Y138" s="17"/>
+      <c r="Z138" s="17"/>
+      <c r="AA138" s="17"/>
+      <c r="AB138" s="17"/>
+      <c r="AC138" s="17"/>
+      <c r="AD138" s="17"/>
+      <c r="AE138" s="17"/>
+      <c r="AF138" s="17"/>
+      <c r="AG138" s="17"/>
+      <c r="AH138" s="18"/>
+      <c r="AI138" s="15"/>
+    </row>
+    <row r="139" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D139" s="15"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="21"/>
+      <c r="M139" s="21"/>
+      <c r="N139" s="21"/>
+      <c r="O139" s="22"/>
+      <c r="P139" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="Q136" s="24"/>
-      <c r="R136" s="24"/>
-      <c r="S136" s="24"/>
-      <c r="T136" s="24"/>
-      <c r="U136" s="24"/>
-      <c r="V136" s="24"/>
-      <c r="W136" s="24"/>
-      <c r="X136" s="24"/>
-      <c r="Y136" s="24"/>
-      <c r="Z136" s="24"/>
-      <c r="AA136" s="24"/>
-      <c r="AB136" s="24"/>
-      <c r="AC136" s="24"/>
-      <c r="AD136" s="24"/>
-      <c r="AE136" s="24"/>
-      <c r="AF136" s="24"/>
-      <c r="AG136" s="24"/>
-      <c r="AH136" s="25"/>
-      <c r="AI136" s="15"/>
-    </row>
-    <row r="137" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D137" s="15"/>
-      <c r="G137" s="29">
-        <v>2</v>
-      </c>
-      <c r="H137" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
-      <c r="K137" s="17"/>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="18"/>
-      <c r="P137" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q137" s="17"/>
-      <c r="R137" s="17"/>
-      <c r="S137" s="17"/>
-      <c r="T137" s="17"/>
-      <c r="U137" s="17"/>
-      <c r="V137" s="17"/>
-      <c r="W137" s="17"/>
-      <c r="X137" s="17"/>
-      <c r="Y137" s="17"/>
-      <c r="Z137" s="17"/>
-      <c r="AA137" s="17"/>
-      <c r="AB137" s="17"/>
-      <c r="AC137" s="17"/>
-      <c r="AD137" s="17"/>
-      <c r="AE137" s="17"/>
-      <c r="AF137" s="17"/>
-      <c r="AG137" s="17"/>
-      <c r="AH137" s="18"/>
-      <c r="AI137" s="15"/>
-    </row>
-    <row r="138" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D138" s="15"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I138" s="21"/>
-      <c r="J138" s="21"/>
-      <c r="K138" s="21"/>
-      <c r="L138" s="21"/>
-      <c r="M138" s="21"/>
-      <c r="N138" s="21"/>
-      <c r="O138" s="22"/>
-      <c r="P138" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q138" s="21"/>
-      <c r="R138" s="21"/>
-      <c r="S138" s="21"/>
-      <c r="T138" s="21"/>
-      <c r="U138" s="21"/>
-      <c r="V138" s="21"/>
-      <c r="W138" s="21"/>
-      <c r="X138" s="21"/>
-      <c r="Y138" s="21"/>
-      <c r="Z138" s="21"/>
-      <c r="AA138" s="21"/>
-      <c r="AB138" s="21"/>
-      <c r="AC138" s="21"/>
-      <c r="AD138" s="21"/>
-      <c r="AE138" s="21"/>
-      <c r="AF138" s="21"/>
-      <c r="AG138" s="21"/>
-      <c r="AH138" s="22"/>
-    </row>
-    <row r="139" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D139" s="15"/>
-      <c r="G139" s="31"/>
-      <c r="H139" s="23" t="s">
+      <c r="Q139" s="21"/>
+      <c r="R139" s="21"/>
+      <c r="S139" s="21"/>
+      <c r="T139" s="21"/>
+      <c r="U139" s="21"/>
+      <c r="V139" s="21"/>
+      <c r="W139" s="21"/>
+      <c r="X139" s="21"/>
+      <c r="Y139" s="21"/>
+      <c r="Z139" s="21"/>
+      <c r="AA139" s="21"/>
+      <c r="AB139" s="21"/>
+      <c r="AC139" s="21"/>
+      <c r="AD139" s="21"/>
+      <c r="AE139" s="21"/>
+      <c r="AF139" s="21"/>
+      <c r="AG139" s="21"/>
+      <c r="AH139" s="22"/>
+    </row>
+    <row r="140" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D140" s="15"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I139" s="24"/>
-      <c r="J139" s="24"/>
-      <c r="K139" s="24"/>
-      <c r="L139" s="24"/>
-      <c r="M139" s="24"/>
-      <c r="N139" s="24"/>
-      <c r="O139" s="25"/>
-      <c r="P139" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q139" s="24"/>
-      <c r="R139" s="24"/>
-      <c r="S139" s="24"/>
-      <c r="T139" s="24"/>
-      <c r="U139" s="24"/>
-      <c r="V139" s="24"/>
-      <c r="W139" s="24"/>
-      <c r="X139" s="24"/>
-      <c r="Y139" s="24"/>
-      <c r="Z139" s="24"/>
-      <c r="AA139" s="24"/>
-      <c r="AB139" s="24"/>
-      <c r="AC139" s="24"/>
-      <c r="AD139" s="24"/>
-      <c r="AE139" s="24"/>
-      <c r="AF139" s="24"/>
-      <c r="AG139" s="24"/>
-      <c r="AH139" s="25"/>
-    </row>
-    <row r="140" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D140" s="15"/>
-    </row>
-    <row r="141" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I140" s="24"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="24"/>
+      <c r="L140" s="24"/>
+      <c r="M140" s="24"/>
+      <c r="N140" s="24"/>
+      <c r="O140" s="25"/>
+      <c r="P140" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q140" s="24"/>
+      <c r="R140" s="24"/>
+      <c r="S140" s="24"/>
+      <c r="T140" s="24"/>
+      <c r="U140" s="24"/>
+      <c r="V140" s="24"/>
+      <c r="W140" s="24"/>
+      <c r="X140" s="24"/>
+      <c r="Y140" s="24"/>
+      <c r="Z140" s="24"/>
+      <c r="AA140" s="24"/>
+      <c r="AB140" s="24"/>
+      <c r="AC140" s="24"/>
+      <c r="AD140" s="24"/>
+      <c r="AE140" s="24"/>
+      <c r="AF140" s="24"/>
+      <c r="AG140" s="24"/>
+      <c r="AH140" s="25"/>
+    </row>
+    <row r="141" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D141" s="15"/>
-      <c r="E141" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F141" s="19" t="s">
+    </row>
+    <row r="142" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D142" s="15"/>
+      <c r="E142" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F142" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D142" s="15"/>
-      <c r="F142" s="15" t="str">
-        <f>$E$141&amp;".1."</f>
+    <row r="143" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D143" s="15"/>
+      <c r="F143" s="15" t="str">
+        <f>$E$142&amp;".1."</f>
         <v>(4).1.</v>
       </c>
-      <c r="G142" s="19" t="s">
+      <c r="G143" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="143" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="144" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" s="15"/>
       <c r="F144" s="15"/>
       <c r="G144" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D145" s="15"/>
-    </row>
-    <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F145" s="15"/>
+      <c r="G145" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D146" s="15"/>
-      <c r="E146" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F146" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="147" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D147" s="15"/>
-      <c r="F147" s="15" t="str">
-        <f>$E$146&amp;".1."</f>
+      <c r="E147" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F147" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D148" s="15"/>
+      <c r="F148" s="15" t="str">
+        <f>$E$147&amp;".1."</f>
         <v>(5).1.</v>
       </c>
-      <c r="G147" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="148" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D148" s="15"/>
       <c r="G148" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="149" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="149" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D149" s="15"/>
       <c r="G149" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" s="15"/>
-    </row>
-    <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="33"/>
-      <c r="E151" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="F151" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G150" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D151" s="15"/>
+    </row>
+    <row r="152" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D152" s="33"/>
-      <c r="E152" s="32"/>
+      <c r="E152" s="32" t="s">
+        <v>127</v>
+      </c>
       <c r="F152" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="153" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D153" s="33"/>
       <c r="E153" s="32"/>
       <c r="F153" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="154" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="154" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D154" s="33"/>
-      <c r="F154" s="15"/>
-    </row>
-    <row r="155" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D155" s="34"/>
-    </row>
-    <row r="156" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D155" s="33"/>
+      <c r="F155" s="15"/>
+    </row>
+    <row r="156" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D156" s="34"/>
+    </row>
+    <row r="157" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5080,7 +5134,7 @@
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="30" max="34" man="1"/>
     <brk id="76" max="34" man="1"/>
-    <brk id="112" max="34" man="1"/>
+    <brk id="113" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
